--- a/USASwimming/Times For Brennan Keane.xlsx
+++ b/USASwimming/Times For Brennan Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="131">
   <si>
     <t>Event</t>
   </si>
@@ -174,6 +174,12 @@
     <t>100 FR</t>
   </si>
   <si>
+    <t>2019 CT RYWC Candlewood Cup</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
     <t>3/3/2019</t>
   </si>
   <si>
@@ -228,6 +234,15 @@
     <t>3/1/2019</t>
   </si>
   <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
+    <t>2019 CT Cheshire Y Sea Dog IMX</t>
+  </si>
+  <si>
+    <t>10/20/2019</t>
+  </si>
+  <si>
     <t>2019 CT WYW Winter Qualifier R</t>
   </si>
   <si>
@@ -243,6 +258,9 @@
     <t>500 FR</t>
   </si>
   <si>
+    <t>11/8/2019</t>
+  </si>
+  <si>
     <t>50 BK</t>
   </si>
   <si>
@@ -256,6 +274,9 @@
   </si>
   <si>
     <t>100 BK</t>
+  </si>
+  <si>
+    <t>10/19/2019</t>
   </si>
   <si>
     <t>10/20/2018</t>
@@ -754,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1357,22 +1378,22 @@
         <v>49</v>
       </c>
       <c r="B19" s="3">
-        <v>33.500823958333335</v>
+        <v>33.500802777777778</v>
       </c>
       <c r="C19" s="3">
-        <v>33.500823958333335</v>
+        <v>33.500802777777778</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -1381,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1389,22 +1410,22 @@
         <v>49</v>
       </c>
       <c r="B20" s="3">
-        <v>33.500860069444443</v>
+        <v>33.500823958333335</v>
       </c>
       <c r="C20" s="3">
-        <v>33.500860069444443</v>
+        <v>33.500823958333335</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1421,22 +1442,22 @@
         <v>49</v>
       </c>
       <c r="B21" s="3">
-        <v>33.500920601851853</v>
+        <v>33.500860069444443</v>
       </c>
       <c r="C21" s="3">
-        <v>33.500920601851853</v>
+        <v>33.500860069444443</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1445,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1453,22 +1474,22 @@
         <v>49</v>
       </c>
       <c r="B22" s="3">
-        <v>33.500928819444447</v>
+        <v>33.500920601851853</v>
       </c>
       <c r="C22" s="3">
-        <v>33.500928819444447</v>
+        <v>33.500920601851853</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1485,22 +1506,22 @@
         <v>49</v>
       </c>
       <c r="B23" s="3">
-        <v>33.500938078703705</v>
+        <v>33.500928819444447</v>
       </c>
       <c r="C23" s="3">
-        <v>33.500938078703705</v>
+        <v>33.500928819444447</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1509,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1517,22 +1538,22 @@
         <v>49</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500957291666666</v>
+        <v>33.500938078703705</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500957291666666</v>
+        <v>33.500938078703705</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1541,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1549,22 +1570,22 @@
         <v>49</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500968402777779</v>
+        <v>33.500957291666666</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500968402777779</v>
+        <v>33.500957291666666</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1573,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1581,22 +1602,22 @@
         <v>49</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500970717592594</v>
+        <v>33.500968402777779</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500970717592594</v>
+        <v>33.500968402777779</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1605,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1613,22 +1634,22 @@
         <v>49</v>
       </c>
       <c r="B27" s="3">
-        <v>33.500998726851854</v>
+        <v>33.500970717592594</v>
       </c>
       <c r="C27" s="3">
-        <v>33.500998726851854</v>
+        <v>33.500970717592594</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1645,22 +1666,22 @@
         <v>49</v>
       </c>
       <c r="B28" s="3">
-        <v>33.501021990740739</v>
+        <v>33.500998726851854</v>
       </c>
       <c r="C28" s="3">
-        <v>33.501021990740739</v>
+        <v>33.500998726851854</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1669,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1677,22 +1698,22 @@
         <v>49</v>
       </c>
       <c r="B29" s="3">
-        <v>33.501030787037038</v>
+        <v>33.501021990740739</v>
       </c>
       <c r="C29" s="3">
-        <v>33.501030787037038</v>
+        <v>33.501021990740739</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1701,7 +1722,7 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1709,22 +1730,22 @@
         <v>49</v>
       </c>
       <c r="B30" s="3">
-        <v>33.501057638888888</v>
+        <v>33.501030787037038</v>
       </c>
       <c r="C30" s="3">
-        <v>33.501057638888888</v>
+        <v>33.501030787037038</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1733,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,22 +1762,22 @@
         <v>49</v>
       </c>
       <c r="B31" s="3">
-        <v>33.501086805555559</v>
+        <v>33.501057638888888</v>
       </c>
       <c r="C31" s="3">
-        <v>33.501086805555559</v>
+        <v>33.501057638888888</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1773,10 +1794,10 @@
         <v>49</v>
       </c>
       <c r="B32" s="3">
-        <v>33.501087037037038</v>
+        <v>33.501086805555559</v>
       </c>
       <c r="C32" s="3">
-        <v>33.501087037037038</v>
+        <v>33.501086805555559</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1788,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1797,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,31 +1826,31 @@
         <v>49</v>
       </c>
       <c r="B33" s="3">
-        <v>33.501122569444448</v>
+        <v>33.501087037037038</v>
       </c>
       <c r="C33" s="3">
-        <v>33.501122569444448</v>
+        <v>33.501087037037038</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
         <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1837,22 +1858,22 @@
         <v>49</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501194212962965</v>
+        <v>33.501122569444448</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501194212962965</v>
+        <v>33.501122569444448</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1861,30 +1882,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3">
-        <v>33.501787731481478</v>
+        <v>33.501194212962965</v>
       </c>
       <c r="C35" s="3">
-        <v>33.501787731481478</v>
+        <v>33.501194212962965</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1898,25 +1919,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501872685185184</v>
+        <v>33.501787731481478</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501872685185184</v>
+        <v>33.501787731481478</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1930,25 +1951,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3">
-        <v>33.50192511574074</v>
+        <v>33.501830787037036</v>
       </c>
       <c r="C37" s="3">
-        <v>33.50192511574074</v>
+        <v>33.501830787037036</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1962,25 +1983,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="3">
-        <v>33.501967013888887</v>
+        <v>33.501843055555554</v>
       </c>
       <c r="C38" s="3">
-        <v>33.501967013888887</v>
+        <v>33.501843055555554</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1989,30 +2010,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3">
-        <v>33.502072453703704</v>
+        <v>33.501872685185184</v>
       </c>
       <c r="C39" s="3">
-        <v>33.502072453703704</v>
+        <v>33.501872685185184</v>
       </c>
       <c r="D39">
         <v>11</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2021,30 +2042,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3">
-        <v>33.502133796296299</v>
+        <v>33.50192511574074</v>
       </c>
       <c r="C40" s="3">
-        <v>33.502133796296299</v>
+        <v>33.50192511574074</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2053,30 +2074,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3">
-        <v>33.502209837962965</v>
+        <v>33.501967013888887</v>
       </c>
       <c r="C41" s="3">
-        <v>33.502209837962965</v>
+        <v>33.501967013888887</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2085,30 +2106,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42" s="3">
-        <v>33.502269212962965</v>
+        <v>33.502072453703704</v>
       </c>
       <c r="C42" s="3">
-        <v>33.502269212962965</v>
+        <v>33.502072453703704</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E42">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2117,30 +2138,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="3">
-        <v>33.502345486111111</v>
+        <v>33.502133796296299</v>
       </c>
       <c r="C43" s="3">
-        <v>33.502345486111111</v>
+        <v>33.502133796296299</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2149,30 +2170,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" s="3">
-        <v>33.502414583333334</v>
+        <v>33.502209837962965</v>
       </c>
       <c r="C44" s="3">
-        <v>33.502414583333334</v>
+        <v>33.502209837962965</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2181,30 +2202,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3">
-        <v>33.505444097222224</v>
+        <v>33.502269212962965</v>
       </c>
       <c r="C45" s="3">
-        <v>33.505444097222224</v>
+        <v>33.502269212962965</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2213,30 +2234,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B46" s="3">
-        <v>33.505681597222221</v>
+        <v>33.502345486111111</v>
       </c>
       <c r="C46" s="3">
-        <v>33.505681597222221</v>
+        <v>33.502345486111111</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2245,30 +2266,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="2">
-        <v>33.500440740740743</v>
-      </c>
-      <c r="C47" s="2">
-        <v>36557.50044074074</v>
+        <v>68</v>
+      </c>
+      <c r="B47" s="3">
+        <v>33.502414583333334</v>
+      </c>
+      <c r="C47" s="3">
+        <v>33.502414583333334</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2277,30 +2298,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="2">
-        <v>33.500458449074074</v>
-      </c>
-      <c r="C48" s="2">
-        <v>36557.500458449074</v>
+        <v>77</v>
+      </c>
+      <c r="B48" s="3">
+        <v>33.50494733796296</v>
+      </c>
+      <c r="C48" s="3">
+        <v>33.50494733796296</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2309,30 +2330,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="2">
-        <v>33.500458564814814</v>
-      </c>
-      <c r="C49" s="2">
-        <v>36557.500458564813</v>
+        <v>77</v>
+      </c>
+      <c r="B49" s="3">
+        <v>33.504986226851855</v>
+      </c>
+      <c r="C49" s="3">
+        <v>33.504986226851855</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2341,30 +2362,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="2">
-        <v>36557.50046909722</v>
+        <v>77</v>
+      </c>
+      <c r="B50" s="3">
+        <v>33.505444097222224</v>
+      </c>
+      <c r="C50" s="3">
+        <v>33.505444097222224</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2373,30 +2394,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="2">
-        <v>33.500472800925927</v>
-      </c>
-      <c r="C51" s="2">
-        <v>36557.500472800923</v>
+        <v>77</v>
+      </c>
+      <c r="B51" s="3">
+        <v>33.505681597222221</v>
+      </c>
+      <c r="C51" s="3">
+        <v>33.505681597222221</v>
       </c>
       <c r="D51">
         <v>11</v>
       </c>
       <c r="E51">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2405,30 +2426,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2">
-        <v>33.500476736111111</v>
+        <v>33.500440740740743</v>
       </c>
       <c r="C52" s="2">
-        <v>36557.50047673611</v>
+        <v>36557.50044074074</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2437,30 +2458,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2">
-        <v>33.500480555555555</v>
+        <v>33.500458449074074</v>
       </c>
       <c r="C53" s="2">
-        <v>36557.500480555558</v>
+        <v>36557.500458449074</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2469,31 +2490,31 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="2">
+        <v>33.500458564814814</v>
+      </c>
+      <c r="C54" s="2">
+        <v>36557.500458564813</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>222</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="2">
-        <v>33.500493749999997</v>
-      </c>
-      <c r="C54" s="2">
-        <v>36557.500493749998</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <v>225</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
       <c r="H54" t="s">
         <v>13</v>
       </c>
@@ -2501,30 +2522,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="2">
-        <v>33.500521643518518</v>
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
       </c>
       <c r="C55" s="2">
-        <v>36557.500521643517</v>
+        <v>36557.50046909722</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2533,30 +2554,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2">
-        <v>33.500523611111113</v>
+        <v>33.500472800925927</v>
       </c>
       <c r="C56" s="2">
-        <v>36557.50052361111</v>
+        <v>36557.500472800923</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2565,30 +2586,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2">
-        <v>33.500527314814818</v>
+        <v>33.500476736111111</v>
       </c>
       <c r="C57" s="2">
-        <v>36557.500527314813</v>
+        <v>36557.50047673611</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2597,30 +2618,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2">
-        <v>33.500539583333335</v>
+        <v>33.500480555555555</v>
       </c>
       <c r="C58" s="2">
-        <v>36557.500539583336</v>
+        <v>36557.500480555558</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2629,30 +2650,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2">
-        <v>33.500559722222221</v>
+        <v>33.500493749999997</v>
       </c>
       <c r="C59" s="2">
-        <v>36557.500559722219</v>
+        <v>36557.500493749998</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2661,30 +2682,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2">
-        <v>33.500574999999998</v>
+        <v>33.500521643518518</v>
       </c>
       <c r="C60" s="2">
-        <v>36557.500574999998</v>
+        <v>36557.500521643517</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2693,30 +2714,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2">
-        <v>33.500576620370367</v>
+        <v>33.500523611111113</v>
       </c>
       <c r="C61" s="2">
-        <v>36557.500576620369</v>
+        <v>36557.50052361111</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2725,30 +2746,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2">
-        <v>33.500595717592596</v>
+        <v>33.500527314814818</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500595717589</v>
+        <v>36557.500527314813</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2757,30 +2778,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>33.500606365740744</v>
+        <v>33.500539583333335</v>
       </c>
       <c r="C63" s="2">
-        <v>36557.500606365742</v>
+        <v>36557.500539583336</v>
       </c>
       <c r="D63">
         <v>9</v>
       </c>
       <c r="E63">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2789,30 +2810,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="3">
-        <v>33.500938541666663</v>
-      </c>
-      <c r="C64" s="3">
-        <v>33.500938541666663</v>
+        <v>79</v>
+      </c>
+      <c r="B64" s="2">
+        <v>33.500559722222221</v>
+      </c>
+      <c r="C64" s="2">
+        <v>36557.500559722219</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>315</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2821,30 +2842,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="3">
-        <v>33.500952083333331</v>
-      </c>
-      <c r="C65" s="3">
-        <v>33.500952083333331</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="2">
+        <v>33.500574999999998</v>
+      </c>
+      <c r="C65" s="2">
+        <v>36557.500574999998</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2853,30 +2874,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="3">
-        <v>33.500964583333335</v>
-      </c>
-      <c r="C66" s="3">
-        <v>33.500964583333335</v>
+        <v>79</v>
+      </c>
+      <c r="B66" s="2">
+        <v>33.500576620370367</v>
+      </c>
+      <c r="C66" s="2">
+        <v>36557.500576620369</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2885,30 +2906,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="3">
-        <v>33.501043287037035</v>
-      </c>
-      <c r="C67" s="3">
-        <v>33.501043287037035</v>
+        <v>79</v>
+      </c>
+      <c r="B67" s="2">
+        <v>33.500595717592596</v>
+      </c>
+      <c r="C67" s="2">
+        <v>36557.500595717589</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2917,30 +2938,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="3">
-        <v>33.501075810185185</v>
-      </c>
-      <c r="C68" s="3">
-        <v>33.501075810185185</v>
+        <v>79</v>
+      </c>
+      <c r="B68" s="2">
+        <v>33.500606365740744</v>
+      </c>
+      <c r="C68" s="2">
+        <v>36557.500606365742</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2949,30 +2970,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3">
-        <v>33.50109895833333</v>
+        <v>33.500916203703703</v>
       </c>
       <c r="C69" s="3">
-        <v>33.50109895833333</v>
+        <v>33.500916203703703</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -2981,30 +3002,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B70" s="3">
-        <v>33.501101504629631</v>
+        <v>33.500918055555559</v>
       </c>
       <c r="C70" s="3">
-        <v>33.501101504629631</v>
+        <v>33.500918055555559</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3013,30 +3034,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B71" s="3">
-        <v>33.501157870370371</v>
+        <v>33.500938541666663</v>
       </c>
       <c r="C71" s="3">
-        <v>33.501157870370371</v>
+        <v>33.500938541666663</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3045,30 +3066,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B72" s="3">
-        <v>33.50121863425926</v>
+        <v>33.500952083333331</v>
       </c>
       <c r="C72" s="3">
-        <v>33.50121863425926</v>
+        <v>33.500952083333331</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3077,30 +3098,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B73" s="3">
-        <v>33.501219675925924</v>
+        <v>33.500964583333335</v>
       </c>
       <c r="C73" s="3">
-        <v>33.501219675925924</v>
+        <v>33.500964583333335</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3109,30 +3130,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3">
-        <v>33.502052314814811</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="C74" s="3">
-        <v>33.502052314814811</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3141,30 +3162,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75" s="3">
-        <v>33.50214710648148</v>
+        <v>33.501075810185185</v>
       </c>
       <c r="C75" s="3">
-        <v>33.50214710648148</v>
+        <v>33.501075810185185</v>
       </c>
       <c r="D75">
         <v>11</v>
       </c>
       <c r="E75">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3173,30 +3194,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="2">
-        <v>33.500625462962965</v>
-      </c>
-      <c r="C76" s="2">
-        <v>36557.500625462962</v>
+        <v>83</v>
+      </c>
+      <c r="B76" s="3">
+        <v>33.50109895833333</v>
+      </c>
+      <c r="C76" s="3">
+        <v>33.50109895833333</v>
       </c>
       <c r="D76">
         <v>10</v>
       </c>
       <c r="E76">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3205,30 +3226,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="2">
-        <v>33.500630208333334</v>
-      </c>
-      <c r="C77" s="2">
-        <v>36557.500630208335</v>
+        <v>83</v>
+      </c>
+      <c r="B77" s="3">
+        <v>33.501101504629631</v>
+      </c>
+      <c r="C77" s="3">
+        <v>33.501101504629631</v>
       </c>
       <c r="D77">
         <v>10</v>
       </c>
       <c r="E77">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3237,30 +3258,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="2">
-        <v>33.500643287037036</v>
-      </c>
-      <c r="C78" s="2">
-        <v>36557.500643287036</v>
+        <v>83</v>
+      </c>
+      <c r="B78" s="3">
+        <v>33.501157870370371</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33.501157870370371</v>
       </c>
       <c r="D78">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3269,30 +3290,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="2">
-        <v>33.500652430555554</v>
-      </c>
-      <c r="C79" s="2">
-        <v>36557.500652430557</v>
+        <v>83</v>
+      </c>
+      <c r="B79" s="3">
+        <v>33.50121863425926</v>
+      </c>
+      <c r="C79" s="3">
+        <v>33.50121863425926</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3301,30 +3322,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="2">
-        <v>33.50068263888889</v>
-      </c>
-      <c r="C80" s="2">
-        <v>36557.500682638885</v>
+        <v>83</v>
+      </c>
+      <c r="B80" s="3">
+        <v>33.501219675925924</v>
+      </c>
+      <c r="C80" s="3">
+        <v>33.501219675925924</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3333,30 +3354,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B81" s="3">
-        <v>33.500712731481478</v>
+        <v>33.502052314814811</v>
       </c>
       <c r="C81" s="3">
-        <v>33.500712731481478</v>
+        <v>33.502052314814811</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3365,62 +3386,62 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3">
+        <v>33.50214710648148</v>
+      </c>
+      <c r="C82" s="3">
+        <v>33.50214710648148</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>210</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
         <v>80</v>
-      </c>
-      <c r="B82" s="3">
-        <v>33.500725347222222</v>
-      </c>
-      <c r="C82" s="3">
-        <v>33.500725347222222</v>
-      </c>
-      <c r="D82">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>45</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="3">
-        <v>33.501433680555557</v>
-      </c>
-      <c r="C83" s="3">
-        <v>33.501433680555557</v>
+        <v>87</v>
+      </c>
+      <c r="B83" s="2">
+        <v>33.500625462962965</v>
+      </c>
+      <c r="C83" s="2">
+        <v>36557.500625462962</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3429,30 +3450,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2">
-        <v>33.500471875000002</v>
+        <v>33.500630208333334</v>
       </c>
       <c r="C84" s="2">
-        <v>36557.500471874999</v>
+        <v>36557.500630208335</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3461,30 +3482,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>33.500472106481482</v>
+        <v>33.500643287037036</v>
       </c>
       <c r="C85" s="2">
-        <v>36557.500472106483</v>
+        <v>36557.500643287036</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3493,30 +3514,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>33.50050636574074</v>
+        <v>33.500652430555554</v>
       </c>
       <c r="C86" s="2">
-        <v>36557.500506365737</v>
+        <v>36557.500652430557</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3525,30 +3546,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>33.500517592592594</v>
+        <v>33.50068263888889</v>
       </c>
       <c r="C87" s="2">
-        <v>36557.500517592591</v>
+        <v>36557.500682638885</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3557,21 +3578,21 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="2">
-        <v>33.500526504629633</v>
-      </c>
-      <c r="C88" s="2">
-        <v>36557.500526504627</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>33.500712731481478</v>
+      </c>
+      <c r="C88" s="3">
+        <v>33.500712731481478</v>
       </c>
       <c r="D88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3580,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3589,30 +3610,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="2">
-        <v>33.500535300925925</v>
-      </c>
-      <c r="C89" s="2">
-        <v>36557.500535300926</v>
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>33.500725347222222</v>
+      </c>
+      <c r="C89" s="3">
+        <v>33.500725347222222</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3621,30 +3642,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="2">
-        <v>33.500539467592596</v>
-      </c>
-      <c r="C90" s="2">
-        <v>36557.50053946759</v>
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>33.501217592592596</v>
+      </c>
+      <c r="C90" s="3">
+        <v>33.501217592592596</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3653,30 +3674,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>82</v>
-      </c>
-      <c r="B91" s="2">
-        <v>33.500565856481479</v>
-      </c>
-      <c r="C91" s="2">
-        <v>36557.500565856484</v>
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>33.501433680555557</v>
+      </c>
+      <c r="C91" s="3">
+        <v>33.501433680555557</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3685,30 +3706,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
-        <v>33.500574999999998</v>
+        <v>33.500445023148146</v>
       </c>
       <c r="C92" s="2">
-        <v>36557.500574999998</v>
+        <v>36557.50044502315</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3717,30 +3738,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
-        <v>33.500576157407409</v>
+        <v>33.500471875000002</v>
       </c>
       <c r="C93" s="2">
-        <v>36557.500576157407</v>
+        <v>36557.500471874999</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3749,30 +3770,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2">
-        <v>33.500576736111114</v>
+        <v>33.500472106481482</v>
       </c>
       <c r="C94" s="2">
-        <v>36557.500576736114</v>
+        <v>36557.500472106483</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3781,30 +3802,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2">
-        <v>33.500646643518522</v>
+        <v>33.50050636574074</v>
       </c>
       <c r="C95" s="2">
-        <v>36557.500646643515</v>
+        <v>36557.500506365737</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3813,30 +3834,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2">
-        <v>33.500650462962966</v>
+        <v>33.500517592592594</v>
       </c>
       <c r="C96" s="2">
-        <v>36557.500650462964</v>
+        <v>36557.500517592591</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3845,21 +3866,21 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2">
-        <v>33.500650810185185</v>
+        <v>33.500526504629633</v>
       </c>
       <c r="C97" s="2">
-        <v>36557.500650810187</v>
+        <v>36557.500526504627</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3868,7 +3889,7 @@
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3877,30 +3898,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2">
-        <v>33.500667361111113</v>
+        <v>33.500535300925925</v>
       </c>
       <c r="C98" s="2">
-        <v>36557.500667361113</v>
+        <v>36557.500535300926</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3914,25 +3935,25 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" s="3">
-        <v>33.50107060185185</v>
-      </c>
-      <c r="C99" s="3">
-        <v>33.50107060185185</v>
+        <v>89</v>
+      </c>
+      <c r="B99" s="2">
+        <v>33.500539467592596</v>
+      </c>
+      <c r="C99" s="2">
+        <v>36557.50053946759</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3941,30 +3962,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="3">
-        <v>33.501097685185186</v>
-      </c>
-      <c r="C100" s="3">
-        <v>33.501097685185186</v>
+        <v>89</v>
+      </c>
+      <c r="B100" s="2">
+        <v>33.500565856481479</v>
+      </c>
+      <c r="C100" s="2">
+        <v>36557.500565856484</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3973,30 +3994,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" s="3">
-        <v>33.501131134259261</v>
-      </c>
-      <c r="C101" s="3">
-        <v>33.501131134259261</v>
+        <v>89</v>
+      </c>
+      <c r="B101" s="2">
+        <v>33.500574999999998</v>
+      </c>
+      <c r="C101" s="2">
+        <v>36557.500574999998</v>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -4005,30 +4026,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="3">
-        <v>33.501215625</v>
-      </c>
-      <c r="C102" s="3">
-        <v>33.501215625</v>
+        <v>89</v>
+      </c>
+      <c r="B102" s="2">
+        <v>33.500576157407409</v>
+      </c>
+      <c r="C102" s="2">
+        <v>36557.500576157407</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4037,30 +4058,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>84</v>
-      </c>
-      <c r="B103" s="3">
-        <v>33.501056712962964</v>
-      </c>
-      <c r="C103" s="3">
-        <v>33.501056712962964</v>
+        <v>89</v>
+      </c>
+      <c r="B103" s="2">
+        <v>33.500576736111114</v>
+      </c>
+      <c r="C103" s="2">
+        <v>36557.500576736114</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4069,30 +4090,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>84</v>
-      </c>
-      <c r="B104" s="3">
-        <v>33.501103125</v>
-      </c>
-      <c r="C104" s="3">
-        <v>33.501103125</v>
+        <v>89</v>
+      </c>
+      <c r="B104" s="2">
+        <v>33.500646643518522</v>
+      </c>
+      <c r="C104" s="2">
+        <v>36557.500646643515</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4101,30 +4122,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>84</v>
-      </c>
-      <c r="B105" s="3">
-        <v>33.501153240740742</v>
-      </c>
-      <c r="C105" s="3">
-        <v>33.501153240740742</v>
+        <v>89</v>
+      </c>
+      <c r="B105" s="2">
+        <v>33.500650462962966</v>
+      </c>
+      <c r="C105" s="2">
+        <v>36557.500650462964</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4133,62 +4154,62 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>84</v>
-      </c>
-      <c r="B106" s="3">
-        <v>33.501161805555554</v>
-      </c>
-      <c r="C106" s="3">
-        <v>33.501161805555554</v>
+        <v>89</v>
+      </c>
+      <c r="B106" s="2">
+        <v>33.500650810185185</v>
+      </c>
+      <c r="C106" s="2">
+        <v>36557.500650810187</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
         <v>67</v>
-      </c>
-      <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
-      <c r="H106" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>84</v>
-      </c>
-      <c r="B107" s="3">
-        <v>33.50116678240741</v>
-      </c>
-      <c r="C107" s="3">
-        <v>33.50116678240741</v>
+        <v>89</v>
+      </c>
+      <c r="B107" s="2">
+        <v>33.500667361111113</v>
+      </c>
+      <c r="C107" s="2">
+        <v>36557.500667361113</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4197,30 +4218,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B108" s="3">
-        <v>33.501247685185184</v>
+        <v>33.501044675925925</v>
       </c>
       <c r="C108" s="3">
-        <v>33.501247685185184</v>
+        <v>33.501044675925925</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E108">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4229,30 +4250,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B109" s="3">
-        <v>33.501281365740738</v>
+        <v>33.50107060185185</v>
       </c>
       <c r="C109" s="3">
-        <v>33.501281365740738</v>
+        <v>33.50107060185185</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E109">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4261,30 +4282,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B110" s="3">
-        <v>33.501319791666667</v>
+        <v>33.501084374999998</v>
       </c>
       <c r="C110" s="3">
-        <v>33.501319791666667</v>
+        <v>33.501084374999998</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4293,30 +4314,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B111" s="3">
-        <v>33.50133414351852</v>
+        <v>33.501097685185186</v>
       </c>
       <c r="C111" s="3">
-        <v>33.50133414351852</v>
+        <v>33.501097685185186</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4325,30 +4346,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B112" s="3">
-        <v>33.502179861111109</v>
+        <v>33.501131134259261</v>
       </c>
       <c r="C112" s="3">
-        <v>33.502179861111109</v>
+        <v>33.501131134259261</v>
       </c>
       <c r="D112">
         <v>11</v>
       </c>
       <c r="E112">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4357,30 +4378,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B113" s="3">
-        <v>33.502243402777779</v>
+        <v>33.501215625</v>
       </c>
       <c r="C113" s="3">
-        <v>33.502243402777779</v>
+        <v>33.501215625</v>
       </c>
       <c r="D113">
         <v>11</v>
       </c>
       <c r="E113">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4389,30 +4410,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B114" s="3">
-        <v>33.502264814814815</v>
+        <v>33.501056712962964</v>
       </c>
       <c r="C114" s="3">
-        <v>33.502264814814815</v>
+        <v>33.501056712962964</v>
       </c>
       <c r="D114">
         <v>11</v>
       </c>
       <c r="E114">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4421,30 +4442,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B115" s="3">
-        <v>33.502334953703702</v>
+        <v>33.501103125</v>
       </c>
       <c r="C115" s="3">
-        <v>33.502334953703702</v>
+        <v>33.501103125</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4453,30 +4474,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B116" s="3">
-        <v>33.502342476851851</v>
+        <v>33.501153240740742</v>
       </c>
       <c r="C116" s="3">
-        <v>33.502342476851851</v>
+        <v>33.501153240740742</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4485,27 +4506,27 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B117" s="3">
-        <v>33.502411458333334</v>
+        <v>33.501161805555554</v>
       </c>
       <c r="C117" s="3">
-        <v>33.502411458333334</v>
+        <v>33.501161805555554</v>
       </c>
       <c r="D117">
         <v>10</v>
       </c>
       <c r="E117">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -4517,30 +4538,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B118" s="3">
-        <v>33.502443287037039</v>
+        <v>33.50116678240741</v>
       </c>
       <c r="C118" s="3">
-        <v>33.502443287037039</v>
+        <v>33.50116678240741</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4549,30 +4570,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="2">
-        <v>33.500413773148146</v>
-      </c>
-      <c r="C119" s="2">
-        <v>36557.500413773145</v>
+        <v>91</v>
+      </c>
+      <c r="B119" s="3">
+        <v>33.501247685185184</v>
+      </c>
+      <c r="C119" s="3">
+        <v>33.501247685185184</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4581,30 +4602,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="2">
-        <v>33.500420486111111</v>
-      </c>
-      <c r="C120" s="2">
-        <v>36557.500420486111</v>
+        <v>91</v>
+      </c>
+      <c r="B120" s="3">
+        <v>33.501281365740738</v>
+      </c>
+      <c r="C120" s="3">
+        <v>33.501281365740738</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>408</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4613,30 +4634,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="2">
-        <v>33.50042488425926</v>
-      </c>
-      <c r="C121" s="2">
-        <v>36557.50042488426</v>
+        <v>91</v>
+      </c>
+      <c r="B121" s="3">
+        <v>33.501319791666667</v>
+      </c>
+      <c r="C121" s="3">
+        <v>33.501319791666667</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E121">
-        <v>388</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4645,30 +4666,30 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="2">
-        <v>33.500427314814814</v>
-      </c>
-      <c r="C122" s="2">
-        <v>36557.500427314815</v>
+        <v>91</v>
+      </c>
+      <c r="B122" s="3">
+        <v>33.50133414351852</v>
+      </c>
+      <c r="C122" s="3">
+        <v>33.50133414351852</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>376</v>
+        <v>6</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4677,30 +4698,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="2">
-        <v>33.500443171296297</v>
-      </c>
-      <c r="C123" s="2">
-        <v>36557.500443171295</v>
+        <v>92</v>
+      </c>
+      <c r="B123" s="3">
+        <v>33.502179861111109</v>
+      </c>
+      <c r="C123" s="3">
+        <v>33.502179861111109</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123">
-        <v>435</v>
+        <v>147</v>
       </c>
       <c r="F123" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4709,30 +4730,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="2">
-        <v>33.500474652777775</v>
-      </c>
-      <c r="C124" s="2">
-        <v>36557.500474652777</v>
+        <v>92</v>
+      </c>
+      <c r="B124" s="3">
+        <v>33.502207523148151</v>
+      </c>
+      <c r="C124" s="3">
+        <v>33.502207523148151</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E124">
-        <v>412</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G124" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4741,30 +4762,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="2">
-        <v>33.500475000000002</v>
-      </c>
-      <c r="C125" s="2">
-        <v>36557.500475000001</v>
+        <v>92</v>
+      </c>
+      <c r="B125" s="3">
+        <v>33.502243402777779</v>
+      </c>
+      <c r="C125" s="3">
+        <v>33.502243402777779</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4773,30 +4794,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="2">
-        <v>33.500483564814814</v>
-      </c>
-      <c r="C126" s="2">
-        <v>36557.500483564814</v>
+        <v>92</v>
+      </c>
+      <c r="B126" s="3">
+        <v>33.502264814814815</v>
+      </c>
+      <c r="C126" s="3">
+        <v>33.502264814814815</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G126" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4805,30 +4826,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="2">
-        <v>33.500486226851855</v>
-      </c>
-      <c r="C127" s="2">
-        <v>36557.500486226854</v>
+        <v>92</v>
+      </c>
+      <c r="B127" s="3">
+        <v>33.502334953703702</v>
+      </c>
+      <c r="C127" s="3">
+        <v>33.502334953703702</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4837,30 +4858,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="2">
-        <v>33.500490972222224</v>
-      </c>
-      <c r="C128" s="2">
-        <v>36557.500490972219</v>
+        <v>92</v>
+      </c>
+      <c r="B128" s="3">
+        <v>33.502342476851851</v>
+      </c>
+      <c r="C128" s="3">
+        <v>33.502342476851851</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4869,30 +4890,30 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="2">
-        <v>33.500496527777777</v>
-      </c>
-      <c r="C129" s="2">
-        <v>36557.500496527777</v>
+        <v>92</v>
+      </c>
+      <c r="B129" s="3">
+        <v>33.502411458333334</v>
+      </c>
+      <c r="C129" s="3">
+        <v>33.502411458333334</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="F129" t="s">
         <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -4901,30 +4922,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B130" s="3">
-        <v>33.500905902777781</v>
+        <v>33.502443287037039</v>
       </c>
       <c r="C130" s="3">
-        <v>33.500905902777781</v>
+        <v>33.502443287037039</v>
       </c>
       <c r="D130">
         <v>11</v>
       </c>
       <c r="E130">
-        <v>395</v>
+        <v>8</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G130" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -4933,30 +4954,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>49</v>
-      </c>
-      <c r="B131" s="3">
-        <v>33.500951157407407</v>
-      </c>
-      <c r="C131" s="3">
-        <v>33.500951157407407</v>
+        <v>10</v>
+      </c>
+      <c r="B131" s="2">
+        <v>33.500413773148146</v>
+      </c>
+      <c r="C131" s="2">
+        <v>36557.500413773145</v>
       </c>
       <c r="D131">
         <v>11</v>
       </c>
       <c r="E131">
-        <v>296</v>
+        <v>440</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G131" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -4965,30 +4986,30 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>49</v>
-      </c>
-      <c r="B132" s="3">
-        <v>33.50096099537037</v>
-      </c>
-      <c r="C132" s="3">
-        <v>33.50096099537037</v>
+        <v>10</v>
+      </c>
+      <c r="B132" s="2">
+        <v>33.500420486111111</v>
+      </c>
+      <c r="C132" s="2">
+        <v>36557.500420486111</v>
       </c>
       <c r="D132">
         <v>11</v>
       </c>
       <c r="E132">
-        <v>276</v>
+        <v>408</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -4997,30 +5018,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>49</v>
-      </c>
-      <c r="B133" s="3">
-        <v>33.500961574074076</v>
-      </c>
-      <c r="C133" s="3">
-        <v>33.500961574074076</v>
+        <v>10</v>
+      </c>
+      <c r="B133" s="2">
+        <v>33.50042488425926</v>
+      </c>
+      <c r="C133" s="2">
+        <v>36557.50042488426</v>
       </c>
       <c r="D133">
         <v>11</v>
       </c>
       <c r="E133">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5029,30 +5050,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>49</v>
-      </c>
-      <c r="B134" s="3">
-        <v>33.500977662037037</v>
-      </c>
-      <c r="C134" s="3">
-        <v>33.500977662037037</v>
+        <v>10</v>
+      </c>
+      <c r="B134" s="2">
+        <v>33.500427314814814</v>
+      </c>
+      <c r="C134" s="2">
+        <v>36557.500427314815</v>
       </c>
       <c r="D134">
         <v>11</v>
       </c>
       <c r="E134">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5061,30 +5082,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>49</v>
-      </c>
-      <c r="B135" s="3">
-        <v>33.501045717592589</v>
-      </c>
-      <c r="C135" s="3">
-        <v>33.501045717592589</v>
+        <v>10</v>
+      </c>
+      <c r="B135" s="2">
+        <v>33.500443171296297</v>
+      </c>
+      <c r="C135" s="2">
+        <v>36557.500443171295</v>
       </c>
       <c r="D135">
         <v>10</v>
       </c>
       <c r="E135">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G135" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5093,30 +5114,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>49</v>
-      </c>
-      <c r="B136" s="3">
-        <v>33.501077083333335</v>
-      </c>
-      <c r="C136" s="3">
-        <v>33.501077083333335</v>
+        <v>10</v>
+      </c>
+      <c r="B136" s="2">
+        <v>33.500474652777775</v>
+      </c>
+      <c r="C136" s="2">
+        <v>36557.500474652777</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>190</v>
+        <v>412</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5125,30 +5146,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>49</v>
-      </c>
-      <c r="B137" s="3">
-        <v>33.501116898148148</v>
-      </c>
-      <c r="C137" s="3">
-        <v>33.501116898148148</v>
+        <v>10</v>
+      </c>
+      <c r="B137" s="2">
+        <v>33.500475000000002</v>
+      </c>
+      <c r="C137" s="2">
+        <v>36557.500475000001</v>
       </c>
       <c r="D137">
         <v>10</v>
       </c>
       <c r="E137">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="F137" t="s">
         <v>11</v>
       </c>
       <c r="G137" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5157,30 +5178,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>49</v>
-      </c>
-      <c r="B138" s="3">
-        <v>33.501171874999997</v>
-      </c>
-      <c r="C138" s="3">
-        <v>33.501171874999997</v>
+        <v>10</v>
+      </c>
+      <c r="B138" s="2">
+        <v>33.500483564814814</v>
+      </c>
+      <c r="C138" s="2">
+        <v>36557.500483564814</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5189,30 +5210,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>66</v>
-      </c>
-      <c r="B139" s="3">
-        <v>33.502040046296294</v>
-      </c>
-      <c r="C139" s="3">
-        <v>33.502040046296294</v>
+        <v>10</v>
+      </c>
+      <c r="B139" s="2">
+        <v>33.500486226851855</v>
+      </c>
+      <c r="C139" s="2">
+        <v>36557.500486226854</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E139">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5221,30 +5242,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>66</v>
-      </c>
-      <c r="B140" s="3">
-        <v>33.502098495370369</v>
-      </c>
-      <c r="C140" s="3">
-        <v>33.502098495370369</v>
+        <v>10</v>
+      </c>
+      <c r="B140" s="2">
+        <v>33.500490972222224</v>
+      </c>
+      <c r="C140" s="2">
+        <v>36557.500490972219</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E140">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5253,30 +5274,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>66</v>
-      </c>
-      <c r="B141" s="3">
-        <v>33.502143750000002</v>
-      </c>
-      <c r="C141" s="3">
-        <v>33.502143750000002</v>
+        <v>10</v>
+      </c>
+      <c r="B141" s="2">
+        <v>33.500496527777777</v>
+      </c>
+      <c r="C141" s="2">
+        <v>36557.500496527777</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E141">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5285,30 +5306,30 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B142" s="3">
-        <v>33.502159374999998</v>
+        <v>33.500905902777781</v>
       </c>
       <c r="C142" s="3">
-        <v>33.502159374999998</v>
+        <v>33.500905902777781</v>
       </c>
       <c r="D142">
         <v>11</v>
       </c>
       <c r="E142">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5317,30 +5338,30 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B143" s="3">
-        <v>33.50237650462963</v>
+        <v>33.500951157407407</v>
       </c>
       <c r="C143" s="3">
-        <v>33.50237650462963</v>
+        <v>33.500951157407407</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5349,30 +5370,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B144" s="3">
-        <v>33.502387384259258</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="C144" s="3">
-        <v>33.502387384259258</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5381,30 +5402,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B145" s="3">
-        <v>33.502401736111111</v>
+        <v>33.500961574074076</v>
       </c>
       <c r="C145" s="3">
-        <v>33.502401736111111</v>
+        <v>33.500961574074076</v>
       </c>
       <c r="D145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E145">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5413,30 +5434,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B146" s="3">
-        <v>33.502410995370369</v>
+        <v>33.500977662037037</v>
       </c>
       <c r="C146" s="3">
-        <v>33.502410995370369</v>
+        <v>33.500977662037037</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5445,30 +5466,30 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B147" s="3">
-        <v>33.502473726851854</v>
+        <v>33.501045717592589</v>
       </c>
       <c r="C147" s="3">
-        <v>33.502473726851854</v>
+        <v>33.501045717592589</v>
       </c>
       <c r="D147">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5477,30 +5498,30 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>73</v>
-      </c>
-      <c r="B148" s="2">
-        <v>33.500474884259262</v>
-      </c>
-      <c r="C148" s="2">
-        <v>36557.500474884262</v>
+        <v>49</v>
+      </c>
+      <c r="B148" s="3">
+        <v>33.501077083333335</v>
+      </c>
+      <c r="C148" s="3">
+        <v>33.501077083333335</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>442</v>
+        <v>190</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -5509,30 +5530,30 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>73</v>
-      </c>
-      <c r="B149" s="2">
-        <v>33.500477314814816</v>
-      </c>
-      <c r="C149" s="2">
-        <v>36557.500477314818</v>
+        <v>49</v>
+      </c>
+      <c r="B149" s="3">
+        <v>33.501116898148148</v>
+      </c>
+      <c r="C149" s="3">
+        <v>33.501116898148148</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>431</v>
+        <v>131</v>
       </c>
       <c r="F149" t="s">
         <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5541,30 +5562,30 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>73</v>
-      </c>
-      <c r="B150" s="2">
-        <v>33.500491550925929</v>
-      </c>
-      <c r="C150" s="2">
-        <v>36557.500491550927</v>
+        <v>49</v>
+      </c>
+      <c r="B150" s="3">
+        <v>33.501171874999997</v>
+      </c>
+      <c r="C150" s="3">
+        <v>33.501171874999997</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>370</v>
+        <v>156</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5573,30 +5594,30 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>73</v>
-      </c>
-      <c r="B151" s="2">
-        <v>33.500498611111112</v>
-      </c>
-      <c r="C151" s="2">
-        <v>36557.500498611109</v>
+        <v>68</v>
+      </c>
+      <c r="B151" s="3">
+        <v>33.502040046296294</v>
+      </c>
+      <c r="C151" s="3">
+        <v>33.502040046296294</v>
       </c>
       <c r="D151">
         <v>11</v>
       </c>
       <c r="E151">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5605,30 +5626,30 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>73</v>
-      </c>
-      <c r="B152" s="2">
-        <v>33.500509027777781</v>
-      </c>
-      <c r="C152" s="2">
-        <v>36557.500509027777</v>
+        <v>68</v>
+      </c>
+      <c r="B152" s="3">
+        <v>33.502098495370369</v>
+      </c>
+      <c r="C152" s="3">
+        <v>33.502098495370369</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="F152" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5637,30 +5658,30 @@
         <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>73</v>
-      </c>
-      <c r="B153" s="2">
-        <v>33.500509953703705</v>
-      </c>
-      <c r="C153" s="2">
-        <v>36557.500509953701</v>
+        <v>68</v>
+      </c>
+      <c r="B153" s="3">
+        <v>33.502143750000002</v>
+      </c>
+      <c r="C153" s="3">
+        <v>33.502143750000002</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>420</v>
+        <v>184</v>
       </c>
       <c r="F153" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -5669,30 +5690,30 @@
         <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>73</v>
-      </c>
-      <c r="B154" s="2">
-        <v>33.500516319444444</v>
-      </c>
-      <c r="C154" s="2">
-        <v>36557.500516319444</v>
+        <v>68</v>
+      </c>
+      <c r="B154" s="3">
+        <v>33.502159374999998</v>
+      </c>
+      <c r="C154" s="3">
+        <v>33.502159374999998</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154">
-        <v>396</v>
+        <v>171</v>
       </c>
       <c r="F154" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5701,30 +5722,30 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155" s="2">
-        <v>33.500524305555558</v>
-      </c>
-      <c r="C155" s="2">
-        <v>36557.500524305557</v>
+        <v>68</v>
+      </c>
+      <c r="B155" s="3">
+        <v>33.50237650462963</v>
+      </c>
+      <c r="C155" s="3">
+        <v>33.50237650462963</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E155">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5733,30 +5754,30 @@
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>73</v>
-      </c>
-      <c r="B156" s="2">
-        <v>33.500542708333334</v>
-      </c>
-      <c r="C156" s="2">
-        <v>36557.500542708331</v>
+        <v>68</v>
+      </c>
+      <c r="B156" s="3">
+        <v>33.502387384259258</v>
+      </c>
+      <c r="C156" s="3">
+        <v>33.502387384259258</v>
       </c>
       <c r="D156">
         <v>10</v>
       </c>
       <c r="E156">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="F156" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -5765,62 +5786,62 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>73</v>
-      </c>
-      <c r="B157" s="2">
-        <v>33.500557870370372</v>
-      </c>
-      <c r="C157" s="2">
-        <v>36557.500557870371</v>
+        <v>68</v>
+      </c>
+      <c r="B157" s="3">
+        <v>33.502401736111111</v>
+      </c>
+      <c r="C157" s="3">
+        <v>33.502401736111111</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F157" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
+        <v>104</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" t="s">
         <v>105</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-      <c r="I157" t="s">
-        <v>14</v>
-      </c>
-      <c r="J157" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>73</v>
-      </c>
-      <c r="B158" s="2">
-        <v>33.500581712962962</v>
-      </c>
-      <c r="C158" s="2">
-        <v>36557.500581712964</v>
+        <v>68</v>
+      </c>
+      <c r="B158" s="3">
+        <v>33.502410995370369</v>
+      </c>
+      <c r="C158" s="3">
+        <v>33.502410995370369</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5829,30 +5850,30 @@
         <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>73</v>
-      </c>
-      <c r="B159" s="2">
-        <v>33.500635879629627</v>
-      </c>
-      <c r="C159" s="2">
-        <v>36557.500635879631</v>
+        <v>68</v>
+      </c>
+      <c r="B159" s="3">
+        <v>33.502473726851854</v>
+      </c>
+      <c r="C159" s="3">
+        <v>33.502473726851854</v>
       </c>
       <c r="D159">
         <v>9</v>
       </c>
       <c r="E159">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -5861,30 +5882,30 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>77</v>
-      </c>
-      <c r="B160" s="3">
-        <v>33.501073148148151</v>
-      </c>
-      <c r="C160" s="3">
-        <v>33.501073148148151</v>
+        <v>79</v>
+      </c>
+      <c r="B160" s="2">
+        <v>33.500474884259262</v>
+      </c>
+      <c r="C160" s="2">
+        <v>36557.500474884262</v>
       </c>
       <c r="D160">
         <v>11</v>
       </c>
       <c r="E160">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -5893,30 +5914,30 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>77</v>
-      </c>
-      <c r="B161" s="3">
-        <v>33.50107789351852</v>
-      </c>
-      <c r="C161" s="3">
-        <v>33.50107789351852</v>
+        <v>79</v>
+      </c>
+      <c r="B161" s="2">
+        <v>33.500477314814816</v>
+      </c>
+      <c r="C161" s="2">
+        <v>36557.500477314818</v>
       </c>
       <c r="D161">
         <v>11</v>
       </c>
       <c r="E161">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -5925,30 +5946,30 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>77</v>
-      </c>
-      <c r="B162" s="3">
-        <v>33.501080671296293</v>
-      </c>
-      <c r="C162" s="3">
-        <v>33.501080671296293</v>
+        <v>79</v>
+      </c>
+      <c r="B162" s="2">
+        <v>33.500491550925929</v>
+      </c>
+      <c r="C162" s="2">
+        <v>36557.500491550927</v>
       </c>
       <c r="D162">
         <v>11</v>
       </c>
       <c r="E162">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
       </c>
       <c r="G162" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -5957,30 +5978,30 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>77</v>
-      </c>
-      <c r="B163" s="3">
-        <v>33.501083101851854</v>
-      </c>
-      <c r="C163" s="3">
-        <v>33.501083101851854</v>
+        <v>79</v>
+      </c>
+      <c r="B163" s="2">
+        <v>33.500498611111112</v>
+      </c>
+      <c r="C163" s="2">
+        <v>36557.500498611109</v>
       </c>
       <c r="D163">
         <v>11</v>
       </c>
       <c r="E163">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -5989,30 +6010,30 @@
         <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>77</v>
-      </c>
-      <c r="B164" s="3">
-        <v>33.501101273148151</v>
-      </c>
-      <c r="C164" s="3">
-        <v>33.501101273148151</v>
+        <v>79</v>
+      </c>
+      <c r="B164" s="2">
+        <v>33.500509027777781</v>
+      </c>
+      <c r="C164" s="2">
+        <v>36557.500509027777</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E164">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G164" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6021,30 +6042,30 @@
         <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>77</v>
-      </c>
-      <c r="B165" s="3">
-        <v>33.501177662037037</v>
-      </c>
-      <c r="C165" s="3">
-        <v>33.501177662037037</v>
+        <v>79</v>
+      </c>
+      <c r="B165" s="2">
+        <v>33.500509953703705</v>
+      </c>
+      <c r="C165" s="2">
+        <v>36557.500509953701</v>
       </c>
       <c r="D165">
         <v>10</v>
       </c>
       <c r="E165">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="F165" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G165" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6053,30 +6074,30 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>77</v>
-      </c>
-      <c r="B166" s="3">
-        <v>33.501178009259256</v>
-      </c>
-      <c r="C166" s="3">
-        <v>33.501178009259256</v>
+        <v>79</v>
+      </c>
+      <c r="B166" s="2">
+        <v>33.500516319444444</v>
+      </c>
+      <c r="C166" s="2">
+        <v>36557.500516319444</v>
       </c>
       <c r="D166">
         <v>10</v>
       </c>
       <c r="E166">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="F166" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G166" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -6085,30 +6106,30 @@
         <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>77</v>
-      </c>
-      <c r="B167" s="3">
-        <v>33.501195717592594</v>
-      </c>
-      <c r="C167" s="3">
-        <v>33.501195717592594</v>
+        <v>79</v>
+      </c>
+      <c r="B167" s="2">
+        <v>33.500524305555558</v>
+      </c>
+      <c r="C167" s="2">
+        <v>36557.500524305557</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="F167" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6117,30 +6138,30 @@
         <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>79</v>
       </c>
-      <c r="B168" s="3">
-        <v>33.502196064814818</v>
-      </c>
-      <c r="C168" s="3">
-        <v>33.502196064814818</v>
+      <c r="B168" s="2">
+        <v>33.500542708333334</v>
+      </c>
+      <c r="C168" s="2">
+        <v>36557.500542708331</v>
       </c>
       <c r="D168">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>483</v>
+        <v>301</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G168" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6149,30 +6170,30 @@
         <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>79</v>
       </c>
-      <c r="B169" s="3">
-        <v>33.502291203703706</v>
-      </c>
-      <c r="C169" s="3">
-        <v>33.502291203703706</v>
+      <c r="B169" s="2">
+        <v>33.500557870370372</v>
+      </c>
+      <c r="C169" s="2">
+        <v>36557.500557870371</v>
       </c>
       <c r="D169">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E169">
-        <v>393</v>
+        <v>251</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G169" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6181,30 +6202,30 @@
         <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>80</v>
-      </c>
-      <c r="B170" s="3">
-        <v>33.500712962962965</v>
-      </c>
-      <c r="C170" s="3">
-        <v>33.500712962962965</v>
+        <v>79</v>
+      </c>
+      <c r="B170" s="2">
+        <v>33.500581712962962</v>
+      </c>
+      <c r="C170" s="2">
+        <v>36557.500581712964</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H170" t="s">
         <v>13</v>
@@ -6213,30 +6234,30 @@
         <v>14</v>
       </c>
       <c r="J170" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>80</v>
-      </c>
-      <c r="B171" s="3">
-        <v>33.500717708333333</v>
-      </c>
-      <c r="C171" s="3">
-        <v>33.500717708333333</v>
+        <v>79</v>
+      </c>
+      <c r="B171" s="2">
+        <v>33.500635879629627</v>
+      </c>
+      <c r="C171" s="2">
+        <v>36557.500635879631</v>
       </c>
       <c r="D171">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6245,30 +6266,30 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B172" s="3">
-        <v>33.500728240740742</v>
+        <v>33.501073148148151</v>
       </c>
       <c r="C172" s="3">
-        <v>33.500728240740742</v>
+        <v>33.501073148148151</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6277,30 +6298,30 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B173" s="3">
-        <v>33.50076261574074</v>
+        <v>33.50107789351852</v>
       </c>
       <c r="C173" s="3">
-        <v>33.50076261574074</v>
+        <v>33.50107789351852</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -6309,30 +6330,30 @@
         <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B174" s="3">
-        <v>33.500793865740739</v>
+        <v>33.501080671296293</v>
       </c>
       <c r="C174" s="3">
-        <v>33.500793865740739</v>
+        <v>33.501080671296293</v>
       </c>
       <c r="D174">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -6341,30 +6362,30 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>82</v>
-      </c>
-      <c r="B175" s="2">
-        <v>33.500542013888889</v>
-      </c>
-      <c r="C175" s="2">
-        <v>36557.500542013891</v>
+        <v>83</v>
+      </c>
+      <c r="B175" s="3">
+        <v>33.501083101851854</v>
+      </c>
+      <c r="C175" s="3">
+        <v>33.501083101851854</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175">
-        <v>207</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -6373,30 +6394,30 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>82</v>
-      </c>
-      <c r="B176" s="2">
-        <v>33.500546527777779</v>
-      </c>
-      <c r="C176" s="2">
-        <v>36557.500546527779</v>
+        <v>83</v>
+      </c>
+      <c r="B176" s="3">
+        <v>33.501101273148151</v>
+      </c>
+      <c r="C176" s="3">
+        <v>33.501101273148151</v>
       </c>
       <c r="D176">
         <v>11</v>
       </c>
       <c r="E176">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -6405,30 +6426,30 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>83</v>
+      </c>
+      <c r="B177" s="3">
+        <v>33.501177662037037</v>
+      </c>
+      <c r="C177" s="3">
+        <v>33.501177662037037</v>
+      </c>
+      <c r="D177">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>301</v>
+      </c>
+      <c r="F177" t="s">
         <v>82</v>
       </c>
-      <c r="B177" s="2">
-        <v>33.500611805555558</v>
-      </c>
-      <c r="C177" s="2">
-        <v>36557.500611805553</v>
-      </c>
-      <c r="D177">
-        <v>10</v>
-      </c>
-      <c r="E177">
-        <v>51</v>
-      </c>
-      <c r="F177" t="s">
-        <v>16</v>
-      </c>
       <c r="G177" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -6437,30 +6458,30 @@
         <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" s="3">
+        <v>33.501178009259256</v>
+      </c>
+      <c r="C178" s="3">
+        <v>33.501178009259256</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>300</v>
+      </c>
+      <c r="F178" t="s">
         <v>82</v>
       </c>
-      <c r="B178" s="2">
-        <v>33.500633333333333</v>
-      </c>
-      <c r="C178" s="2">
-        <v>36557.500633333337</v>
-      </c>
-      <c r="D178">
-        <v>9</v>
-      </c>
-      <c r="E178">
-        <v>98</v>
-      </c>
-      <c r="F178" t="s">
-        <v>16</v>
-      </c>
       <c r="G178" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -6469,30 +6490,30 @@
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>83</v>
+      </c>
+      <c r="B179" s="3">
+        <v>33.501195717592594</v>
+      </c>
+      <c r="C179" s="3">
+        <v>33.501195717592594</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>273</v>
+      </c>
+      <c r="F179" t="s">
         <v>82</v>
       </c>
-      <c r="B179" s="2">
-        <v>33.500662037037038</v>
-      </c>
-      <c r="C179" s="2">
-        <v>36557.50066203704</v>
-      </c>
-      <c r="D179">
-        <v>10</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>16</v>
-      </c>
       <c r="G179" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -6501,30 +6522,30 @@
         <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B180" s="3">
-        <v>33.501235416666667</v>
+        <v>33.502196064814818</v>
       </c>
       <c r="C180" s="3">
-        <v>33.501235416666667</v>
+        <v>33.502196064814818</v>
       </c>
       <c r="D180">
         <v>11</v>
       </c>
       <c r="E180">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -6533,30 +6554,30 @@
         <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B181" s="3">
-        <v>33.501240393518522</v>
+        <v>33.502291203703706</v>
       </c>
       <c r="C181" s="3">
-        <v>33.501240393518522</v>
+        <v>33.502291203703706</v>
       </c>
       <c r="D181">
         <v>11</v>
       </c>
       <c r="E181">
-        <v>73</v>
+        <v>393</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -6565,30 +6586,30 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B182" s="3">
-        <v>33.502421412037037</v>
+        <v>33.500712962962965</v>
       </c>
       <c r="C182" s="3">
-        <v>33.502421412037037</v>
+        <v>33.500712962962965</v>
       </c>
       <c r="D182">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -6597,30 +6618,30 @@
         <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B183" s="3">
-        <v>33.502425000000002</v>
+        <v>33.500717708333333</v>
       </c>
       <c r="C183" s="3">
-        <v>33.502425000000002</v>
+        <v>33.500717708333333</v>
       </c>
       <c r="D183">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E183">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -6629,30 +6650,30 @@
         <v>14</v>
       </c>
       <c r="J183" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B184" s="3">
-        <v>33.502559722222223</v>
+        <v>33.500728240740742</v>
       </c>
       <c r="C184" s="3">
-        <v>33.502559722222223</v>
+        <v>33.500728240740742</v>
       </c>
       <c r="D184">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F184" t="s">
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -6666,25 +6687,25 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B185" s="3">
-        <v>33.502609837962964</v>
+        <v>33.50076261574074</v>
       </c>
       <c r="C185" s="3">
-        <v>33.502609837962964</v>
+        <v>33.50076261574074</v>
       </c>
       <c r="D185">
         <v>10</v>
       </c>
       <c r="E185">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -6693,30 +6714,30 @@
         <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B186" s="3">
-        <v>33.502745833333336</v>
+        <v>33.500793865740739</v>
       </c>
       <c r="C186" s="3">
-        <v>33.502745833333336</v>
+        <v>33.500793865740739</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -6725,39 +6746,423 @@
         <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>85</v>
-      </c>
-      <c r="B187" s="3">
+        <v>89</v>
+      </c>
+      <c r="B187" s="2">
+        <v>33.500542013888889</v>
+      </c>
+      <c r="C187" s="2">
+        <v>36557.500542013891</v>
+      </c>
+      <c r="D187">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>207</v>
+      </c>
+      <c r="F187" t="s">
+        <v>11</v>
+      </c>
+      <c r="G187" t="s">
+        <v>106</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>89</v>
+      </c>
+      <c r="B188" s="2">
+        <v>33.500546527777779</v>
+      </c>
+      <c r="C188" s="2">
+        <v>36557.500546527779</v>
+      </c>
+      <c r="D188">
+        <v>11</v>
+      </c>
+      <c r="E188">
+        <v>76</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>96</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+      <c r="J188" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="2">
+        <v>33.500611805555558</v>
+      </c>
+      <c r="C189" s="2">
+        <v>36557.500611805553</v>
+      </c>
+      <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>51</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>112</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+      <c r="J189" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>89</v>
+      </c>
+      <c r="B190" s="2">
+        <v>33.500633333333333</v>
+      </c>
+      <c r="C190" s="2">
+        <v>36557.500633333337</v>
+      </c>
+      <c r="D190">
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <v>98</v>
+      </c>
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>114</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+      <c r="J190" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>89</v>
+      </c>
+      <c r="B191" s="2">
+        <v>33.500662037037038</v>
+      </c>
+      <c r="C191" s="2">
+        <v>36557.50066203704</v>
+      </c>
+      <c r="D191">
+        <v>10</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>124</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+      <c r="J191" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>90</v>
+      </c>
+      <c r="B192" s="3">
+        <v>33.501235416666667</v>
+      </c>
+      <c r="C192" s="3">
+        <v>33.501235416666667</v>
+      </c>
+      <c r="D192">
+        <v>11</v>
+      </c>
+      <c r="E192">
+        <v>78</v>
+      </c>
+      <c r="F192" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" t="s">
+        <v>96</v>
+      </c>
+      <c r="H192" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+      <c r="J192" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>90</v>
+      </c>
+      <c r="B193" s="3">
+        <v>33.501240393518522</v>
+      </c>
+      <c r="C193" s="3">
+        <v>33.501240393518522</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+      <c r="E193">
+        <v>73</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>119</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>92</v>
+      </c>
+      <c r="B194" s="3">
+        <v>33.502421412037037</v>
+      </c>
+      <c r="C194" s="3">
+        <v>33.502421412037037</v>
+      </c>
+      <c r="D194">
+        <v>11</v>
+      </c>
+      <c r="E194">
+        <v>207</v>
+      </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" t="s">
+        <v>94</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+      <c r="J194" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>92</v>
+      </c>
+      <c r="B195" s="3">
+        <v>33.502425000000002</v>
+      </c>
+      <c r="C195" s="3">
+        <v>33.502425000000002</v>
+      </c>
+      <c r="D195">
+        <v>11</v>
+      </c>
+      <c r="E195">
+        <v>204</v>
+      </c>
+      <c r="F195" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>119</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>92</v>
+      </c>
+      <c r="B196" s="3">
+        <v>33.502559722222223</v>
+      </c>
+      <c r="C196" s="3">
+        <v>33.502559722222223</v>
+      </c>
+      <c r="D196">
+        <v>11</v>
+      </c>
+      <c r="E196">
+        <v>113</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" t="s">
+        <v>100</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>92</v>
+      </c>
+      <c r="B197" s="3">
+        <v>33.502609837962964</v>
+      </c>
+      <c r="C197" s="3">
+        <v>33.502609837962964</v>
+      </c>
+      <c r="D197">
+        <v>10</v>
+      </c>
+      <c r="E197">
+        <v>194</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>102</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" t="s">
+        <v>14</v>
+      </c>
+      <c r="J197" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>92</v>
+      </c>
+      <c r="B198" s="3">
+        <v>33.502745833333336</v>
+      </c>
+      <c r="C198" s="3">
+        <v>33.502745833333336</v>
+      </c>
+      <c r="D198">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>114</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" t="s">
+        <v>124</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+      <c r="I198" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>92</v>
+      </c>
+      <c r="B199" s="3">
         <v>33.502784722222223</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C199" s="3">
         <v>33.502784722222223</v>
       </c>
-      <c r="D187">
-        <v>10</v>
-      </c>
-      <c r="E187">
+      <c r="D199">
+        <v>10</v>
+      </c>
+      <c r="E199">
         <v>94</v>
       </c>
-      <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s">
-        <v>101</v>
-      </c>
-      <c r="H187" t="s">
-        <v>13</v>
-      </c>
-      <c r="I187" t="s">
-        <v>14</v>
-      </c>
-      <c r="J187" t="s">
-        <v>116</v>
+      <c r="F199" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" t="s">
+        <v>108</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Brennan Keane.xlsx
+++ b/USASwimming/Times For Brennan Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="138">
   <si>
     <t>Event</t>
   </si>
@@ -60,15 +60,21 @@
     <t>"B"</t>
   </si>
   <si>
+    <t>2019 CT WRAT Maura Marden Free</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>11/16/2019</t>
+  </si>
+  <si>
     <t>2019 CT Regional Championships CDOG</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>3/2/2019</t>
   </si>
   <si>
@@ -180,6 +186,12 @@
     <t>11/10/2019</t>
   </si>
   <si>
+    <t>2019 CT SOCO 18th Annual Hutchinson</t>
+  </si>
+  <si>
+    <t>12/8/2019</t>
+  </si>
+  <si>
     <t>3/3/2019</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>200 FR</t>
   </si>
   <si>
+    <t>12/7/2019</t>
+  </si>
+  <si>
     <t>3/1/2019</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>50 BK</t>
   </si>
   <si>
+    <t>36.42r</t>
+  </si>
+  <si>
     <t>1/19/2019</t>
   </si>
   <si>
@@ -283,6 +301,9 @@
   </si>
   <si>
     <t>200 BK</t>
+  </si>
+  <si>
+    <t>12/6/2019</t>
   </si>
   <si>
     <t>50 BR</t>
@@ -775,7 +796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -834,16 +855,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.500373611111108</v>
+        <v>33.50037025462963</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.50037361111</v>
+        <v>36557.500370254631</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -866,31 +887,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>33.500380092592593</v>
+        <v>33.500373611111108</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.500380092592</v>
+        <v>36557.50037361111</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,19 +919,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.50039837962963</v>
+        <v>33.500380092592593</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500398379627</v>
+        <v>36557.500380092592</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -930,19 +951,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500404745370368</v>
+        <v>33.50039837962963</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500404745369</v>
+        <v>36557.500398379627</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -962,19 +983,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500413773148146</v>
+        <v>33.500404745370368</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500413773145</v>
+        <v>36557.500404745369</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -994,19 +1015,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.50042222222222</v>
+        <v>33.500413773148146</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.50042222222</v>
+        <v>36557.500413773145</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -1026,16 +1047,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.50042337962963</v>
+        <v>33.50042222222222</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500423379628</v>
+        <v>36557.50042222222</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1058,16 +1079,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500424537037034</v>
+        <v>33.50042337962963</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500424537036</v>
+        <v>36557.500423379628</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1090,16 +1111,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500431944444443</v>
+        <v>33.500424537037034</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500431944442</v>
+        <v>36557.500424537036</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1122,16 +1143,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500436226851853</v>
+        <v>33.500431944444443</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500436226852</v>
+        <v>36557.500431944442</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1154,16 +1175,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500437731481483</v>
+        <v>33.500436226851853</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.500437731484</v>
+        <v>36557.500436226852</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1186,19 +1207,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500458333333334</v>
+        <v>33.500437731481483</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500458333336</v>
+        <v>36557.500437731484</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1218,19 +1239,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>33.500468171296298</v>
+        <v>33.500458333333334</v>
       </c>
       <c r="C14" s="2">
-        <v>36557.500468171296</v>
+        <v>36557.500458333336</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>39</v>
@@ -1250,19 +1271,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500479398148151</v>
+        <v>33.500468171296298</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.50047939815</v>
+        <v>36557.500468171296</v>
       </c>
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -1282,19 +1303,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>33.500480092592589</v>
+        <v>33.500479398148151</v>
       </c>
       <c r="C16" s="2">
-        <v>36557.500480092589</v>
+        <v>36557.50047939815</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>43</v>
@@ -1314,19 +1335,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>33.500495833333332</v>
+        <v>33.500480092592589</v>
       </c>
       <c r="C17" s="2">
-        <v>36557.50049583333</v>
+        <v>36557.500480092589</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
       <c r="E17">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1346,19 +1367,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>33.500501851851851</v>
+        <v>33.500495833333332</v>
       </c>
       <c r="C18" s="2">
-        <v>36557.50050185185</v>
+        <v>36557.50049583333</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>47</v>
@@ -1375,57 +1396,57 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33.500501851851851</v>
+      </c>
+      <c r="C19" s="2">
+        <v>36557.50050185185</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3">
-        <v>33.500802777777778</v>
-      </c>
-      <c r="C19" s="3">
-        <v>33.500802777777778</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>228</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
         <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3">
-        <v>33.500823958333335</v>
+        <v>33.500802777777778</v>
       </c>
       <c r="C20" s="3">
-        <v>33.500823958333335</v>
+        <v>33.500802777777778</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1434,30 +1455,30 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3">
-        <v>33.500860069444443</v>
+        <v>33.500821064814815</v>
       </c>
       <c r="C21" s="3">
-        <v>33.500860069444443</v>
+        <v>33.500821064814815</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1466,30 +1487,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3">
-        <v>33.500920601851853</v>
+        <v>33.500823958333335</v>
       </c>
       <c r="C22" s="3">
-        <v>33.500920601851853</v>
+        <v>33.500823958333335</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1498,30 +1519,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3">
-        <v>33.500928819444447</v>
+        <v>33.500834027777778</v>
       </c>
       <c r="C23" s="3">
-        <v>33.500928819444447</v>
+        <v>33.500834027777778</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1530,30 +1551,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500938078703705</v>
+        <v>33.500860069444443</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500938078703705</v>
+        <v>33.500860069444443</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1567,22 +1588,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500957291666666</v>
+        <v>33.500920601851853</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500957291666666</v>
+        <v>33.500920601851853</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1594,30 +1615,30 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500968402777779</v>
+        <v>33.500928819444447</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500968402777779</v>
+        <v>33.500928819444447</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1626,30 +1647,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
-        <v>33.500970717592594</v>
+        <v>33.500938078703705</v>
       </c>
       <c r="C27" s="3">
-        <v>33.500970717592594</v>
+        <v>33.500938078703705</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1658,30 +1679,30 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3">
+        <v>33.500957291666666</v>
+      </c>
+      <c r="C28" s="3">
+        <v>33.500957291666666</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
         <v>49</v>
       </c>
-      <c r="B28" s="3">
-        <v>33.500998726851854</v>
-      </c>
-      <c r="C28" s="3">
-        <v>33.500998726851854</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>96</v>
-      </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1690,30 +1711,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3">
-        <v>33.501021990740739</v>
+        <v>33.500968402777779</v>
       </c>
       <c r="C29" s="3">
-        <v>33.501021990740739</v>
+        <v>33.500968402777779</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1722,30 +1743,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3">
-        <v>33.501030787037038</v>
+        <v>33.500970717592594</v>
       </c>
       <c r="C30" s="3">
-        <v>33.501030787037038</v>
+        <v>33.500970717592594</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1754,30 +1775,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3">
-        <v>33.501057638888888</v>
+        <v>33.500998726851854</v>
       </c>
       <c r="C31" s="3">
-        <v>33.501057638888888</v>
+        <v>33.500998726851854</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1786,30 +1807,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3">
-        <v>33.501086805555559</v>
+        <v>33.501021990740739</v>
       </c>
       <c r="C32" s="3">
-        <v>33.501086805555559</v>
+        <v>33.501021990740739</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1818,30 +1839,30 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3">
-        <v>33.501087037037038</v>
+        <v>33.501030787037038</v>
       </c>
       <c r="C33" s="3">
-        <v>33.501087037037038</v>
+        <v>33.501030787037038</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1850,27 +1871,27 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501122569444448</v>
+        <v>33.501057638888888</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501122569444448</v>
+        <v>33.501057638888888</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -1882,30 +1903,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
-        <v>33.501194212962965</v>
+        <v>33.501086805555559</v>
       </c>
       <c r="C35" s="3">
-        <v>33.501194212962965</v>
+        <v>33.501086805555559</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1914,30 +1935,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501787731481478</v>
+        <v>33.501087037037038</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501787731481478</v>
+        <v>33.501087037037038</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1946,30 +1967,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3">
-        <v>33.501830787037036</v>
+        <v>33.501122569444448</v>
       </c>
       <c r="C37" s="3">
-        <v>33.501830787037036</v>
+        <v>33.501122569444448</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1983,90 +2004,90 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3">
-        <v>33.501843055555554</v>
+        <v>33.501194212962965</v>
       </c>
       <c r="C38" s="3">
-        <v>33.501843055555554</v>
+        <v>33.501194212962965</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
         <v>71</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B39" s="3">
-        <v>33.501872685185184</v>
+        <v>33.501733101851855</v>
       </c>
       <c r="C39" s="3">
-        <v>33.501872685185184</v>
+        <v>33.501733101851855</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
         <v>73</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3">
-        <v>33.50192511574074</v>
+        <v>33.501787731481478</v>
       </c>
       <c r="C40" s="3">
-        <v>33.50192511574074</v>
+        <v>33.501787731481478</v>
       </c>
       <c r="D40">
         <v>11</v>
       </c>
       <c r="E40">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
         <v>16</v>
       </c>
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
@@ -2074,30 +2095,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3">
-        <v>33.501967013888887</v>
+        <v>33.501830787037036</v>
       </c>
       <c r="C41" s="3">
-        <v>33.501967013888887</v>
+        <v>33.501830787037036</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2106,30 +2127,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B42" s="3">
-        <v>33.502072453703704</v>
+        <v>33.501835879629631</v>
       </c>
       <c r="C42" s="3">
-        <v>33.502072453703704</v>
+        <v>33.501835879629631</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2138,30 +2159,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3">
-        <v>33.502133796296299</v>
+        <v>33.501843055555554</v>
       </c>
       <c r="C43" s="3">
-        <v>33.502133796296299</v>
+        <v>33.501843055555554</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2170,30 +2191,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B44" s="3">
-        <v>33.502209837962965</v>
+        <v>33.501872685185184</v>
       </c>
       <c r="C44" s="3">
-        <v>33.502209837962965</v>
+        <v>33.501872685185184</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2202,30 +2223,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3">
-        <v>33.502269212962965</v>
+        <v>33.50192511574074</v>
       </c>
       <c r="C45" s="3">
-        <v>33.502269212962965</v>
+        <v>33.50192511574074</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2234,30 +2255,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3">
-        <v>33.502345486111111</v>
+        <v>33.501967013888887</v>
       </c>
       <c r="C46" s="3">
-        <v>33.502345486111111</v>
+        <v>33.501967013888887</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2266,30 +2287,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B47" s="3">
-        <v>33.502414583333334</v>
+        <v>33.502072453703704</v>
       </c>
       <c r="C47" s="3">
-        <v>33.502414583333334</v>
+        <v>33.502072453703704</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2298,30 +2319,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B48" s="3">
-        <v>33.50494733796296</v>
+        <v>33.502133796296299</v>
       </c>
       <c r="C48" s="3">
-        <v>33.50494733796296</v>
+        <v>33.502133796296299</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2330,30 +2351,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3">
-        <v>33.504986226851855</v>
+        <v>33.502209837962965</v>
       </c>
       <c r="C49" s="3">
-        <v>33.504986226851855</v>
+        <v>33.502209837962965</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2362,30 +2383,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3">
-        <v>33.505444097222224</v>
+        <v>33.502269212962965</v>
       </c>
       <c r="C50" s="3">
-        <v>33.505444097222224</v>
+        <v>33.502269212962965</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2394,30 +2415,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B51" s="3">
-        <v>33.505681597222221</v>
+        <v>33.502345486111111</v>
       </c>
       <c r="C51" s="3">
-        <v>33.505681597222221</v>
+        <v>33.502345486111111</v>
       </c>
       <c r="D51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2426,30 +2447,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="2">
-        <v>33.500440740740743</v>
-      </c>
-      <c r="C52" s="2">
-        <v>36557.50044074074</v>
+        <v>72</v>
+      </c>
+      <c r="B52" s="3">
+        <v>33.502414583333334</v>
+      </c>
+      <c r="C52" s="3">
+        <v>33.502414583333334</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2458,30 +2479,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="2">
-        <v>33.500458449074074</v>
-      </c>
-      <c r="C53" s="2">
-        <v>36557.500458449074</v>
+        <v>82</v>
+      </c>
+      <c r="B53" s="3">
+        <v>33.504822916666669</v>
+      </c>
+      <c r="C53" s="3">
+        <v>33.504822916666669</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2490,30 +2511,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="2">
-        <v>33.500458564814814</v>
-      </c>
-      <c r="C54" s="2">
-        <v>36557.500458564813</v>
+        <v>82</v>
+      </c>
+      <c r="B54" s="3">
+        <v>33.50494733796296</v>
+      </c>
+      <c r="C54" s="3">
+        <v>33.50494733796296</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2522,30 +2543,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="2">
-        <v>36557.50046909722</v>
+        <v>82</v>
+      </c>
+      <c r="B55" s="3">
+        <v>33.504986226851855</v>
+      </c>
+      <c r="C55" s="3">
+        <v>33.504986226851855</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2554,30 +2575,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="2">
-        <v>33.500472800925927</v>
-      </c>
-      <c r="C56" s="2">
-        <v>36557.500472800923</v>
+        <v>82</v>
+      </c>
+      <c r="B56" s="3">
+        <v>33.505444097222224</v>
+      </c>
+      <c r="C56" s="3">
+        <v>33.505444097222224</v>
       </c>
       <c r="D56">
         <v>11</v>
       </c>
       <c r="E56">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2586,30 +2607,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="2">
-        <v>33.500476736111111</v>
-      </c>
-      <c r="C57" s="2">
-        <v>36557.50047673611</v>
+        <v>82</v>
+      </c>
+      <c r="B57" s="3">
+        <v>33.505681597222221</v>
+      </c>
+      <c r="C57" s="3">
+        <v>33.505681597222221</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2618,30 +2639,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="2">
-        <v>33.500480555555555</v>
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
       </c>
       <c r="C58" s="2">
-        <v>36557.500480555558</v>
+        <v>36557.50042152778</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2650,30 +2671,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2">
-        <v>33.500493749999997</v>
+        <v>33.500422685185185</v>
       </c>
       <c r="C59" s="2">
-        <v>36557.500493749998</v>
+        <v>36557.500422685182</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2682,30 +2703,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2">
-        <v>33.500521643518518</v>
+        <v>33.500440740740743</v>
       </c>
       <c r="C60" s="2">
-        <v>36557.500521643517</v>
+        <v>36557.50044074074</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2714,30 +2735,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2">
-        <v>33.500523611111113</v>
+        <v>33.500458449074074</v>
       </c>
       <c r="C61" s="2">
-        <v>36557.50052361111</v>
+        <v>36557.500458449074</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2746,30 +2767,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2">
-        <v>33.500527314814818</v>
+        <v>33.500458564814814</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500527314813</v>
+        <v>36557.500458564813</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2778,30 +2799,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="2">
-        <v>33.500539583333335</v>
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
       </c>
       <c r="C63" s="2">
-        <v>36557.500539583336</v>
+        <v>36557.50046909722</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2810,30 +2831,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
-        <v>33.500559722222221</v>
+        <v>33.500472800925927</v>
       </c>
       <c r="C64" s="2">
-        <v>36557.500559722219</v>
+        <v>36557.500472800923</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2842,30 +2863,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2">
-        <v>33.500574999999998</v>
+        <v>33.500476736111111</v>
       </c>
       <c r="C65" s="2">
-        <v>36557.500574999998</v>
+        <v>36557.50047673611</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2874,30 +2895,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2">
-        <v>33.500576620370367</v>
+        <v>33.500480555555555</v>
       </c>
       <c r="C66" s="2">
-        <v>36557.500576620369</v>
+        <v>36557.500480555558</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2906,30 +2927,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2">
-        <v>33.500595717592596</v>
+        <v>33.500493749999997</v>
       </c>
       <c r="C67" s="2">
-        <v>36557.500595717589</v>
+        <v>36557.500493749998</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2938,30 +2959,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2">
-        <v>33.500606365740744</v>
+        <v>33.500521643518518</v>
       </c>
       <c r="C68" s="2">
-        <v>36557.500606365742</v>
+        <v>36557.500521643517</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2970,30 +2991,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="3">
-        <v>33.500916203703703</v>
-      </c>
-      <c r="C69" s="3">
-        <v>33.500916203703703</v>
+        <v>84</v>
+      </c>
+      <c r="B69" s="2">
+        <v>33.500523611111113</v>
+      </c>
+      <c r="C69" s="2">
+        <v>36557.50052361111</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -3002,30 +3023,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="3">
-        <v>33.500918055555559</v>
-      </c>
-      <c r="C70" s="3">
-        <v>33.500918055555559</v>
+        <v>84</v>
+      </c>
+      <c r="B70" s="2">
+        <v>33.500527314814818</v>
+      </c>
+      <c r="C70" s="2">
+        <v>36557.500527314813</v>
       </c>
       <c r="D70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3034,30 +3055,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="3">
-        <v>33.500938541666663</v>
-      </c>
-      <c r="C71" s="3">
-        <v>33.500938541666663</v>
+        <v>84</v>
+      </c>
+      <c r="B71" s="2">
+        <v>33.500539583333335</v>
+      </c>
+      <c r="C71" s="2">
+        <v>36557.500539583336</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3066,30 +3087,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="3">
-        <v>33.500952083333331</v>
-      </c>
-      <c r="C72" s="3">
-        <v>33.500952083333331</v>
+        <v>84</v>
+      </c>
+      <c r="B72" s="2">
+        <v>33.500559722222221</v>
+      </c>
+      <c r="C72" s="2">
+        <v>36557.500559722219</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3098,30 +3119,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="3">
-        <v>33.500964583333335</v>
-      </c>
-      <c r="C73" s="3">
-        <v>33.500964583333335</v>
+        <v>84</v>
+      </c>
+      <c r="B73" s="2">
+        <v>33.500574999999998</v>
+      </c>
+      <c r="C73" s="2">
+        <v>36557.500574999998</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3130,30 +3151,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="2">
+        <v>33.500576620370367</v>
+      </c>
+      <c r="C74" s="2">
+        <v>36557.500576620369</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74">
         <v>83</v>
       </c>
-      <c r="B74" s="3">
-        <v>33.501043287037035</v>
-      </c>
-      <c r="C74" s="3">
-        <v>33.501043287037035</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74">
-        <v>251</v>
-      </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3162,30 +3183,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="3">
-        <v>33.501075810185185</v>
-      </c>
-      <c r="C75" s="3">
-        <v>33.501075810185185</v>
+        <v>84</v>
+      </c>
+      <c r="B75" s="2">
+        <v>33.500595717592596</v>
+      </c>
+      <c r="C75" s="2">
+        <v>36557.500595717589</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3194,30 +3215,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="3">
-        <v>33.50109895833333</v>
-      </c>
-      <c r="C76" s="3">
-        <v>33.50109895833333</v>
+        <v>84</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.500606365740744</v>
+      </c>
+      <c r="C76" s="2">
+        <v>36557.500606365742</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3226,30 +3247,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B77" s="3">
-        <v>33.501101504629631</v>
+        <v>33.500879050925924</v>
       </c>
       <c r="C77" s="3">
-        <v>33.501101504629631</v>
+        <v>33.500879050925924</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3258,30 +3279,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B78" s="3">
-        <v>33.501157870370371</v>
+        <v>33.500896759259263</v>
       </c>
       <c r="C78" s="3">
-        <v>33.501157870370371</v>
+        <v>33.500896759259263</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3290,30 +3311,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B79" s="3">
-        <v>33.50121863425926</v>
+        <v>33.500916203703703</v>
       </c>
       <c r="C79" s="3">
-        <v>33.50121863425926</v>
+        <v>33.500916203703703</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E79">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3322,30 +3343,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80" s="3">
-        <v>33.501219675925924</v>
+        <v>33.500918055555559</v>
       </c>
       <c r="C80" s="3">
-        <v>33.501219675925924</v>
+        <v>33.500918055555559</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3354,30 +3375,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B81" s="3">
-        <v>33.502052314814811</v>
+        <v>33.500938541666663</v>
       </c>
       <c r="C81" s="3">
-        <v>33.502052314814811</v>
+        <v>33.500938541666663</v>
       </c>
       <c r="D81">
         <v>11</v>
       </c>
       <c r="E81">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3386,30 +3407,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82" s="3">
-        <v>33.50214710648148</v>
+        <v>33.500952083333331</v>
       </c>
       <c r="C82" s="3">
-        <v>33.50214710648148</v>
+        <v>33.500952083333331</v>
       </c>
       <c r="D82">
         <v>11</v>
       </c>
       <c r="E82">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3423,26 +3444,26 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="2">
-        <v>33.500625462962965</v>
-      </c>
-      <c r="C83" s="2">
-        <v>36557.500625462962</v>
+        <v>89</v>
+      </c>
+      <c r="B83" s="3">
+        <v>33.500964583333335</v>
+      </c>
+      <c r="C83" s="3">
+        <v>33.500964583333335</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s">
         <v>16</v>
       </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
       <c r="H83" t="s">
         <v>13</v>
       </c>
@@ -3450,30 +3471,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="2">
-        <v>33.500630208333334</v>
-      </c>
-      <c r="C84" s="2">
-        <v>36557.500630208335</v>
+        <v>89</v>
+      </c>
+      <c r="B84" s="3">
+        <v>33.501043287037035</v>
+      </c>
+      <c r="C84" s="3">
+        <v>33.501043287037035</v>
       </c>
       <c r="D84">
         <v>10</v>
       </c>
       <c r="E84">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3482,30 +3503,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="2">
-        <v>33.500643287037036</v>
-      </c>
-      <c r="C85" s="2">
-        <v>36557.500643287036</v>
+        <v>89</v>
+      </c>
+      <c r="B85" s="3">
+        <v>33.501075810185185</v>
+      </c>
+      <c r="C85" s="3">
+        <v>33.501075810185185</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3514,30 +3535,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="2">
-        <v>33.500652430555554</v>
-      </c>
-      <c r="C86" s="2">
-        <v>36557.500652430557</v>
+        <v>89</v>
+      </c>
+      <c r="B86" s="3">
+        <v>33.50109895833333</v>
+      </c>
+      <c r="C86" s="3">
+        <v>33.50109895833333</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3546,30 +3567,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="2">
-        <v>33.50068263888889</v>
-      </c>
-      <c r="C87" s="2">
-        <v>36557.500682638885</v>
+        <v>89</v>
+      </c>
+      <c r="B87" s="3">
+        <v>33.501101504629631</v>
+      </c>
+      <c r="C87" s="3">
+        <v>33.501101504629631</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3578,30 +3599,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="3">
-        <v>33.500712731481478</v>
+        <v>33.501157870370371</v>
       </c>
       <c r="C88" s="3">
-        <v>33.500712731481478</v>
+        <v>33.501157870370371</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3610,30 +3631,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3">
-        <v>33.500725347222222</v>
+        <v>33.50121863425926</v>
       </c>
       <c r="C89" s="3">
-        <v>33.500725347222222</v>
+        <v>33.50121863425926</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3642,30 +3663,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>33.501217592592596</v>
+        <v>33.501219675925924</v>
       </c>
       <c r="C90" s="3">
-        <v>33.501217592592596</v>
+        <v>33.501219675925924</v>
       </c>
       <c r="D90">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3674,30 +3695,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B91" s="3">
-        <v>33.501433680555557</v>
+        <v>33.501949421296295</v>
       </c>
       <c r="C91" s="3">
-        <v>33.501433680555557</v>
+        <v>33.501949421296295</v>
       </c>
       <c r="D91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3706,31 +3727,31 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="2">
-        <v>33.500445023148146</v>
-      </c>
-      <c r="C92" s="2">
-        <v>36557.50044502315</v>
+        <v>92</v>
+      </c>
+      <c r="B92" s="3">
+        <v>33.502052314814811</v>
+      </c>
+      <c r="C92" s="3">
+        <v>33.502052314814811</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
         <v>16</v>
       </c>
-      <c r="G92" t="s">
-        <v>50</v>
-      </c>
       <c r="H92" t="s">
         <v>13</v>
       </c>
@@ -3738,30 +3759,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="2">
-        <v>33.500471875000002</v>
-      </c>
-      <c r="C93" s="2">
-        <v>36557.500471874999</v>
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>33.50214710648148</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33.50214710648148</v>
       </c>
       <c r="D93">
         <v>11</v>
       </c>
       <c r="E93">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3770,30 +3791,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
-        <v>33.500472106481482</v>
+        <v>33.500625462962965</v>
       </c>
       <c r="C94" s="2">
-        <v>36557.500472106483</v>
+        <v>36557.500625462962</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3802,30 +3823,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>33.50050636574074</v>
+        <v>33.500630208333334</v>
       </c>
       <c r="C95" s="2">
-        <v>36557.500506365737</v>
+        <v>36557.500630208335</v>
       </c>
       <c r="D95">
         <v>10</v>
       </c>
       <c r="E95">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3834,30 +3855,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>33.500517592592594</v>
+        <v>33.500643287037036</v>
       </c>
       <c r="C96" s="2">
-        <v>36557.500517592591</v>
+        <v>36557.500643287036</v>
       </c>
       <c r="D96">
         <v>10</v>
       </c>
       <c r="E96">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3866,30 +3887,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
-        <v>33.500526504629633</v>
+        <v>33.500652430555554</v>
       </c>
       <c r="C97" s="2">
-        <v>36557.500526504627</v>
+        <v>36557.500652430557</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3898,30 +3919,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2">
-        <v>33.500535300925925</v>
+        <v>33.50068263888889</v>
       </c>
       <c r="C98" s="2">
-        <v>36557.500535300926</v>
+        <v>36557.500682638885</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3930,30 +3951,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="2">
-        <v>33.500539467592596</v>
-      </c>
-      <c r="C99" s="2">
-        <v>36557.50053946759</v>
+        <v>94</v>
+      </c>
+      <c r="B99" s="3">
+        <v>33.500712731481478</v>
+      </c>
+      <c r="C99" s="3">
+        <v>33.500712731481478</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3962,30 +3983,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>89</v>
-      </c>
-      <c r="B100" s="2">
-        <v>33.500565856481479</v>
-      </c>
-      <c r="C100" s="2">
-        <v>36557.500565856484</v>
+        <v>94</v>
+      </c>
+      <c r="B100" s="3">
+        <v>33.500725347222222</v>
+      </c>
+      <c r="C100" s="3">
+        <v>33.500725347222222</v>
       </c>
       <c r="D100">
         <v>9</v>
       </c>
       <c r="E100">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3994,30 +4015,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>89</v>
-      </c>
-      <c r="B101" s="2">
-        <v>33.500574999999998</v>
-      </c>
-      <c r="C101" s="2">
-        <v>36557.500574999998</v>
+        <v>95</v>
+      </c>
+      <c r="B101" s="3">
+        <v>33.501217592592596</v>
+      </c>
+      <c r="C101" s="3">
+        <v>33.501217592592596</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -4026,30 +4047,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="2">
-        <v>33.500576157407409</v>
-      </c>
-      <c r="C102" s="2">
-        <v>36557.500576157407</v>
+        <v>95</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33.501433680555557</v>
+      </c>
+      <c r="C102" s="3">
+        <v>33.501433680555557</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4058,30 +4079,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2">
-        <v>33.500576736111114</v>
+        <v>33.500445023148146</v>
       </c>
       <c r="C103" s="2">
-        <v>36557.500576736114</v>
+        <v>36557.50044502315</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4090,30 +4111,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2">
-        <v>33.500646643518522</v>
+        <v>33.500471875000002</v>
       </c>
       <c r="C104" s="2">
-        <v>36557.500646643515</v>
+        <v>36557.500471874999</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4122,30 +4143,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2">
-        <v>33.500650462962966</v>
+        <v>33.500472106481482</v>
       </c>
       <c r="C105" s="2">
-        <v>36557.500650462964</v>
+        <v>36557.500472106483</v>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4154,30 +4175,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2">
-        <v>33.500650810185185</v>
+        <v>33.50050636574074</v>
       </c>
       <c r="C106" s="2">
-        <v>36557.500650810187</v>
+        <v>36557.500506365737</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4186,30 +4207,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2">
-        <v>33.500667361111113</v>
+        <v>33.500517592592594</v>
       </c>
       <c r="C107" s="2">
-        <v>36557.500667361113</v>
+        <v>36557.500517592591</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4218,30 +4239,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="3">
-        <v>33.501044675925925</v>
-      </c>
-      <c r="C108" s="3">
-        <v>33.501044675925925</v>
+        <v>96</v>
+      </c>
+      <c r="B108" s="2">
+        <v>33.500526504629633</v>
+      </c>
+      <c r="C108" s="2">
+        <v>36557.500526504627</v>
       </c>
       <c r="D108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4250,30 +4271,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B109" s="3">
-        <v>33.50107060185185</v>
-      </c>
-      <c r="C109" s="3">
-        <v>33.50107060185185</v>
+        <v>96</v>
+      </c>
+      <c r="B109" s="2">
+        <v>33.500535300925925</v>
+      </c>
+      <c r="C109" s="2">
+        <v>36557.500535300926</v>
       </c>
       <c r="D109">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4282,30 +4303,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>90</v>
-      </c>
-      <c r="B110" s="3">
-        <v>33.501084374999998</v>
-      </c>
-      <c r="C110" s="3">
-        <v>33.501084374999998</v>
+        <v>96</v>
+      </c>
+      <c r="B110" s="2">
+        <v>33.500539467592596</v>
+      </c>
+      <c r="C110" s="2">
+        <v>36557.50053946759</v>
       </c>
       <c r="D110">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4314,30 +4335,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>90</v>
-      </c>
-      <c r="B111" s="3">
-        <v>33.501097685185186</v>
-      </c>
-      <c r="C111" s="3">
-        <v>33.501097685185186</v>
+        <v>96</v>
+      </c>
+      <c r="B111" s="2">
+        <v>33.500565856481479</v>
+      </c>
+      <c r="C111" s="2">
+        <v>36557.500565856484</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E111">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4346,30 +4367,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>90</v>
-      </c>
-      <c r="B112" s="3">
-        <v>33.501131134259261</v>
-      </c>
-      <c r="C112" s="3">
-        <v>33.501131134259261</v>
+        <v>96</v>
+      </c>
+      <c r="B112" s="2">
+        <v>33.500574999999998</v>
+      </c>
+      <c r="C112" s="2">
+        <v>36557.500574999998</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4378,30 +4399,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="3">
-        <v>33.501215625</v>
-      </c>
-      <c r="C113" s="3">
-        <v>33.501215625</v>
+        <v>96</v>
+      </c>
+      <c r="B113" s="2">
+        <v>33.500576157407409</v>
+      </c>
+      <c r="C113" s="2">
+        <v>36557.500576157407</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4410,30 +4431,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>91</v>
-      </c>
-      <c r="B114" s="3">
-        <v>33.501056712962964</v>
-      </c>
-      <c r="C114" s="3">
-        <v>33.501056712962964</v>
+        <v>96</v>
+      </c>
+      <c r="B114" s="2">
+        <v>33.500576736111114</v>
+      </c>
+      <c r="C114" s="2">
+        <v>36557.500576736114</v>
       </c>
       <c r="D114">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E114">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4442,30 +4463,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="3">
-        <v>33.501103125</v>
-      </c>
-      <c r="C115" s="3">
-        <v>33.501103125</v>
+        <v>96</v>
+      </c>
+      <c r="B115" s="2">
+        <v>33.500646643518522</v>
+      </c>
+      <c r="C115" s="2">
+        <v>36557.500646643515</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E115">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4474,30 +4495,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" s="3">
-        <v>33.501153240740742</v>
-      </c>
-      <c r="C116" s="3">
-        <v>33.501153240740742</v>
+        <v>96</v>
+      </c>
+      <c r="B116" s="2">
+        <v>33.500650462962966</v>
+      </c>
+      <c r="C116" s="2">
+        <v>36557.500650462964</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4506,30 +4527,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" s="3">
-        <v>33.501161805555554</v>
-      </c>
-      <c r="C117" s="3">
-        <v>33.501161805555554</v>
+        <v>96</v>
+      </c>
+      <c r="B117" s="2">
+        <v>33.500650810185185</v>
+      </c>
+      <c r="C117" s="2">
+        <v>36557.500650810187</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4538,30 +4559,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="3">
-        <v>33.50116678240741</v>
-      </c>
-      <c r="C118" s="3">
-        <v>33.50116678240741</v>
+        <v>96</v>
+      </c>
+      <c r="B118" s="2">
+        <v>33.500667361111113</v>
+      </c>
+      <c r="C118" s="2">
+        <v>36557.500667361113</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4570,30 +4591,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B119" s="3">
-        <v>33.501247685185184</v>
+        <v>33.501024768518519</v>
       </c>
       <c r="C119" s="3">
-        <v>33.501247685185184</v>
+        <v>33.501024768518519</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4602,30 +4623,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B120" s="3">
-        <v>33.501281365740738</v>
+        <v>33.501044675925925</v>
       </c>
       <c r="C120" s="3">
-        <v>33.501281365740738</v>
+        <v>33.501044675925925</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4634,30 +4655,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B121" s="3">
-        <v>33.501319791666667</v>
+        <v>33.501052430555553</v>
       </c>
       <c r="C121" s="3">
-        <v>33.501319791666667</v>
+        <v>33.501052430555553</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4666,31 +4687,31 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B122" s="3">
-        <v>33.50133414351852</v>
+        <v>33.50107060185185</v>
       </c>
       <c r="C122" s="3">
-        <v>33.50133414351852</v>
+        <v>33.50107060185185</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E122">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F122" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s">
         <v>16</v>
       </c>
-      <c r="G122" t="s">
-        <v>47</v>
-      </c>
       <c r="H122" t="s">
         <v>13</v>
       </c>
@@ -4698,30 +4719,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B123" s="3">
-        <v>33.502179861111109</v>
+        <v>33.501084374999998</v>
       </c>
       <c r="C123" s="3">
-        <v>33.502179861111109</v>
+        <v>33.501084374999998</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4730,30 +4751,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B124" s="3">
-        <v>33.502207523148151</v>
+        <v>33.501097685185186</v>
       </c>
       <c r="C124" s="3">
-        <v>33.502207523148151</v>
+        <v>33.501097685185186</v>
       </c>
       <c r="D124">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4762,30 +4783,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B125" s="3">
-        <v>33.502243402777779</v>
+        <v>33.501131134259261</v>
       </c>
       <c r="C125" s="3">
-        <v>33.502243402777779</v>
+        <v>33.501131134259261</v>
       </c>
       <c r="D125">
         <v>11</v>
       </c>
       <c r="E125">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4794,30 +4815,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B126" s="3">
-        <v>33.502264814814815</v>
+        <v>33.501215625</v>
       </c>
       <c r="C126" s="3">
-        <v>33.502264814814815</v>
+        <v>33.501215625</v>
       </c>
       <c r="D126">
         <v>11</v>
       </c>
       <c r="E126">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4826,30 +4847,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B127" s="3">
-        <v>33.502334953703702</v>
+        <v>33.501056712962964</v>
       </c>
       <c r="C127" s="3">
-        <v>33.502334953703702</v>
+        <v>33.501056712962964</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4858,30 +4879,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B128" s="3">
-        <v>33.502342476851851</v>
+        <v>33.501103125</v>
       </c>
       <c r="C128" s="3">
-        <v>33.502342476851851</v>
+        <v>33.501103125</v>
       </c>
       <c r="D128">
         <v>11</v>
       </c>
       <c r="E128">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4890,30 +4911,30 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B129" s="3">
-        <v>33.502411458333334</v>
+        <v>33.501153240740742</v>
       </c>
       <c r="C129" s="3">
-        <v>33.502411458333334</v>
+        <v>33.501153240740742</v>
       </c>
       <c r="D129">
         <v>10</v>
       </c>
       <c r="E129">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -4922,30 +4943,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B130" s="3">
-        <v>33.502443287037039</v>
+        <v>33.501161805555554</v>
       </c>
       <c r="C130" s="3">
-        <v>33.502443287037039</v>
+        <v>33.501161805555554</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -4954,30 +4975,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="2">
-        <v>33.500413773148146</v>
-      </c>
-      <c r="C131" s="2">
-        <v>36557.500413773145</v>
+        <v>98</v>
+      </c>
+      <c r="B131" s="3">
+        <v>33.50116678240741</v>
+      </c>
+      <c r="C131" s="3">
+        <v>33.50116678240741</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>440</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -4986,30 +5007,30 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="2">
-        <v>33.500420486111111</v>
-      </c>
-      <c r="C132" s="2">
-        <v>36557.500420486111</v>
+        <v>98</v>
+      </c>
+      <c r="B132" s="3">
+        <v>33.501247685185184</v>
+      </c>
+      <c r="C132" s="3">
+        <v>33.501247685185184</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E132">
-        <v>408</v>
+        <v>65</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -5018,30 +5039,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="2">
-        <v>33.50042488425926</v>
-      </c>
-      <c r="C133" s="2">
-        <v>36557.50042488426</v>
+        <v>98</v>
+      </c>
+      <c r="B133" s="3">
+        <v>33.501281365740738</v>
+      </c>
+      <c r="C133" s="3">
+        <v>33.501281365740738</v>
       </c>
       <c r="D133">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E133">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5050,30 +5071,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="2">
-        <v>33.500427314814814</v>
-      </c>
-      <c r="C134" s="2">
-        <v>36557.500427314815</v>
+        <v>98</v>
+      </c>
+      <c r="B134" s="3">
+        <v>33.501319791666667</v>
+      </c>
+      <c r="C134" s="3">
+        <v>33.501319791666667</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5082,30 +5103,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="2">
-        <v>33.500443171296297</v>
-      </c>
-      <c r="C135" s="2">
-        <v>36557.500443171295</v>
+        <v>98</v>
+      </c>
+      <c r="B135" s="3">
+        <v>33.50133414351852</v>
+      </c>
+      <c r="C135" s="3">
+        <v>33.50133414351852</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5114,30 +5135,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="2">
-        <v>33.500474652777775</v>
-      </c>
-      <c r="C136" s="2">
-        <v>36557.500474652777</v>
+        <v>99</v>
+      </c>
+      <c r="B136" s="3">
+        <v>33.5020375</v>
+      </c>
+      <c r="C136" s="3">
+        <v>33.5020375</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>412</v>
+        <v>142</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5146,30 +5167,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="2">
-        <v>33.500475000000002</v>
-      </c>
-      <c r="C137" s="2">
-        <v>36557.500475000001</v>
+        <v>99</v>
+      </c>
+      <c r="B137" s="3">
+        <v>33.502179861111109</v>
+      </c>
+      <c r="C137" s="3">
+        <v>33.502179861111109</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5178,30 +5199,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="2">
-        <v>33.500483564814814</v>
-      </c>
-      <c r="C138" s="2">
-        <v>36557.500483564814</v>
+        <v>99</v>
+      </c>
+      <c r="B138" s="3">
+        <v>33.502207523148151</v>
+      </c>
+      <c r="C138" s="3">
+        <v>33.502207523148151</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E138">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5210,30 +5231,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B139" s="2">
-        <v>33.500486226851855</v>
-      </c>
-      <c r="C139" s="2">
-        <v>36557.500486226854</v>
+        <v>99</v>
+      </c>
+      <c r="B139" s="3">
+        <v>33.502243402777779</v>
+      </c>
+      <c r="C139" s="3">
+        <v>33.502243402777779</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5242,30 +5263,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>10</v>
-      </c>
-      <c r="B140" s="2">
-        <v>33.500490972222224</v>
-      </c>
-      <c r="C140" s="2">
-        <v>36557.500490972219</v>
+        <v>99</v>
+      </c>
+      <c r="B140" s="3">
+        <v>33.502264814814815</v>
+      </c>
+      <c r="C140" s="3">
+        <v>33.502264814814815</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5274,30 +5295,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" s="2">
-        <v>33.500496527777777</v>
-      </c>
-      <c r="C141" s="2">
-        <v>36557.500496527777</v>
+        <v>99</v>
+      </c>
+      <c r="B141" s="3">
+        <v>33.502334953703702</v>
+      </c>
+      <c r="C141" s="3">
+        <v>33.502334953703702</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="F141" t="s">
         <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5306,30 +5327,30 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B142" s="3">
-        <v>33.500905902777781</v>
+        <v>33.502342476851851</v>
       </c>
       <c r="C142" s="3">
-        <v>33.500905902777781</v>
+        <v>33.502342476851851</v>
       </c>
       <c r="D142">
         <v>11</v>
       </c>
       <c r="E142">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5338,30 +5359,30 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B143" s="3">
-        <v>33.500951157407407</v>
+        <v>33.502411458333334</v>
       </c>
       <c r="C143" s="3">
-        <v>33.500951157407407</v>
+        <v>33.502411458333334</v>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E143">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G143" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5370,30 +5391,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B144" s="3">
-        <v>33.50096099537037</v>
+        <v>33.502443287037039</v>
       </c>
       <c r="C144" s="3">
-        <v>33.50096099537037</v>
+        <v>33.502443287037039</v>
       </c>
       <c r="D144">
         <v>11</v>
       </c>
       <c r="E144">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5402,30 +5423,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>49</v>
-      </c>
-      <c r="B145" s="3">
-        <v>33.500961574074076</v>
-      </c>
-      <c r="C145" s="3">
-        <v>33.500961574074076</v>
+        <v>10</v>
+      </c>
+      <c r="B145" s="2">
+        <v>33.500413773148146</v>
+      </c>
+      <c r="C145" s="2">
+        <v>36557.500413773145</v>
       </c>
       <c r="D145">
         <v>11</v>
       </c>
       <c r="E145">
-        <v>274</v>
+        <v>440</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5434,30 +5455,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>49</v>
-      </c>
-      <c r="B146" s="3">
-        <v>33.500977662037037</v>
-      </c>
-      <c r="C146" s="3">
-        <v>33.500977662037037</v>
+        <v>10</v>
+      </c>
+      <c r="B146" s="2">
+        <v>33.500420486111111</v>
+      </c>
+      <c r="C146" s="2">
+        <v>36557.500420486111</v>
       </c>
       <c r="D146">
         <v>11</v>
       </c>
       <c r="E146">
-        <v>242</v>
+        <v>408</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5466,30 +5487,30 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>49</v>
-      </c>
-      <c r="B147" s="3">
-        <v>33.501045717592589</v>
-      </c>
-      <c r="C147" s="3">
-        <v>33.501045717592589</v>
+        <v>10</v>
+      </c>
+      <c r="B147" s="2">
+        <v>33.50042488425926</v>
+      </c>
+      <c r="C147" s="2">
+        <v>36557.50042488426</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>242</v>
+        <v>388</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5498,62 +5519,62 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>49</v>
-      </c>
-      <c r="B148" s="3">
-        <v>33.501077083333335</v>
-      </c>
-      <c r="C148" s="3">
-        <v>33.501077083333335</v>
+        <v>10</v>
+      </c>
+      <c r="B148" s="2">
+        <v>33.500427314814814</v>
+      </c>
+      <c r="C148" s="2">
+        <v>36557.500427314815</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
       </c>
       <c r="G148" t="s">
+        <v>107</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" t="s">
         <v>108</v>
-      </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>49</v>
-      </c>
-      <c r="B149" s="3">
-        <v>33.501116898148148</v>
-      </c>
-      <c r="C149" s="3">
-        <v>33.501116898148148</v>
+        <v>10</v>
+      </c>
+      <c r="B149" s="2">
+        <v>33.500443171296297</v>
+      </c>
+      <c r="C149" s="2">
+        <v>36557.500443171295</v>
       </c>
       <c r="D149">
         <v>10</v>
       </c>
       <c r="E149">
-        <v>131</v>
+        <v>435</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="G149" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5562,30 +5583,30 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>49</v>
-      </c>
-      <c r="B150" s="3">
-        <v>33.501171874999997</v>
-      </c>
-      <c r="C150" s="3">
-        <v>33.501171874999997</v>
+        <v>10</v>
+      </c>
+      <c r="B150" s="2">
+        <v>33.500474652777775</v>
+      </c>
+      <c r="C150" s="2">
+        <v>36557.500474652777</v>
       </c>
       <c r="D150">
         <v>9</v>
       </c>
       <c r="E150">
-        <v>156</v>
+        <v>412</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5594,30 +5615,30 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>68</v>
-      </c>
-      <c r="B151" s="3">
-        <v>33.502040046296294</v>
-      </c>
-      <c r="C151" s="3">
-        <v>33.502040046296294</v>
+        <v>10</v>
+      </c>
+      <c r="B151" s="2">
+        <v>33.500475000000002</v>
+      </c>
+      <c r="C151" s="2">
+        <v>36557.500475000001</v>
       </c>
       <c r="D151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E151">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5626,30 +5647,30 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>68</v>
-      </c>
-      <c r="B152" s="3">
-        <v>33.502098495370369</v>
-      </c>
-      <c r="C152" s="3">
-        <v>33.502098495370369</v>
+        <v>10</v>
+      </c>
+      <c r="B152" s="2">
+        <v>33.500483564814814</v>
+      </c>
+      <c r="C152" s="2">
+        <v>36557.500483564814</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5658,30 +5679,30 @@
         <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>68</v>
-      </c>
-      <c r="B153" s="3">
-        <v>33.502143750000002</v>
-      </c>
-      <c r="C153" s="3">
-        <v>33.502143750000002</v>
+        <v>10</v>
+      </c>
+      <c r="B153" s="2">
+        <v>33.500486226851855</v>
+      </c>
+      <c r="C153" s="2">
+        <v>36557.500486226854</v>
       </c>
       <c r="D153">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>184</v>
+        <v>367</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G153" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -5690,30 +5711,30 @@
         <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>68</v>
-      </c>
-      <c r="B154" s="3">
-        <v>33.502159374999998</v>
-      </c>
-      <c r="C154" s="3">
-        <v>33.502159374999998</v>
+        <v>10</v>
+      </c>
+      <c r="B154" s="2">
+        <v>33.500490972222224</v>
+      </c>
+      <c r="C154" s="2">
+        <v>36557.500490972219</v>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5722,30 +5743,30 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>68</v>
-      </c>
-      <c r="B155" s="3">
-        <v>33.50237650462963</v>
-      </c>
-      <c r="C155" s="3">
-        <v>33.50237650462963</v>
+        <v>10</v>
+      </c>
+      <c r="B155" s="2">
+        <v>33.500496527777777</v>
+      </c>
+      <c r="C155" s="2">
+        <v>36557.500496527777</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5759,57 +5780,57 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B156" s="3">
-        <v>33.502387384259258</v>
+        <v>33.500905902777781</v>
       </c>
       <c r="C156" s="3">
-        <v>33.502387384259258</v>
+        <v>33.500905902777781</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156">
+        <v>395</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>101</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" t="s">
         <v>123</v>
-      </c>
-      <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s">
-        <v>124</v>
-      </c>
-      <c r="H156" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B157" s="3">
-        <v>33.502401736111111</v>
+        <v>33.500951157407407</v>
       </c>
       <c r="C157" s="3">
-        <v>33.502401736111111</v>
+        <v>33.500951157407407</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E157">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -5818,30 +5839,30 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B158" s="3">
-        <v>33.502410995370369</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="C158" s="3">
-        <v>33.502410995370369</v>
+        <v>33.50096099537037</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5850,30 +5871,30 @@
         <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B159" s="3">
-        <v>33.502473726851854</v>
+        <v>33.500961574074076</v>
       </c>
       <c r="C159" s="3">
-        <v>33.502473726851854</v>
+        <v>33.500961574074076</v>
       </c>
       <c r="D159">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -5882,30 +5903,30 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>79</v>
-      </c>
-      <c r="B160" s="2">
-        <v>33.500474884259262</v>
-      </c>
-      <c r="C160" s="2">
-        <v>36557.500474884262</v>
+        <v>51</v>
+      </c>
+      <c r="B160" s="3">
+        <v>33.500977662037037</v>
+      </c>
+      <c r="C160" s="3">
+        <v>33.500977662037037</v>
       </c>
       <c r="D160">
         <v>11</v>
       </c>
       <c r="E160">
-        <v>442</v>
+        <v>242</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -5914,30 +5935,30 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>79</v>
-      </c>
-      <c r="B161" s="2">
-        <v>33.500477314814816</v>
-      </c>
-      <c r="C161" s="2">
-        <v>36557.500477314818</v>
+        <v>51</v>
+      </c>
+      <c r="B161" s="3">
+        <v>33.501045717592589</v>
+      </c>
+      <c r="C161" s="3">
+        <v>33.501045717592589</v>
       </c>
       <c r="D161">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>431</v>
+        <v>242</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -5946,30 +5967,30 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>79</v>
-      </c>
-      <c r="B162" s="2">
-        <v>33.500491550925929</v>
-      </c>
-      <c r="C162" s="2">
-        <v>36557.500491550927</v>
+        <v>51</v>
+      </c>
+      <c r="B162" s="3">
+        <v>33.501077083333335</v>
+      </c>
+      <c r="C162" s="3">
+        <v>33.501077083333335</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E162">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
       </c>
       <c r="G162" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -5978,30 +5999,30 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>79</v>
-      </c>
-      <c r="B163" s="2">
-        <v>33.500498611111112</v>
-      </c>
-      <c r="C163" s="2">
-        <v>36557.500498611109</v>
+        <v>51</v>
+      </c>
+      <c r="B163" s="3">
+        <v>33.501116898148148</v>
+      </c>
+      <c r="C163" s="3">
+        <v>33.501116898148148</v>
       </c>
       <c r="D163">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -6010,30 +6031,30 @@
         <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>79</v>
-      </c>
-      <c r="B164" s="2">
-        <v>33.500509027777781</v>
-      </c>
-      <c r="C164" s="2">
-        <v>36557.500509027777</v>
+        <v>51</v>
+      </c>
+      <c r="B164" s="3">
+        <v>33.501171874999997</v>
+      </c>
+      <c r="C164" s="3">
+        <v>33.501171874999997</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>423</v>
+        <v>156</v>
       </c>
       <c r="F164" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="G164" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6042,30 +6063,30 @@
         <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>79</v>
-      </c>
-      <c r="B165" s="2">
-        <v>33.500509953703705</v>
-      </c>
-      <c r="C165" s="2">
-        <v>36557.500509953701</v>
+        <v>72</v>
+      </c>
+      <c r="B165" s="3">
+        <v>33.502040046296294</v>
+      </c>
+      <c r="C165" s="3">
+        <v>33.502040046296294</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>420</v>
+        <v>278</v>
       </c>
       <c r="F165" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G165" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6074,30 +6095,30 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>79</v>
-      </c>
-      <c r="B166" s="2">
-        <v>33.500516319444444</v>
-      </c>
-      <c r="C166" s="2">
-        <v>36557.500516319444</v>
+        <v>72</v>
+      </c>
+      <c r="B166" s="3">
+        <v>33.502098495370369</v>
+      </c>
+      <c r="C166" s="3">
+        <v>33.502098495370369</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166">
-        <v>396</v>
+        <v>223</v>
       </c>
       <c r="F166" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -6106,30 +6127,30 @@
         <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>79</v>
-      </c>
-      <c r="B167" s="2">
-        <v>33.500524305555558</v>
-      </c>
-      <c r="C167" s="2">
-        <v>36557.500524305557</v>
+        <v>72</v>
+      </c>
+      <c r="B167" s="3">
+        <v>33.502143750000002</v>
+      </c>
+      <c r="C167" s="3">
+        <v>33.502143750000002</v>
       </c>
       <c r="D167">
         <v>11</v>
       </c>
       <c r="E167">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6138,30 +6159,30 @@
         <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>79</v>
-      </c>
-      <c r="B168" s="2">
-        <v>33.500542708333334</v>
-      </c>
-      <c r="C168" s="2">
-        <v>36557.500542708331</v>
+        <v>72</v>
+      </c>
+      <c r="B168" s="3">
+        <v>33.502159374999998</v>
+      </c>
+      <c r="C168" s="3">
+        <v>33.502159374999998</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="F168" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="G168" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6170,30 +6191,30 @@
         <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>79</v>
-      </c>
-      <c r="B169" s="2">
-        <v>33.500557870370372</v>
-      </c>
-      <c r="C169" s="2">
-        <v>36557.500557870371</v>
+        <v>72</v>
+      </c>
+      <c r="B169" s="3">
+        <v>33.50237650462963</v>
+      </c>
+      <c r="C169" s="3">
+        <v>33.50237650462963</v>
       </c>
       <c r="D169">
         <v>10</v>
       </c>
       <c r="E169">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="F169" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6202,30 +6223,30 @@
         <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>79</v>
-      </c>
-      <c r="B170" s="2">
-        <v>33.500581712962962</v>
-      </c>
-      <c r="C170" s="2">
-        <v>36557.500581712964</v>
+        <v>72</v>
+      </c>
+      <c r="B170" s="3">
+        <v>33.502387384259258</v>
+      </c>
+      <c r="C170" s="3">
+        <v>33.502387384259258</v>
       </c>
       <c r="D170">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="H170" t="s">
         <v>13</v>
@@ -6234,30 +6255,30 @@
         <v>14</v>
       </c>
       <c r="J170" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>79</v>
-      </c>
-      <c r="B171" s="2">
-        <v>33.500635879629627</v>
-      </c>
-      <c r="C171" s="2">
-        <v>36557.500635879631</v>
+        <v>72</v>
+      </c>
+      <c r="B171" s="3">
+        <v>33.502401736111111</v>
+      </c>
+      <c r="C171" s="3">
+        <v>33.502401736111111</v>
       </c>
       <c r="D171">
         <v>9</v>
       </c>
       <c r="E171">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="F171" t="s">
         <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6266,30 +6287,30 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B172" s="3">
-        <v>33.501073148148151</v>
+        <v>33.502410995370369</v>
       </c>
       <c r="C172" s="3">
-        <v>33.501073148148151</v>
+        <v>33.502410995370369</v>
       </c>
       <c r="D172">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="F172" t="s">
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6298,30 +6319,30 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B173" s="3">
-        <v>33.50107789351852</v>
+        <v>33.502473726851854</v>
       </c>
       <c r="C173" s="3">
-        <v>33.50107789351852</v>
+        <v>33.502473726851854</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>334</v>
+        <v>175</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -6330,30 +6351,30 @@
         <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>83</v>
-      </c>
-      <c r="B174" s="3">
-        <v>33.501080671296293</v>
-      </c>
-      <c r="C174" s="3">
-        <v>33.501080671296293</v>
+        <v>84</v>
+      </c>
+      <c r="B174" s="2">
+        <v>33.500474884259262</v>
+      </c>
+      <c r="C174" s="2">
+        <v>36557.500474884262</v>
       </c>
       <c r="D174">
         <v>11</v>
       </c>
       <c r="E174">
-        <v>328</v>
+        <v>442</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
       </c>
       <c r="G174" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -6362,30 +6383,30 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>83</v>
-      </c>
-      <c r="B175" s="3">
-        <v>33.501083101851854</v>
-      </c>
-      <c r="C175" s="3">
-        <v>33.501083101851854</v>
+        <v>84</v>
+      </c>
+      <c r="B175" s="2">
+        <v>33.500477314814816</v>
+      </c>
+      <c r="C175" s="2">
+        <v>36557.500477314818</v>
       </c>
       <c r="D175">
         <v>11</v>
       </c>
       <c r="E175">
-        <v>324</v>
+        <v>431</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -6394,30 +6415,30 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>83</v>
-      </c>
-      <c r="B176" s="3">
-        <v>33.501101273148151</v>
-      </c>
-      <c r="C176" s="3">
-        <v>33.501101273148151</v>
+        <v>84</v>
+      </c>
+      <c r="B176" s="2">
+        <v>33.500491550925929</v>
+      </c>
+      <c r="C176" s="2">
+        <v>36557.500491550927</v>
       </c>
       <c r="D176">
         <v>11</v>
       </c>
       <c r="E176">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="F176" t="s">
         <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -6426,30 +6447,30 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>83</v>
-      </c>
-      <c r="B177" s="3">
-        <v>33.501177662037037</v>
-      </c>
-      <c r="C177" s="3">
-        <v>33.501177662037037</v>
+        <v>84</v>
+      </c>
+      <c r="B177" s="2">
+        <v>33.500498611111112</v>
+      </c>
+      <c r="C177" s="2">
+        <v>36557.500498611109</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -6458,30 +6479,30 @@
         <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>83</v>
-      </c>
-      <c r="B178" s="3">
-        <v>33.501178009259256</v>
-      </c>
-      <c r="C178" s="3">
-        <v>33.501178009259256</v>
+        <v>84</v>
+      </c>
+      <c r="B178" s="2">
+        <v>33.500509027777781</v>
+      </c>
+      <c r="C178" s="2">
+        <v>36557.500509027777</v>
       </c>
       <c r="D178">
         <v>10</v>
       </c>
       <c r="E178">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="F178" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G178" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -6490,30 +6511,30 @@
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>83</v>
-      </c>
-      <c r="B179" s="3">
-        <v>33.501195717592594</v>
-      </c>
-      <c r="C179" s="3">
-        <v>33.501195717592594</v>
+        <v>84</v>
+      </c>
+      <c r="B179" s="2">
+        <v>33.500509953703705</v>
+      </c>
+      <c r="C179" s="2">
+        <v>36557.500509953701</v>
       </c>
       <c r="D179">
         <v>10</v>
       </c>
       <c r="E179">
-        <v>273</v>
+        <v>420</v>
       </c>
       <c r="F179" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G179" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -6522,30 +6543,30 @@
         <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>86</v>
-      </c>
-      <c r="B180" s="3">
-        <v>33.502196064814818</v>
-      </c>
-      <c r="C180" s="3">
-        <v>33.502196064814818</v>
+        <v>84</v>
+      </c>
+      <c r="B180" s="2">
+        <v>33.500516319444444</v>
+      </c>
+      <c r="C180" s="2">
+        <v>36557.500516319444</v>
       </c>
       <c r="D180">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="G180" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -6554,30 +6575,30 @@
         <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>86</v>
-      </c>
-      <c r="B181" s="3">
-        <v>33.502291203703706</v>
-      </c>
-      <c r="C181" s="3">
-        <v>33.502291203703706</v>
+        <v>84</v>
+      </c>
+      <c r="B181" s="2">
+        <v>33.500524305555558</v>
+      </c>
+      <c r="C181" s="2">
+        <v>36557.500524305557</v>
       </c>
       <c r="D181">
         <v>11</v>
       </c>
       <c r="E181">
-        <v>393</v>
+        <v>242</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G181" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -6586,30 +6607,30 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>87</v>
-      </c>
-      <c r="B182" s="3">
-        <v>33.500712962962965</v>
-      </c>
-      <c r="C182" s="3">
-        <v>33.500712962962965</v>
+        <v>84</v>
+      </c>
+      <c r="B182" s="2">
+        <v>33.500542708333334</v>
+      </c>
+      <c r="C182" s="2">
+        <v>36557.500542708331</v>
       </c>
       <c r="D182">
         <v>10</v>
       </c>
       <c r="E182">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G182" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -6618,30 +6639,30 @@
         <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>87</v>
-      </c>
-      <c r="B183" s="3">
-        <v>33.500717708333333</v>
-      </c>
-      <c r="C183" s="3">
-        <v>33.500717708333333</v>
+        <v>84</v>
+      </c>
+      <c r="B183" s="2">
+        <v>33.500557870370372</v>
+      </c>
+      <c r="C183" s="2">
+        <v>36557.500557870371</v>
       </c>
       <c r="D183">
         <v>10</v>
       </c>
       <c r="E183">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G183" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -6650,30 +6671,30 @@
         <v>14</v>
       </c>
       <c r="J183" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>87</v>
-      </c>
-      <c r="B184" s="3">
-        <v>33.500728240740742</v>
-      </c>
-      <c r="C184" s="3">
-        <v>33.500728240740742</v>
+        <v>84</v>
+      </c>
+      <c r="B184" s="2">
+        <v>33.500581712962962</v>
+      </c>
+      <c r="C184" s="2">
+        <v>36557.500581712964</v>
       </c>
       <c r="D184">
         <v>9</v>
       </c>
       <c r="E184">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -6682,30 +6703,30 @@
         <v>14</v>
       </c>
       <c r="J184" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>87</v>
-      </c>
-      <c r="B185" s="3">
-        <v>33.50076261574074</v>
-      </c>
-      <c r="C185" s="3">
-        <v>33.50076261574074</v>
+        <v>84</v>
+      </c>
+      <c r="B185" s="2">
+        <v>33.500635879629627</v>
+      </c>
+      <c r="C185" s="2">
+        <v>36557.500635879631</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -6714,30 +6735,30 @@
         <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B186" s="3">
-        <v>33.500793865740739</v>
+        <v>33.501073148148151</v>
       </c>
       <c r="C186" s="3">
-        <v>33.500793865740739</v>
+        <v>33.501073148148151</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G186" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -6746,30 +6767,30 @@
         <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>89</v>
       </c>
-      <c r="B187" s="2">
-        <v>33.500542013888889</v>
-      </c>
-      <c r="C187" s="2">
-        <v>36557.500542013891</v>
+      <c r="B187" s="3">
+        <v>33.50107789351852</v>
+      </c>
+      <c r="C187" s="3">
+        <v>33.50107789351852</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -6778,30 +6799,30 @@
         <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>89</v>
       </c>
-      <c r="B188" s="2">
-        <v>33.500546527777779</v>
-      </c>
-      <c r="C188" s="2">
-        <v>36557.500546527779</v>
+      <c r="B188" s="3">
+        <v>33.501080671296293</v>
+      </c>
+      <c r="C188" s="3">
+        <v>33.501080671296293</v>
       </c>
       <c r="D188">
         <v>11</v>
       </c>
       <c r="E188">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -6810,30 +6831,30 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>89</v>
       </c>
-      <c r="B189" s="2">
-        <v>33.500611805555558</v>
-      </c>
-      <c r="C189" s="2">
-        <v>36557.500611805553</v>
+      <c r="B189" s="3">
+        <v>33.501083101851854</v>
+      </c>
+      <c r="C189" s="3">
+        <v>33.501083101851854</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189">
-        <v>51</v>
+        <v>324</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -6842,30 +6863,30 @@
         <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>89</v>
       </c>
-      <c r="B190" s="2">
-        <v>33.500633333333333</v>
-      </c>
-      <c r="C190" s="2">
-        <v>36557.500633333337</v>
+      <c r="B190" s="3">
+        <v>33.501101273148151</v>
+      </c>
+      <c r="C190" s="3">
+        <v>33.501101273148151</v>
       </c>
       <c r="D190">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E190">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -6874,30 +6895,30 @@
         <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>89</v>
       </c>
-      <c r="B191" s="2">
-        <v>33.500662037037038</v>
-      </c>
-      <c r="C191" s="2">
-        <v>36557.50066203704</v>
+      <c r="B191" s="3">
+        <v>33.501177662037037</v>
+      </c>
+      <c r="C191" s="3">
+        <v>33.501177662037037</v>
       </c>
       <c r="D191">
         <v>10</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G191" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -6906,30 +6927,30 @@
         <v>14</v>
       </c>
       <c r="J191" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B192" s="3">
-        <v>33.501235416666667</v>
+        <v>33.501178009259256</v>
       </c>
       <c r="C192" s="3">
-        <v>33.501235416666667</v>
+        <v>33.501178009259256</v>
       </c>
       <c r="D192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E192">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G192" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -6938,30 +6959,30 @@
         <v>14</v>
       </c>
       <c r="J192" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B193" s="3">
-        <v>33.501240393518522</v>
+        <v>33.501195717592594</v>
       </c>
       <c r="C193" s="3">
-        <v>33.501240393518522</v>
+        <v>33.501195717592594</v>
       </c>
       <c r="D193">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E193">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G193" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -6970,7 +6991,7 @@
         <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6978,22 +6999,22 @@
         <v>92</v>
       </c>
       <c r="B194" s="3">
-        <v>33.502421412037037</v>
+        <v>33.502196064814818</v>
       </c>
       <c r="C194" s="3">
-        <v>33.502421412037037</v>
+        <v>33.502196064814818</v>
       </c>
       <c r="D194">
         <v>11</v>
       </c>
       <c r="E194">
-        <v>207</v>
+        <v>483</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -7002,7 +7023,7 @@
         <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -7010,22 +7031,22 @@
         <v>92</v>
       </c>
       <c r="B195" s="3">
-        <v>33.502425000000002</v>
+        <v>33.502291203703706</v>
       </c>
       <c r="C195" s="3">
-        <v>33.502425000000002</v>
+        <v>33.502291203703706</v>
       </c>
       <c r="D195">
         <v>11</v>
       </c>
       <c r="E195">
-        <v>204</v>
+        <v>393</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -7034,31 +7055,31 @@
         <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B196" s="3">
-        <v>33.502559722222223</v>
+        <v>33.500712962962965</v>
       </c>
       <c r="C196" s="3">
-        <v>33.502559722222223</v>
+        <v>33.500712962962965</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E196">
+        <v>52</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" t="s">
         <v>113</v>
       </c>
-      <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s">
-        <v>100</v>
-      </c>
       <c r="H196" t="s">
         <v>13</v>
       </c>
@@ -7066,30 +7087,30 @@
         <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B197" s="3">
-        <v>33.502609837962964</v>
+        <v>33.500717708333333</v>
       </c>
       <c r="C197" s="3">
-        <v>33.502609837962964</v>
+        <v>33.500717708333333</v>
       </c>
       <c r="D197">
         <v>10</v>
       </c>
       <c r="E197">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G197" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="H197" t="s">
         <v>13</v>
@@ -7098,30 +7119,30 @@
         <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B198" s="3">
-        <v>33.502745833333336</v>
+        <v>33.500728240740742</v>
       </c>
       <c r="C198" s="3">
-        <v>33.502745833333336</v>
+        <v>33.500728240740742</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H198" t="s">
         <v>13</v>
@@ -7130,39 +7151,487 @@
         <v>14</v>
       </c>
       <c r="J198" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B199" s="3">
+        <v>33.50076261574074</v>
+      </c>
+      <c r="C199" s="3">
+        <v>33.50076261574074</v>
+      </c>
+      <c r="D199">
+        <v>10</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" t="s">
+        <v>119</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>94</v>
+      </c>
+      <c r="B200" s="3">
+        <v>33.500793865740739</v>
+      </c>
+      <c r="C200" s="3">
+        <v>33.500793865740739</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>20</v>
+      </c>
+      <c r="F200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" t="s">
+        <v>111</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>96</v>
+      </c>
+      <c r="B201" s="2">
+        <v>33.500542013888889</v>
+      </c>
+      <c r="C201" s="2">
+        <v>36557.500542013891</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>207</v>
+      </c>
+      <c r="F201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" t="s">
+        <v>113</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>96</v>
+      </c>
+      <c r="B202" s="2">
+        <v>33.500546527777779</v>
+      </c>
+      <c r="C202" s="2">
+        <v>36557.500546527779</v>
+      </c>
+      <c r="D202">
+        <v>11</v>
+      </c>
+      <c r="E202">
+        <v>76</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" t="s">
+        <v>103</v>
+      </c>
+      <c r="H202" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>96</v>
+      </c>
+      <c r="B203" s="2">
+        <v>33.500611805555558</v>
+      </c>
+      <c r="C203" s="2">
+        <v>36557.500611805553</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>51</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" t="s">
+        <v>119</v>
+      </c>
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>96</v>
+      </c>
+      <c r="B204" s="2">
+        <v>33.500633333333333</v>
+      </c>
+      <c r="C204" s="2">
+        <v>36557.500633333337</v>
+      </c>
+      <c r="D204">
+        <v>9</v>
+      </c>
+      <c r="E204">
+        <v>98</v>
+      </c>
+      <c r="F204" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" t="s">
+        <v>121</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>96</v>
+      </c>
+      <c r="B205" s="2">
+        <v>33.500662037037038</v>
+      </c>
+      <c r="C205" s="2">
+        <v>36557.50066203704</v>
+      </c>
+      <c r="D205">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" t="s">
+        <v>131</v>
+      </c>
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>97</v>
+      </c>
+      <c r="B206" s="3">
+        <v>33.501235416666667</v>
+      </c>
+      <c r="C206" s="3">
+        <v>33.501235416666667</v>
+      </c>
+      <c r="D206">
+        <v>11</v>
+      </c>
+      <c r="E206">
+        <v>78</v>
+      </c>
+      <c r="F206" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" t="s">
+        <v>103</v>
+      </c>
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" t="s">
+        <v>14</v>
+      </c>
+      <c r="J206" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>97</v>
+      </c>
+      <c r="B207" s="3">
+        <v>33.501240393518522</v>
+      </c>
+      <c r="C207" s="3">
+        <v>33.501240393518522</v>
+      </c>
+      <c r="D207">
+        <v>11</v>
+      </c>
+      <c r="E207">
+        <v>73</v>
+      </c>
+      <c r="F207" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>126</v>
+      </c>
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>99</v>
+      </c>
+      <c r="B208" s="3">
+        <v>33.502421412037037</v>
+      </c>
+      <c r="C208" s="3">
+        <v>33.502421412037037</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>207</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>101</v>
+      </c>
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>99</v>
+      </c>
+      <c r="B209" s="3">
+        <v>33.502425000000002</v>
+      </c>
+      <c r="C209" s="3">
+        <v>33.502425000000002</v>
+      </c>
+      <c r="D209">
+        <v>11</v>
+      </c>
+      <c r="E209">
+        <v>204</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
+        <v>126</v>
+      </c>
+      <c r="H209" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>99</v>
+      </c>
+      <c r="B210" s="3">
+        <v>33.502559722222223</v>
+      </c>
+      <c r="C210" s="3">
+        <v>33.502559722222223</v>
+      </c>
+      <c r="D210">
+        <v>11</v>
+      </c>
+      <c r="E210">
+        <v>113</v>
+      </c>
+      <c r="F210" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" t="s">
+        <v>107</v>
+      </c>
+      <c r="H210" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>99</v>
+      </c>
+      <c r="B211" s="3">
+        <v>33.502609837962964</v>
+      </c>
+      <c r="C211" s="3">
+        <v>33.502609837962964</v>
+      </c>
+      <c r="D211">
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <v>194</v>
+      </c>
+      <c r="F211" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211" t="s">
+        <v>109</v>
+      </c>
+      <c r="H211" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>99</v>
+      </c>
+      <c r="B212" s="3">
+        <v>33.502745833333336</v>
+      </c>
+      <c r="C212" s="3">
+        <v>33.502745833333336</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>114</v>
+      </c>
+      <c r="F212" t="s">
+        <v>11</v>
+      </c>
+      <c r="G212" t="s">
+        <v>131</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>99</v>
+      </c>
+      <c r="B213" s="3">
         <v>33.502784722222223</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C213" s="3">
         <v>33.502784722222223</v>
       </c>
-      <c r="D199">
-        <v>10</v>
-      </c>
-      <c r="E199">
+      <c r="D213">
+        <v>10</v>
+      </c>
+      <c r="E213">
         <v>94</v>
       </c>
-      <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s">
-        <v>108</v>
-      </c>
-      <c r="H199" t="s">
-        <v>13</v>
-      </c>
-      <c r="I199" t="s">
-        <v>14</v>
-      </c>
-      <c r="J199" t="s">
-        <v>123</v>
+      <c r="F213" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" t="s">
+        <v>115</v>
+      </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Brennan Keane.xlsx
+++ b/USASwimming/Times For Brennan Keane.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="147">
   <si>
     <t>Event</t>
   </si>
@@ -180,6 +180,18 @@
     <t>100 FR</t>
   </si>
   <si>
+    <t>2020 CT OAK Centennial Center Invit</t>
+  </si>
+  <si>
+    <t>1/4/2020</t>
+  </si>
+  <si>
+    <t>2020 CT Wilton Wahoos Winter Qual</t>
+  </si>
+  <si>
+    <t>1/19/2020</t>
+  </si>
+  <si>
     <t>2019 CT RYWC Candlewood Cup</t>
   </si>
   <si>
@@ -243,9 +255,15 @@
     <t>200 FR</t>
   </si>
   <si>
+    <t>1/17/2020</t>
+  </si>
+  <si>
     <t>12/7/2019</t>
   </si>
   <si>
+    <t>1/5/2020</t>
+  </si>
+  <si>
     <t>3/1/2019</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>36.42r</t>
   </si>
   <si>
+    <t>1/18/2020</t>
+  </si>
+  <si>
     <t>1/19/2019</t>
   </si>
   <si>
@@ -301,6 +322,12 @@
   </si>
   <si>
     <t>200 BK</t>
+  </si>
+  <si>
+    <t>2020 CT OAK Centennial Center Dist</t>
+  </si>
+  <si>
+    <t>1/3/2020</t>
   </si>
   <si>
     <t>12/6/2019</t>
@@ -796,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1431,16 +1458,16 @@
         <v>51</v>
       </c>
       <c r="B20" s="3">
-        <v>33.500802777777778</v>
+        <v>33.500774305555552</v>
       </c>
       <c r="C20" s="3">
-        <v>33.500802777777778</v>
+        <v>33.500774305555552</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1463,16 +1490,16 @@
         <v>51</v>
       </c>
       <c r="B21" s="3">
-        <v>33.500821064814815</v>
+        <v>33.500782175925927</v>
       </c>
       <c r="C21" s="3">
-        <v>33.500821064814815</v>
+        <v>33.500782175925927</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1495,22 +1522,22 @@
         <v>51</v>
       </c>
       <c r="B22" s="3">
-        <v>33.500823958333335</v>
+        <v>33.500802777777778</v>
       </c>
       <c r="C22" s="3">
-        <v>33.500823958333335</v>
+        <v>33.500802777777778</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1519,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1527,22 +1554,22 @@
         <v>51</v>
       </c>
       <c r="B23" s="3">
-        <v>33.500834027777778</v>
+        <v>33.500821064814815</v>
       </c>
       <c r="C23" s="3">
-        <v>33.500834027777778</v>
+        <v>33.500821064814815</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1551,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,22 +1586,22 @@
         <v>51</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500860069444443</v>
+        <v>33.500823958333335</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500860069444443</v>
+        <v>33.500823958333335</v>
       </c>
       <c r="D24">
         <v>11</v>
       </c>
       <c r="E24">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1583,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1591,22 +1618,22 @@
         <v>51</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500920601851853</v>
+        <v>33.500834027777778</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500920601851853</v>
+        <v>33.500834027777778</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1615,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1623,22 +1650,22 @@
         <v>51</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500928819444447</v>
+        <v>33.500860069444443</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500928819444447</v>
+        <v>33.500860069444443</v>
       </c>
       <c r="D26">
         <v>11</v>
       </c>
       <c r="E26">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1647,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1655,22 +1682,22 @@
         <v>51</v>
       </c>
       <c r="B27" s="3">
-        <v>33.500938078703705</v>
+        <v>33.500920601851853</v>
       </c>
       <c r="C27" s="3">
-        <v>33.500938078703705</v>
+        <v>33.500920601851853</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1679,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1687,22 +1714,22 @@
         <v>51</v>
       </c>
       <c r="B28" s="3">
-        <v>33.500957291666666</v>
+        <v>33.500928819444447</v>
       </c>
       <c r="C28" s="3">
-        <v>33.500957291666666</v>
+        <v>33.500928819444447</v>
       </c>
       <c r="D28">
         <v>11</v>
       </c>
       <c r="E28">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1711,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1719,22 +1746,22 @@
         <v>51</v>
       </c>
       <c r="B29" s="3">
-        <v>33.500968402777779</v>
+        <v>33.500938078703705</v>
       </c>
       <c r="C29" s="3">
-        <v>33.500968402777779</v>
+        <v>33.500938078703705</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1743,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1751,22 +1778,22 @@
         <v>51</v>
       </c>
       <c r="B30" s="3">
-        <v>33.500970717592594</v>
+        <v>33.500957291666666</v>
       </c>
       <c r="C30" s="3">
-        <v>33.500970717592594</v>
+        <v>33.500957291666666</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1775,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1783,22 +1810,22 @@
         <v>51</v>
       </c>
       <c r="B31" s="3">
-        <v>33.500998726851854</v>
+        <v>33.500968402777779</v>
       </c>
       <c r="C31" s="3">
-        <v>33.500998726851854</v>
+        <v>33.500968402777779</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1807,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1815,22 +1842,22 @@
         <v>51</v>
       </c>
       <c r="B32" s="3">
-        <v>33.501021990740739</v>
+        <v>33.500970717592594</v>
       </c>
       <c r="C32" s="3">
-        <v>33.501021990740739</v>
+        <v>33.500970717592594</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1839,7 +1866,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1847,22 +1874,22 @@
         <v>51</v>
       </c>
       <c r="B33" s="3">
-        <v>33.501030787037038</v>
+        <v>33.500998726851854</v>
       </c>
       <c r="C33" s="3">
-        <v>33.501030787037038</v>
+        <v>33.500998726851854</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1871,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1879,22 +1906,22 @@
         <v>51</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501057638888888</v>
+        <v>33.501021990740739</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501057638888888</v>
+        <v>33.501021990740739</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1903,7 +1930,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1911,22 +1938,22 @@
         <v>51</v>
       </c>
       <c r="B35" s="3">
-        <v>33.501086805555559</v>
+        <v>33.501030787037038</v>
       </c>
       <c r="C35" s="3">
-        <v>33.501086805555559</v>
+        <v>33.501030787037038</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1935,7 +1962,7 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,22 +1970,22 @@
         <v>51</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501087037037038</v>
+        <v>33.501057638888888</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501087037037038</v>
+        <v>33.501057638888888</v>
       </c>
       <c r="D36">
         <v>9</v>
       </c>
       <c r="E36">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1967,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1975,22 +2002,22 @@
         <v>51</v>
       </c>
       <c r="B37" s="3">
-        <v>33.501122569444448</v>
+        <v>33.501086805555559</v>
       </c>
       <c r="C37" s="3">
-        <v>33.501122569444448</v>
+        <v>33.501086805555559</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1999,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2007,22 +2034,22 @@
         <v>51</v>
       </c>
       <c r="B38" s="3">
-        <v>33.501194212962965</v>
+        <v>33.501087037037038</v>
       </c>
       <c r="C38" s="3">
-        <v>33.501194212962965</v>
+        <v>33.501087037037038</v>
       </c>
       <c r="D38">
         <v>9</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2031,30 +2058,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3">
-        <v>33.501733101851855</v>
+        <v>33.501122569444448</v>
       </c>
       <c r="C39" s="3">
-        <v>33.501733101851855</v>
+        <v>33.501122569444448</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2063,30 +2090,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3">
-        <v>33.501787731481478</v>
+        <v>33.501194212962965</v>
       </c>
       <c r="C40" s="3">
-        <v>33.501787731481478</v>
+        <v>33.501194212962965</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2095,30 +2122,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3">
-        <v>33.501830787037036</v>
+        <v>33.501701736111109</v>
       </c>
       <c r="C41" s="3">
-        <v>33.501830787037036</v>
+        <v>33.501701736111109</v>
       </c>
       <c r="D41">
         <v>12</v>
       </c>
       <c r="E41">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2127,30 +2154,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3">
-        <v>33.501835879629631</v>
+        <v>33.501733101851855</v>
       </c>
       <c r="C42" s="3">
-        <v>33.501835879629631</v>
+        <v>33.501733101851855</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2159,30 +2186,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B43" s="3">
-        <v>33.501843055555554</v>
+        <v>33.501747916666666</v>
       </c>
       <c r="C43" s="3">
-        <v>33.501843055555554</v>
+        <v>33.501747916666666</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2191,30 +2218,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B44" s="3">
-        <v>33.501872685185184</v>
+        <v>33.501787731481478</v>
       </c>
       <c r="C44" s="3">
-        <v>33.501872685185184</v>
+        <v>33.501787731481478</v>
       </c>
       <c r="D44">
         <v>11</v>
       </c>
       <c r="E44">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2223,30 +2250,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B45" s="3">
-        <v>33.50192511574074</v>
+        <v>33.501830787037036</v>
       </c>
       <c r="C45" s="3">
-        <v>33.50192511574074</v>
+        <v>33.501830787037036</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2255,30 +2282,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B46" s="3">
-        <v>33.501967013888887</v>
+        <v>33.501835879629631</v>
       </c>
       <c r="C46" s="3">
-        <v>33.501967013888887</v>
+        <v>33.501835879629631</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2287,30 +2314,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B47" s="3">
-        <v>33.502072453703704</v>
+        <v>33.501843055555554</v>
       </c>
       <c r="C47" s="3">
-        <v>33.502072453703704</v>
+        <v>33.501843055555554</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2319,30 +2346,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B48" s="3">
-        <v>33.502133796296299</v>
+        <v>33.501872685185184</v>
       </c>
       <c r="C48" s="3">
-        <v>33.502133796296299</v>
+        <v>33.501872685185184</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2351,30 +2378,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B49" s="3">
-        <v>33.502209837962965</v>
+        <v>33.50192511574074</v>
       </c>
       <c r="C49" s="3">
-        <v>33.502209837962965</v>
+        <v>33.50192511574074</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2383,30 +2410,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B50" s="3">
-        <v>33.502269212962965</v>
+        <v>33.501967013888887</v>
       </c>
       <c r="C50" s="3">
-        <v>33.502269212962965</v>
+        <v>33.501967013888887</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2415,30 +2442,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3">
-        <v>33.502345486111111</v>
+        <v>33.502072453703704</v>
       </c>
       <c r="C51" s="3">
-        <v>33.502345486111111</v>
+        <v>33.502072453703704</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2447,27 +2474,27 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B52" s="3">
-        <v>33.502414583333334</v>
+        <v>33.502133796296299</v>
       </c>
       <c r="C52" s="3">
-        <v>33.502414583333334</v>
+        <v>33.502133796296299</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
         <v>68</v>
@@ -2479,30 +2506,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B53" s="3">
-        <v>33.504822916666669</v>
+        <v>33.502209837962965</v>
       </c>
       <c r="C53" s="3">
-        <v>33.504822916666669</v>
+        <v>33.502209837962965</v>
       </c>
       <c r="D53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2511,30 +2538,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B54" s="3">
-        <v>33.50494733796296</v>
+        <v>33.502269212962965</v>
       </c>
       <c r="C54" s="3">
-        <v>33.50494733796296</v>
+        <v>33.502269212962965</v>
       </c>
       <c r="D54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2543,30 +2570,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B55" s="3">
-        <v>33.504986226851855</v>
+        <v>33.502345486111111</v>
       </c>
       <c r="C55" s="3">
-        <v>33.504986226851855</v>
+        <v>33.502345486111111</v>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2575,30 +2602,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B56" s="3">
-        <v>33.505444097222224</v>
+        <v>33.502414583333334</v>
       </c>
       <c r="C56" s="3">
-        <v>33.505444097222224</v>
+        <v>33.502414583333334</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2607,62 +2634,62 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B57" s="3">
-        <v>33.505681597222221</v>
+        <v>33.504822916666669</v>
       </c>
       <c r="C57" s="3">
-        <v>33.505681597222221</v>
+        <v>33.504822916666669</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57">
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" t="s">
         <v>15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="2">
-        <v>36557.50042152778</v>
+        <v>88</v>
+      </c>
+      <c r="B58" s="3">
+        <v>33.50494733796296</v>
+      </c>
+      <c r="C58" s="3">
+        <v>33.50494733796296</v>
       </c>
       <c r="D58">
         <v>12</v>
       </c>
       <c r="E58">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2671,30 +2698,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="2">
-        <v>33.500422685185185</v>
-      </c>
-      <c r="C59" s="2">
-        <v>36557.500422685182</v>
+        <v>88</v>
+      </c>
+      <c r="B59" s="3">
+        <v>33.504986226851855</v>
+      </c>
+      <c r="C59" s="3">
+        <v>33.504986226851855</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2703,30 +2730,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="2">
-        <v>33.500440740740743</v>
-      </c>
-      <c r="C60" s="2">
-        <v>36557.50044074074</v>
+        <v>88</v>
+      </c>
+      <c r="B60" s="3">
+        <v>33.505444097222224</v>
+      </c>
+      <c r="C60" s="3">
+        <v>33.505444097222224</v>
       </c>
       <c r="D60">
         <v>11</v>
       </c>
       <c r="E60">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2735,30 +2762,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="2">
-        <v>33.500458449074074</v>
-      </c>
-      <c r="C61" s="2">
-        <v>36557.500458449074</v>
+        <v>88</v>
+      </c>
+      <c r="B61" s="3">
+        <v>33.505681597222221</v>
+      </c>
+      <c r="C61" s="3">
+        <v>33.505681597222221</v>
       </c>
       <c r="D61">
         <v>11</v>
       </c>
       <c r="E61">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2767,30 +2794,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2">
-        <v>33.500458564814814</v>
+        <v>33.50041909722222</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500458564813</v>
+        <v>36557.500419097225</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2799,30 +2826,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2">
-        <v>36557.50046909722</v>
+        <v>36557.50042152778</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2831,30 +2858,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2">
-        <v>33.500472800925927</v>
+        <v>33.500422685185185</v>
       </c>
       <c r="C64" s="2">
-        <v>36557.500472800923</v>
+        <v>36557.500422685182</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2863,30 +2890,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2">
-        <v>33.500476736111111</v>
+        <v>33.500425462962966</v>
       </c>
       <c r="C65" s="2">
-        <v>36557.50047673611</v>
+        <v>36557.50042546296</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2895,30 +2922,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2">
-        <v>33.500480555555555</v>
+        <v>33.500440740740743</v>
       </c>
       <c r="C66" s="2">
-        <v>36557.500480555558</v>
+        <v>36557.50044074074</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2927,30 +2954,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2">
-        <v>33.500493749999997</v>
+        <v>33.500458449074074</v>
       </c>
       <c r="C67" s="2">
-        <v>36557.500493749998</v>
+        <v>36557.500458449074</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2959,31 +2986,31 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="2">
+        <v>33.500458564814814</v>
+      </c>
+      <c r="C68" s="2">
+        <v>36557.500458564813</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+      <c r="E68">
+        <v>222</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="2">
-        <v>33.500521643518518</v>
-      </c>
-      <c r="C68" s="2">
-        <v>36557.500521643517</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
-      </c>
-      <c r="E68">
-        <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
-      </c>
       <c r="H68" t="s">
         <v>13</v>
       </c>
@@ -2991,30 +3018,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="2">
-        <v>33.500523611111113</v>
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
       </c>
       <c r="C69" s="2">
-        <v>36557.50052361111</v>
+        <v>36557.50046909722</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -3023,30 +3050,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2">
-        <v>33.500527314814818</v>
+        <v>33.500472800925927</v>
       </c>
       <c r="C70" s="2">
-        <v>36557.500527314813</v>
+        <v>36557.500472800923</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E70">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3055,30 +3082,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2">
-        <v>33.500539583333335</v>
+        <v>33.500476736111111</v>
       </c>
       <c r="C71" s="2">
-        <v>36557.500539583336</v>
+        <v>36557.50047673611</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3087,30 +3114,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2">
-        <v>33.500559722222221</v>
+        <v>33.500480555555555</v>
       </c>
       <c r="C72" s="2">
-        <v>36557.500559722219</v>
+        <v>36557.500480555558</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3119,30 +3146,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2">
-        <v>33.500574999999998</v>
+        <v>33.500493749999997</v>
       </c>
       <c r="C73" s="2">
-        <v>36557.500574999998</v>
+        <v>36557.500493749998</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3151,30 +3178,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2">
-        <v>33.500576620370367</v>
+        <v>33.500521643518518</v>
       </c>
       <c r="C74" s="2">
-        <v>36557.500576620369</v>
+        <v>36557.500521643517</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3183,30 +3210,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2">
-        <v>33.500595717592596</v>
+        <v>33.500523611111113</v>
       </c>
       <c r="C75" s="2">
-        <v>36557.500595717589</v>
+        <v>36557.50052361111</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3215,30 +3242,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2">
-        <v>33.500606365740744</v>
+        <v>33.500527314814818</v>
       </c>
       <c r="C76" s="2">
-        <v>36557.500606365742</v>
+        <v>36557.500527314813</v>
       </c>
       <c r="D76">
         <v>9</v>
       </c>
       <c r="E76">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3247,30 +3274,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="3">
-        <v>33.500879050925924</v>
-      </c>
-      <c r="C77" s="3">
-        <v>33.500879050925924</v>
+        <v>90</v>
+      </c>
+      <c r="B77" s="2">
+        <v>33.500539583333335</v>
+      </c>
+      <c r="C77" s="2">
+        <v>36557.500539583336</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3279,30 +3306,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="3">
-        <v>33.500896759259263</v>
-      </c>
-      <c r="C78" s="3">
-        <v>33.500896759259263</v>
+        <v>90</v>
+      </c>
+      <c r="B78" s="2">
+        <v>33.500559722222221</v>
+      </c>
+      <c r="C78" s="2">
+        <v>36557.500559722219</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3311,30 +3338,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" s="3">
-        <v>33.500916203703703</v>
-      </c>
-      <c r="C79" s="3">
-        <v>33.500916203703703</v>
+        <v>90</v>
+      </c>
+      <c r="B79" s="2">
+        <v>33.500574999999998</v>
+      </c>
+      <c r="C79" s="2">
+        <v>36557.500574999998</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E79">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3343,30 +3370,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="3">
-        <v>33.500918055555559</v>
-      </c>
-      <c r="C80" s="3">
-        <v>33.500918055555559</v>
+        <v>90</v>
+      </c>
+      <c r="B80" s="2">
+        <v>33.500576620370367</v>
+      </c>
+      <c r="C80" s="2">
+        <v>36557.500576620369</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E80">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3375,30 +3402,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="3">
-        <v>33.500938541666663</v>
-      </c>
-      <c r="C81" s="3">
-        <v>33.500938541666663</v>
+        <v>90</v>
+      </c>
+      <c r="B81" s="2">
+        <v>33.500595717592596</v>
+      </c>
+      <c r="C81" s="2">
+        <v>36557.500595717589</v>
       </c>
       <c r="D81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3407,30 +3434,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="3">
-        <v>33.500952083333331</v>
-      </c>
-      <c r="C82" s="3">
-        <v>33.500952083333331</v>
+        <v>90</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.500606365740744</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36557.500606365742</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E82">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3439,30 +3466,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B83" s="3">
-        <v>33.500964583333335</v>
+        <v>33.500875000000001</v>
       </c>
       <c r="C83" s="3">
-        <v>33.500964583333335</v>
+        <v>33.500875000000001</v>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3471,30 +3498,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B84" s="3">
-        <v>33.501043287037035</v>
+        <v>33.500879050925924</v>
       </c>
       <c r="C84" s="3">
-        <v>33.501043287037035</v>
+        <v>33.500879050925924</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3503,30 +3530,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B85" s="3">
-        <v>33.501075810185185</v>
+        <v>33.500885763888888</v>
       </c>
       <c r="C85" s="3">
-        <v>33.501075810185185</v>
+        <v>33.500885763888888</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3535,30 +3562,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B86" s="3">
-        <v>33.50109895833333</v>
+        <v>33.500896759259263</v>
       </c>
       <c r="C86" s="3">
-        <v>33.50109895833333</v>
+        <v>33.500896759259263</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E86">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3567,30 +3594,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B87" s="3">
-        <v>33.501101504629631</v>
+        <v>33.500916203703703</v>
       </c>
       <c r="C87" s="3">
-        <v>33.501101504629631</v>
+        <v>33.500916203703703</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3599,30 +3626,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B88" s="3">
-        <v>33.501157870370371</v>
+        <v>33.500918055555559</v>
       </c>
       <c r="C88" s="3">
-        <v>33.501157870370371</v>
+        <v>33.500918055555559</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E88">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3631,30 +3658,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B89" s="3">
-        <v>33.50121863425926</v>
+        <v>33.500938541666663</v>
       </c>
       <c r="C89" s="3">
-        <v>33.50121863425926</v>
+        <v>33.500938541666663</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3663,30 +3690,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B90" s="3">
-        <v>33.501219675925924</v>
+        <v>33.500952083333331</v>
       </c>
       <c r="C90" s="3">
-        <v>33.501219675925924</v>
+        <v>33.500952083333331</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3695,30 +3722,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91" s="3">
-        <v>33.501949421296295</v>
+        <v>33.500964583333335</v>
       </c>
       <c r="C91" s="3">
-        <v>33.501949421296295</v>
+        <v>33.500964583333335</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3727,30 +3754,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>33.502052314814811</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="C92" s="3">
-        <v>33.502052314814811</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3759,30 +3786,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="3">
-        <v>33.50214710648148</v>
+        <v>33.501075810185185</v>
       </c>
       <c r="C93" s="3">
-        <v>33.50214710648148</v>
+        <v>33.501075810185185</v>
       </c>
       <c r="D93">
         <v>11</v>
       </c>
       <c r="E93">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3791,30 +3818,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="2">
-        <v>33.500625462962965</v>
-      </c>
-      <c r="C94" s="2">
-        <v>36557.500625462962</v>
+        <v>96</v>
+      </c>
+      <c r="B94" s="3">
+        <v>33.50109895833333</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33.50109895833333</v>
       </c>
       <c r="D94">
         <v>10</v>
       </c>
       <c r="E94">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3823,30 +3850,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2">
-        <v>33.500630208333334</v>
-      </c>
-      <c r="C95" s="2">
-        <v>36557.500630208335</v>
+        <v>96</v>
+      </c>
+      <c r="B95" s="3">
+        <v>33.501101504629631</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33.501101504629631</v>
       </c>
       <c r="D95">
         <v>10</v>
       </c>
       <c r="E95">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3855,30 +3882,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>33.500643287037036</v>
-      </c>
-      <c r="C96" s="2">
-        <v>36557.500643287036</v>
+        <v>96</v>
+      </c>
+      <c r="B96" s="3">
+        <v>33.501157870370371</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33.501157870370371</v>
       </c>
       <c r="D96">
         <v>10</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3887,30 +3914,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="2">
-        <v>33.500652430555554</v>
-      </c>
-      <c r="C97" s="2">
-        <v>36557.500652430557</v>
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>33.50121863425926</v>
+      </c>
+      <c r="C97" s="3">
+        <v>33.50121863425926</v>
       </c>
       <c r="D97">
         <v>9</v>
       </c>
       <c r="E97">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3919,30 +3946,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="2">
-        <v>33.50068263888889</v>
-      </c>
-      <c r="C98" s="2">
-        <v>36557.500682638885</v>
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>33.501219675925924</v>
+      </c>
+      <c r="C98" s="3">
+        <v>33.501219675925924</v>
       </c>
       <c r="D98">
         <v>9</v>
       </c>
       <c r="E98">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3951,30 +3978,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B99" s="3">
-        <v>33.500712731481478</v>
+        <v>33.501857638888886</v>
       </c>
       <c r="C99" s="3">
-        <v>33.500712731481478</v>
+        <v>33.501857638888886</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3983,30 +4010,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>33.500725347222222</v>
+        <v>33.501939699074072</v>
       </c>
       <c r="C100" s="3">
-        <v>33.500725347222222</v>
+        <v>33.501939699074072</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -4015,30 +4042,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
-        <v>33.501217592592596</v>
+        <v>33.501949421296295</v>
       </c>
       <c r="C101" s="3">
-        <v>33.501217592592596</v>
+        <v>33.501949421296295</v>
       </c>
       <c r="D101">
         <v>12</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -4047,62 +4074,62 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3">
-        <v>33.501433680555557</v>
+        <v>33.502052314814811</v>
       </c>
       <c r="C102" s="3">
-        <v>33.501433680555557</v>
+        <v>33.502052314814811</v>
       </c>
       <c r="D102">
         <v>11</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
       </c>
       <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
         <v>60</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="2">
-        <v>33.500445023148146</v>
-      </c>
-      <c r="C103" s="2">
-        <v>36557.50044502315</v>
+        <v>99</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.50214710648148</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.50214710648148</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4111,30 +4138,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>33.500471875000002</v>
+        <v>33.500625462962965</v>
       </c>
       <c r="C104" s="2">
-        <v>36557.500471874999</v>
+        <v>36557.500625462962</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4143,30 +4170,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>33.500472106481482</v>
+        <v>33.500630208333334</v>
       </c>
       <c r="C105" s="2">
-        <v>36557.500472106483</v>
+        <v>36557.500630208335</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4175,27 +4202,27 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2">
-        <v>33.50050636574074</v>
+        <v>33.500643287037036</v>
       </c>
       <c r="C106" s="2">
-        <v>36557.500506365737</v>
+        <v>36557.500643287036</v>
       </c>
       <c r="D106">
         <v>10</v>
       </c>
       <c r="E106">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
         <v>23</v>
@@ -4207,30 +4234,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2">
-        <v>33.500517592592594</v>
+        <v>33.500652430555554</v>
       </c>
       <c r="C107" s="2">
-        <v>36557.500517592591</v>
+        <v>36557.500652430557</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4239,30 +4266,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2">
-        <v>33.500526504629633</v>
+        <v>33.50068263888889</v>
       </c>
       <c r="C108" s="2">
-        <v>36557.500526504627</v>
+        <v>36557.500682638885</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4271,30 +4298,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="2">
-        <v>33.500535300925925</v>
-      </c>
-      <c r="C109" s="2">
-        <v>36557.500535300926</v>
+        <v>103</v>
+      </c>
+      <c r="B109" s="3">
+        <v>33.500712731481478</v>
+      </c>
+      <c r="C109" s="3">
+        <v>33.500712731481478</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4303,62 +4330,62 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="2">
-        <v>33.500539467592596</v>
-      </c>
-      <c r="C110" s="2">
-        <v>36557.50053946759</v>
+        <v>103</v>
+      </c>
+      <c r="B110" s="3">
+        <v>33.500725347222222</v>
+      </c>
+      <c r="C110" s="3">
+        <v>33.500725347222222</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s">
+        <v>47</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
         <v>48</v>
-      </c>
-      <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" s="2">
-        <v>33.500565856481479</v>
-      </c>
-      <c r="C111" s="2">
-        <v>36557.500565856484</v>
+        <v>104</v>
+      </c>
+      <c r="B111" s="3">
+        <v>33.501192129629629</v>
+      </c>
+      <c r="C111" s="3">
+        <v>33.501192129629629</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
         <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4367,30 +4394,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="2">
-        <v>33.500574999999998</v>
-      </c>
-      <c r="C112" s="2">
-        <v>36557.500574999998</v>
+        <v>104</v>
+      </c>
+      <c r="B112" s="3">
+        <v>33.501217592592596</v>
+      </c>
+      <c r="C112" s="3">
+        <v>33.501217592592596</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4399,30 +4426,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="2">
-        <v>33.500576157407409</v>
-      </c>
-      <c r="C113" s="2">
-        <v>36557.500576157407</v>
+        <v>104</v>
+      </c>
+      <c r="B113" s="3">
+        <v>33.501433680555557</v>
+      </c>
+      <c r="C113" s="3">
+        <v>33.501433680555557</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4431,30 +4458,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2">
-        <v>33.500576736111114</v>
+        <v>33.500443634259263</v>
       </c>
       <c r="C114" s="2">
-        <v>36557.500576736114</v>
+        <v>36557.500443634257</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E114">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4463,30 +4490,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2">
-        <v>33.500646643518522</v>
+        <v>33.500445023148146</v>
       </c>
       <c r="C115" s="2">
-        <v>36557.500646643515</v>
+        <v>36557.50044502315</v>
       </c>
       <c r="D115">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4495,30 +4522,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2">
-        <v>33.500650462962966</v>
+        <v>33.500471875000002</v>
       </c>
       <c r="C116" s="2">
-        <v>36557.500650462964</v>
+        <v>36557.500471874999</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4527,30 +4554,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2">
-        <v>33.500650810185185</v>
+        <v>33.500472106481482</v>
       </c>
       <c r="C117" s="2">
-        <v>36557.500650810187</v>
+        <v>36557.500472106483</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4559,30 +4586,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2">
-        <v>33.500667361111113</v>
+        <v>33.50050636574074</v>
       </c>
       <c r="C118" s="2">
-        <v>36557.500667361113</v>
+        <v>36557.500506365737</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4591,30 +4618,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>97</v>
-      </c>
-      <c r="B119" s="3">
-        <v>33.501024768518519</v>
-      </c>
-      <c r="C119" s="3">
-        <v>33.501024768518519</v>
+        <v>105</v>
+      </c>
+      <c r="B119" s="2">
+        <v>33.500517592592594</v>
+      </c>
+      <c r="C119" s="2">
+        <v>36557.500517592591</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4623,30 +4650,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>97</v>
-      </c>
-      <c r="B120" s="3">
-        <v>33.501044675925925</v>
-      </c>
-      <c r="C120" s="3">
-        <v>33.501044675925925</v>
+        <v>105</v>
+      </c>
+      <c r="B120" s="2">
+        <v>33.500526504629633</v>
+      </c>
+      <c r="C120" s="2">
+        <v>36557.500526504627</v>
       </c>
       <c r="D120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4655,30 +4682,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>97</v>
-      </c>
-      <c r="B121" s="3">
-        <v>33.501052430555553</v>
-      </c>
-      <c r="C121" s="3">
-        <v>33.501052430555553</v>
+        <v>105</v>
+      </c>
+      <c r="B121" s="2">
+        <v>33.500535300925925</v>
+      </c>
+      <c r="C121" s="2">
+        <v>36557.500535300926</v>
       </c>
       <c r="D121">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4687,30 +4714,30 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>97</v>
-      </c>
-      <c r="B122" s="3">
-        <v>33.50107060185185</v>
-      </c>
-      <c r="C122" s="3">
-        <v>33.50107060185185</v>
+        <v>105</v>
+      </c>
+      <c r="B122" s="2">
+        <v>33.500539467592596</v>
+      </c>
+      <c r="C122" s="2">
+        <v>36557.50053946759</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4719,30 +4746,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>97</v>
-      </c>
-      <c r="B123" s="3">
-        <v>33.501084374999998</v>
-      </c>
-      <c r="C123" s="3">
-        <v>33.501084374999998</v>
+        <v>105</v>
+      </c>
+      <c r="B123" s="2">
+        <v>33.500565856481479</v>
+      </c>
+      <c r="C123" s="2">
+        <v>36557.500565856484</v>
       </c>
       <c r="D123">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4751,30 +4778,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>97</v>
-      </c>
-      <c r="B124" s="3">
-        <v>33.501097685185186</v>
-      </c>
-      <c r="C124" s="3">
-        <v>33.501097685185186</v>
+        <v>105</v>
+      </c>
+      <c r="B124" s="2">
+        <v>33.500574999999998</v>
+      </c>
+      <c r="C124" s="2">
+        <v>36557.500574999998</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4783,30 +4810,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>97</v>
-      </c>
-      <c r="B125" s="3">
-        <v>33.501131134259261</v>
-      </c>
-      <c r="C125" s="3">
-        <v>33.501131134259261</v>
+        <v>105</v>
+      </c>
+      <c r="B125" s="2">
+        <v>33.500576157407409</v>
+      </c>
+      <c r="C125" s="2">
+        <v>36557.500576157407</v>
       </c>
       <c r="D125">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4815,30 +4842,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>97</v>
-      </c>
-      <c r="B126" s="3">
-        <v>33.501215625</v>
-      </c>
-      <c r="C126" s="3">
-        <v>33.501215625</v>
+        <v>105</v>
+      </c>
+      <c r="B126" s="2">
+        <v>33.500576736111114</v>
+      </c>
+      <c r="C126" s="2">
+        <v>36557.500576736114</v>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F126" t="s">
         <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4847,30 +4874,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="3">
-        <v>33.501056712962964</v>
-      </c>
-      <c r="C127" s="3">
-        <v>33.501056712962964</v>
+        <v>105</v>
+      </c>
+      <c r="B127" s="2">
+        <v>33.500646643518522</v>
+      </c>
+      <c r="C127" s="2">
+        <v>36557.500646643515</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4879,30 +4906,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>98</v>
-      </c>
-      <c r="B128" s="3">
-        <v>33.501103125</v>
-      </c>
-      <c r="C128" s="3">
-        <v>33.501103125</v>
+        <v>105</v>
+      </c>
+      <c r="B128" s="2">
+        <v>33.500650462962966</v>
+      </c>
+      <c r="C128" s="2">
+        <v>36557.500650462964</v>
       </c>
       <c r="D128">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4911,30 +4938,30 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129" s="3">
-        <v>33.501153240740742</v>
-      </c>
-      <c r="C129" s="3">
-        <v>33.501153240740742</v>
+        <v>105</v>
+      </c>
+      <c r="B129" s="2">
+        <v>33.500650810185185</v>
+      </c>
+      <c r="C129" s="2">
+        <v>36557.500650810187</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -4943,30 +4970,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>98</v>
-      </c>
-      <c r="B130" s="3">
-        <v>33.501161805555554</v>
-      </c>
-      <c r="C130" s="3">
-        <v>33.501161805555554</v>
+        <v>105</v>
+      </c>
+      <c r="B130" s="2">
+        <v>33.500667361111113</v>
+      </c>
+      <c r="C130" s="2">
+        <v>36557.500667361113</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -4975,30 +5002,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B131" s="3">
-        <v>33.50116678240741</v>
+        <v>33.501024768518519</v>
       </c>
       <c r="C131" s="3">
-        <v>33.50116678240741</v>
+        <v>33.501024768518519</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E131">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -5007,30 +5034,30 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B132" s="3">
-        <v>33.501247685185184</v>
+        <v>33.501044675925925</v>
       </c>
       <c r="C132" s="3">
-        <v>33.501247685185184</v>
+        <v>33.501044675925925</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E132">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -5039,30 +5066,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B133" s="3">
-        <v>33.501281365740738</v>
+        <v>33.501052430555553</v>
       </c>
       <c r="C133" s="3">
-        <v>33.501281365740738</v>
+        <v>33.501052430555553</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E133">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5071,30 +5098,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B134" s="3">
-        <v>33.501319791666667</v>
+        <v>33.50107060185185</v>
       </c>
       <c r="C134" s="3">
-        <v>33.501319791666667</v>
+        <v>33.50107060185185</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E134">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5103,30 +5130,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B135" s="3">
-        <v>33.50133414351852</v>
+        <v>33.501074537037034</v>
       </c>
       <c r="C135" s="3">
-        <v>33.50133414351852</v>
+        <v>33.501074537037034</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E135">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5135,30 +5162,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B136" s="3">
-        <v>33.5020375</v>
+        <v>33.501084374999998</v>
       </c>
       <c r="C136" s="3">
-        <v>33.5020375</v>
+        <v>33.501084374999998</v>
       </c>
       <c r="D136">
         <v>12</v>
       </c>
       <c r="E136">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5167,30 +5194,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B137" s="3">
-        <v>33.502179861111109</v>
+        <v>33.501097685185186</v>
       </c>
       <c r="C137" s="3">
-        <v>33.502179861111109</v>
+        <v>33.501097685185186</v>
       </c>
       <c r="D137">
         <v>11</v>
       </c>
       <c r="E137">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5199,30 +5226,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B138" s="3">
-        <v>33.502207523148151</v>
+        <v>33.501131134259261</v>
       </c>
       <c r="C138" s="3">
-        <v>33.502207523148151</v>
+        <v>33.501131134259261</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5231,30 +5258,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B139" s="3">
-        <v>33.502243402777779</v>
+        <v>33.501215625</v>
       </c>
       <c r="C139" s="3">
-        <v>33.502243402777779</v>
+        <v>33.501215625</v>
       </c>
       <c r="D139">
         <v>11</v>
       </c>
       <c r="E139">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5263,30 +5290,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B140" s="3">
-        <v>33.502264814814815</v>
+        <v>33.500930902777775</v>
       </c>
       <c r="C140" s="3">
-        <v>33.502264814814815</v>
+        <v>33.500930902777775</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5295,30 +5322,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B141" s="3">
-        <v>33.502334953703702</v>
+        <v>33.501056712962964</v>
       </c>
       <c r="C141" s="3">
-        <v>33.502334953703702</v>
+        <v>33.501056712962964</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5327,24 +5354,24 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B142" s="3">
-        <v>33.502342476851851</v>
+        <v>33.501103125</v>
       </c>
       <c r="C142" s="3">
-        <v>33.502342476851851</v>
+        <v>33.501103125</v>
       </c>
       <c r="D142">
         <v>11</v>
       </c>
       <c r="E142">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -5364,25 +5391,25 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B143" s="3">
-        <v>33.502411458333334</v>
+        <v>33.501153240740742</v>
       </c>
       <c r="C143" s="3">
-        <v>33.502411458333334</v>
+        <v>33.501153240740742</v>
       </c>
       <c r="D143">
         <v>10</v>
       </c>
       <c r="E143">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5391,30 +5418,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B144" s="3">
-        <v>33.502443287037039</v>
+        <v>33.501161805555554</v>
       </c>
       <c r="C144" s="3">
-        <v>33.502443287037039</v>
+        <v>33.501161805555554</v>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5423,30 +5450,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B145" s="2">
-        <v>33.500413773148146</v>
-      </c>
-      <c r="C145" s="2">
-        <v>36557.500413773145</v>
+        <v>107</v>
+      </c>
+      <c r="B145" s="3">
+        <v>33.50116678240741</v>
+      </c>
+      <c r="C145" s="3">
+        <v>33.50116678240741</v>
       </c>
       <c r="D145">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E145">
-        <v>440</v>
+        <v>62</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5455,30 +5482,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B146" s="2">
-        <v>33.500420486111111</v>
-      </c>
-      <c r="C146" s="2">
-        <v>36557.500420486111</v>
+        <v>107</v>
+      </c>
+      <c r="B146" s="3">
+        <v>33.501247685185184</v>
+      </c>
+      <c r="C146" s="3">
+        <v>33.501247685185184</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E146">
-        <v>408</v>
+        <v>65</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5487,30 +5514,30 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" s="2">
-        <v>33.50042488425926</v>
-      </c>
-      <c r="C147" s="2">
-        <v>36557.50042488426</v>
+        <v>107</v>
+      </c>
+      <c r="B147" s="3">
+        <v>33.501281365740738</v>
+      </c>
+      <c r="C147" s="3">
+        <v>33.501281365740738</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E147">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5519,30 +5546,30 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>10</v>
-      </c>
-      <c r="B148" s="2">
-        <v>33.500427314814814</v>
-      </c>
-      <c r="C148" s="2">
-        <v>36557.500427314815</v>
+        <v>107</v>
+      </c>
+      <c r="B148" s="3">
+        <v>33.501319791666667</v>
+      </c>
+      <c r="C148" s="3">
+        <v>33.501319791666667</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E148">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -5551,30 +5578,30 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="2">
-        <v>33.500443171296297</v>
-      </c>
-      <c r="C149" s="2">
-        <v>36557.500443171295</v>
+        <v>107</v>
+      </c>
+      <c r="B149" s="3">
+        <v>33.50133414351852</v>
+      </c>
+      <c r="C149" s="3">
+        <v>33.50133414351852</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5583,30 +5610,30 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="2">
-        <v>33.500474652777775</v>
-      </c>
-      <c r="C150" s="2">
-        <v>36557.500474652777</v>
+        <v>108</v>
+      </c>
+      <c r="B150" s="3">
+        <v>33.502024537037038</v>
+      </c>
+      <c r="C150" s="3">
+        <v>33.502024537037038</v>
       </c>
       <c r="D150">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E150">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5615,30 +5642,30 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="2">
-        <v>33.500475000000002</v>
-      </c>
-      <c r="C151" s="2">
-        <v>36557.500475000001</v>
+        <v>108</v>
+      </c>
+      <c r="B151" s="3">
+        <v>33.5020375</v>
+      </c>
+      <c r="C151" s="3">
+        <v>33.5020375</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E151">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5647,30 +5674,30 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="2">
-        <v>33.500483564814814</v>
-      </c>
-      <c r="C152" s="2">
-        <v>36557.500483564814</v>
+        <v>108</v>
+      </c>
+      <c r="B152" s="3">
+        <v>33.502179861111109</v>
+      </c>
+      <c r="C152" s="3">
+        <v>33.502179861111109</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5679,30 +5706,30 @@
         <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="2">
-        <v>33.500486226851855</v>
-      </c>
-      <c r="C153" s="2">
-        <v>36557.500486226854</v>
+        <v>108</v>
+      </c>
+      <c r="B153" s="3">
+        <v>33.502207523148151</v>
+      </c>
+      <c r="C153" s="3">
+        <v>33.502207523148151</v>
       </c>
       <c r="D153">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>367</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G153" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -5711,30 +5738,30 @@
         <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="2">
-        <v>33.500490972222224</v>
-      </c>
-      <c r="C154" s="2">
-        <v>36557.500490972219</v>
+        <v>108</v>
+      </c>
+      <c r="B154" s="3">
+        <v>33.502243402777779</v>
+      </c>
+      <c r="C154" s="3">
+        <v>33.502243402777779</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5743,30 +5770,30 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" s="2">
-        <v>33.500496527777777</v>
-      </c>
-      <c r="C155" s="2">
-        <v>36557.500496527777</v>
+        <v>108</v>
+      </c>
+      <c r="B155" s="3">
+        <v>33.502264814814815</v>
+      </c>
+      <c r="C155" s="3">
+        <v>33.502264814814815</v>
       </c>
       <c r="D155">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E155">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5775,30 +5802,30 @@
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B156" s="3">
-        <v>33.500905902777781</v>
+        <v>33.502334953703702</v>
       </c>
       <c r="C156" s="3">
-        <v>33.500905902777781</v>
+        <v>33.502334953703702</v>
       </c>
       <c r="D156">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -5807,30 +5834,30 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B157" s="3">
-        <v>33.500951157407407</v>
+        <v>33.502342476851851</v>
       </c>
       <c r="C157" s="3">
-        <v>33.500951157407407</v>
+        <v>33.502342476851851</v>
       </c>
       <c r="D157">
         <v>11</v>
       </c>
       <c r="E157">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -5839,30 +5866,30 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B158" s="3">
-        <v>33.50096099537037</v>
+        <v>33.502411458333334</v>
       </c>
       <c r="C158" s="3">
-        <v>33.50096099537037</v>
+        <v>33.502411458333334</v>
       </c>
       <c r="D158">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E158">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5871,30 +5898,30 @@
         <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B159" s="3">
-        <v>33.500961574074076</v>
+        <v>33.502443287037039</v>
       </c>
       <c r="C159" s="3">
-        <v>33.500961574074076</v>
+        <v>33.502443287037039</v>
       </c>
       <c r="D159">
         <v>11</v>
       </c>
       <c r="E159">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="F159" t="s">
         <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -5903,30 +5930,30 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>51</v>
-      </c>
-      <c r="B160" s="3">
-        <v>33.500977662037037</v>
-      </c>
-      <c r="C160" s="3">
-        <v>33.500977662037037</v>
+        <v>10</v>
+      </c>
+      <c r="B160" s="2">
+        <v>33.500413773148146</v>
+      </c>
+      <c r="C160" s="2">
+        <v>36557.500413773145</v>
       </c>
       <c r="D160">
         <v>11</v>
       </c>
       <c r="E160">
-        <v>242</v>
+        <v>440</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -5935,30 +5962,30 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>51</v>
-      </c>
-      <c r="B161" s="3">
-        <v>33.501045717592589</v>
-      </c>
-      <c r="C161" s="3">
-        <v>33.501045717592589</v>
+        <v>10</v>
+      </c>
+      <c r="B161" s="2">
+        <v>33.500420486111111</v>
+      </c>
+      <c r="C161" s="2">
+        <v>36557.500420486111</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>242</v>
+        <v>408</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -5967,62 +5994,62 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>51</v>
-      </c>
-      <c r="B162" s="3">
-        <v>33.501077083333335</v>
-      </c>
-      <c r="C162" s="3">
-        <v>33.501077083333335</v>
+        <v>10</v>
+      </c>
+      <c r="B162" s="2">
+        <v>33.50042488425926</v>
+      </c>
+      <c r="C162" s="2">
+        <v>36557.50042488426</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>190</v>
+        <v>388</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
       </c>
       <c r="G162" t="s">
+        <v>114</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
         <v>115</v>
-      </c>
-      <c r="H162" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>51</v>
-      </c>
-      <c r="B163" s="3">
-        <v>33.501116898148148</v>
-      </c>
-      <c r="C163" s="3">
-        <v>33.501116898148148</v>
+        <v>10</v>
+      </c>
+      <c r="B163" s="2">
+        <v>33.500427314814814</v>
+      </c>
+      <c r="C163" s="2">
+        <v>36557.500427314815</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -6031,30 +6058,30 @@
         <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>51</v>
-      </c>
-      <c r="B164" s="3">
-        <v>33.501171874999997</v>
-      </c>
-      <c r="C164" s="3">
-        <v>33.501171874999997</v>
+        <v>10</v>
+      </c>
+      <c r="B164" s="2">
+        <v>33.500443171296297</v>
+      </c>
+      <c r="C164" s="2">
+        <v>36557.500443171295</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164">
-        <v>156</v>
+        <v>435</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G164" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6063,30 +6090,30 @@
         <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>72</v>
-      </c>
-      <c r="B165" s="3">
-        <v>33.502040046296294</v>
-      </c>
-      <c r="C165" s="3">
-        <v>33.502040046296294</v>
+        <v>10</v>
+      </c>
+      <c r="B165" s="2">
+        <v>33.500474652777775</v>
+      </c>
+      <c r="C165" s="2">
+        <v>36557.500474652777</v>
       </c>
       <c r="D165">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="F165" t="s">
         <v>11</v>
       </c>
       <c r="G165" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6095,30 +6122,30 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>72</v>
-      </c>
-      <c r="B166" s="3">
-        <v>33.502098495370369</v>
-      </c>
-      <c r="C166" s="3">
-        <v>33.502098495370369</v>
+        <v>10</v>
+      </c>
+      <c r="B166" s="2">
+        <v>33.500475000000002</v>
+      </c>
+      <c r="C166" s="2">
+        <v>36557.500475000001</v>
       </c>
       <c r="D166">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -6127,30 +6154,30 @@
         <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>72</v>
-      </c>
-      <c r="B167" s="3">
-        <v>33.502143750000002</v>
-      </c>
-      <c r="C167" s="3">
-        <v>33.502143750000002</v>
+        <v>10</v>
+      </c>
+      <c r="B167" s="2">
+        <v>33.500483564814814</v>
+      </c>
+      <c r="C167" s="2">
+        <v>36557.500483564814</v>
       </c>
       <c r="D167">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E167">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G167" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6159,30 +6186,30 @@
         <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>72</v>
-      </c>
-      <c r="B168" s="3">
-        <v>33.502159374999998</v>
-      </c>
-      <c r="C168" s="3">
-        <v>33.502159374999998</v>
+        <v>10</v>
+      </c>
+      <c r="B168" s="2">
+        <v>33.500486226851855</v>
+      </c>
+      <c r="C168" s="2">
+        <v>36557.500486226854</v>
       </c>
       <c r="D168">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E168">
-        <v>171</v>
+        <v>367</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6191,30 +6218,30 @@
         <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>72</v>
-      </c>
-      <c r="B169" s="3">
-        <v>33.50237650462963</v>
-      </c>
-      <c r="C169" s="3">
-        <v>33.50237650462963</v>
+        <v>10</v>
+      </c>
+      <c r="B169" s="2">
+        <v>33.500490972222224</v>
+      </c>
+      <c r="C169" s="2">
+        <v>36557.500490972219</v>
       </c>
       <c r="D169">
         <v>10</v>
       </c>
       <c r="E169">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="F169" t="s">
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6228,57 +6255,57 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>72</v>
-      </c>
-      <c r="B170" s="3">
-        <v>33.502387384259258</v>
-      </c>
-      <c r="C170" s="3">
-        <v>33.502387384259258</v>
+        <v>10</v>
+      </c>
+      <c r="B170" s="2">
+        <v>33.500496527777777</v>
+      </c>
+      <c r="C170" s="2">
+        <v>36557.500496527777</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
       </c>
       <c r="G170" t="s">
+        <v>130</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" t="s">
         <v>131</v>
-      </c>
-      <c r="H170" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" t="s">
-        <v>14</v>
-      </c>
-      <c r="J170" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B171" s="3">
-        <v>33.502401736111111</v>
+        <v>33.500893750000003</v>
       </c>
       <c r="C171" s="3">
-        <v>33.502401736111111</v>
+        <v>33.500893750000003</v>
       </c>
       <c r="D171">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E171">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="F171" t="s">
         <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6287,30 +6314,30 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B172" s="3">
-        <v>33.502410995370369</v>
+        <v>33.500905902777781</v>
       </c>
       <c r="C172" s="3">
-        <v>33.502410995370369</v>
+        <v>33.500905902777781</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="F172" t="s">
         <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6319,30 +6346,30 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B173" s="3">
-        <v>33.502473726851854</v>
+        <v>33.500951157407407</v>
       </c>
       <c r="C173" s="3">
-        <v>33.502473726851854</v>
+        <v>33.500951157407407</v>
       </c>
       <c r="D173">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="F173" t="s">
         <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -6356,25 +6383,25 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>84</v>
-      </c>
-      <c r="B174" s="2">
-        <v>33.500474884259262</v>
-      </c>
-      <c r="C174" s="2">
-        <v>36557.500474884262</v>
+        <v>51</v>
+      </c>
+      <c r="B174" s="3">
+        <v>33.50096099537037</v>
+      </c>
+      <c r="C174" s="3">
+        <v>33.50096099537037</v>
       </c>
       <c r="D174">
         <v>11</v>
       </c>
       <c r="E174">
-        <v>442</v>
+        <v>276</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G174" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -6383,30 +6410,30 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>84</v>
-      </c>
-      <c r="B175" s="2">
-        <v>33.500477314814816</v>
-      </c>
-      <c r="C175" s="2">
-        <v>36557.500477314818</v>
+        <v>51</v>
+      </c>
+      <c r="B175" s="3">
+        <v>33.500961574074076</v>
+      </c>
+      <c r="C175" s="3">
+        <v>33.500961574074076</v>
       </c>
       <c r="D175">
         <v>11</v>
       </c>
       <c r="E175">
-        <v>431</v>
+        <v>274</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -6415,30 +6442,30 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>84</v>
-      </c>
-      <c r="B176" s="2">
-        <v>33.500491550925929</v>
-      </c>
-      <c r="C176" s="2">
-        <v>36557.500491550927</v>
+        <v>51</v>
+      </c>
+      <c r="B176" s="3">
+        <v>33.500977662037037</v>
+      </c>
+      <c r="C176" s="3">
+        <v>33.500977662037037</v>
       </c>
       <c r="D176">
         <v>11</v>
       </c>
       <c r="E176">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G176" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -6447,30 +6474,30 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>84</v>
-      </c>
-      <c r="B177" s="2">
-        <v>33.500498611111112</v>
-      </c>
-      <c r="C177" s="2">
-        <v>36557.500498611109</v>
+        <v>51</v>
+      </c>
+      <c r="B177" s="3">
+        <v>33.501045717592589</v>
+      </c>
+      <c r="C177" s="3">
+        <v>33.501045717592589</v>
       </c>
       <c r="D177">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E177">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="F177" t="s">
         <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -6479,30 +6506,30 @@
         <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>84</v>
-      </c>
-      <c r="B178" s="2">
-        <v>33.500509027777781</v>
-      </c>
-      <c r="C178" s="2">
-        <v>36557.500509027777</v>
+        <v>51</v>
+      </c>
+      <c r="B178" s="3">
+        <v>33.501077083333335</v>
+      </c>
+      <c r="C178" s="3">
+        <v>33.501077083333335</v>
       </c>
       <c r="D178">
         <v>10</v>
       </c>
       <c r="E178">
-        <v>423</v>
+        <v>190</v>
       </c>
       <c r="F178" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -6511,30 +6538,30 @@
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>84</v>
-      </c>
-      <c r="B179" s="2">
-        <v>33.500509953703705</v>
-      </c>
-      <c r="C179" s="2">
-        <v>36557.500509953701</v>
+        <v>51</v>
+      </c>
+      <c r="B179" s="3">
+        <v>33.501116898148148</v>
+      </c>
+      <c r="C179" s="3">
+        <v>33.501116898148148</v>
       </c>
       <c r="D179">
         <v>10</v>
       </c>
       <c r="E179">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="F179" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G179" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -6543,30 +6570,30 @@
         <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>84</v>
-      </c>
-      <c r="B180" s="2">
-        <v>33.500516319444444</v>
-      </c>
-      <c r="C180" s="2">
-        <v>36557.500516319444</v>
+        <v>51</v>
+      </c>
+      <c r="B180" s="3">
+        <v>33.501171874999997</v>
+      </c>
+      <c r="C180" s="3">
+        <v>33.501171874999997</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>396</v>
+        <v>156</v>
       </c>
       <c r="F180" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -6575,30 +6602,30 @@
         <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>84</v>
-      </c>
-      <c r="B181" s="2">
-        <v>33.500524305555558</v>
-      </c>
-      <c r="C181" s="2">
-        <v>36557.500524305557</v>
+        <v>76</v>
+      </c>
+      <c r="B181" s="3">
+        <v>33.502040046296294</v>
+      </c>
+      <c r="C181" s="3">
+        <v>33.502040046296294</v>
       </c>
       <c r="D181">
         <v>11</v>
       </c>
       <c r="E181">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -6607,30 +6634,30 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>84</v>
-      </c>
-      <c r="B182" s="2">
-        <v>33.500542708333334</v>
-      </c>
-      <c r="C182" s="2">
-        <v>36557.500542708331</v>
+        <v>76</v>
+      </c>
+      <c r="B182" s="3">
+        <v>33.502098495370369</v>
+      </c>
+      <c r="C182" s="3">
+        <v>33.502098495370369</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="F182" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -6639,30 +6666,30 @@
         <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>84</v>
-      </c>
-      <c r="B183" s="2">
-        <v>33.500557870370372</v>
-      </c>
-      <c r="C183" s="2">
-        <v>36557.500557870371</v>
+        <v>76</v>
+      </c>
+      <c r="B183" s="3">
+        <v>33.502143750000002</v>
+      </c>
+      <c r="C183" s="3">
+        <v>33.502143750000002</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="F183" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -6671,30 +6698,30 @@
         <v>14</v>
       </c>
       <c r="J183" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>84</v>
-      </c>
-      <c r="B184" s="2">
-        <v>33.500581712962962</v>
-      </c>
-      <c r="C184" s="2">
-        <v>36557.500581712964</v>
+        <v>76</v>
+      </c>
+      <c r="B184" s="3">
+        <v>33.502159374999998</v>
+      </c>
+      <c r="C184" s="3">
+        <v>33.502159374999998</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E184">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -6703,30 +6730,30 @@
         <v>14</v>
       </c>
       <c r="J184" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>84</v>
-      </c>
-      <c r="B185" s="2">
-        <v>33.500635879629627</v>
-      </c>
-      <c r="C185" s="2">
-        <v>36557.500635879631</v>
+        <v>76</v>
+      </c>
+      <c r="B185" s="3">
+        <v>33.50237650462963</v>
+      </c>
+      <c r="C185" s="3">
+        <v>33.50237650462963</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F185" t="s">
         <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -6735,30 +6762,30 @@
         <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B186" s="3">
-        <v>33.501073148148151</v>
+        <v>33.502387384259258</v>
       </c>
       <c r="C186" s="3">
-        <v>33.501073148148151</v>
+        <v>33.502387384259258</v>
       </c>
       <c r="D186">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>343</v>
+        <v>123</v>
       </c>
       <c r="F186" t="s">
         <v>11</v>
       </c>
       <c r="G186" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -6767,30 +6794,30 @@
         <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B187" s="3">
-        <v>33.50107789351852</v>
+        <v>33.502401736111111</v>
       </c>
       <c r="C187" s="3">
-        <v>33.50107789351852</v>
+        <v>33.502401736111111</v>
       </c>
       <c r="D187">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E187">
-        <v>334</v>
+        <v>226</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -6799,30 +6826,30 @@
         <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B188" s="3">
-        <v>33.501080671296293</v>
+        <v>33.502410995370369</v>
       </c>
       <c r="C188" s="3">
-        <v>33.501080671296293</v>
+        <v>33.502410995370369</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="F188" t="s">
         <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -6831,30 +6858,30 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B189" s="3">
-        <v>33.501083101851854</v>
+        <v>33.502473726851854</v>
       </c>
       <c r="C189" s="3">
-        <v>33.501083101851854</v>
+        <v>33.502473726851854</v>
       </c>
       <c r="D189">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G189" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -6863,30 +6890,30 @@
         <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>89</v>
-      </c>
-      <c r="B190" s="3">
-        <v>33.501101273148151</v>
-      </c>
-      <c r="C190" s="3">
-        <v>33.501101273148151</v>
+        <v>90</v>
+      </c>
+      <c r="B190" s="2">
+        <v>33.500474884259262</v>
+      </c>
+      <c r="C190" s="2">
+        <v>36557.500474884262</v>
       </c>
       <c r="D190">
         <v>11</v>
       </c>
       <c r="E190">
-        <v>291</v>
+        <v>442</v>
       </c>
       <c r="F190" t="s">
         <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -6895,30 +6922,30 @@
         <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>89</v>
-      </c>
-      <c r="B191" s="3">
-        <v>33.501177662037037</v>
-      </c>
-      <c r="C191" s="3">
-        <v>33.501177662037037</v>
+        <v>90</v>
+      </c>
+      <c r="B191" s="2">
+        <v>33.500477314814816</v>
+      </c>
+      <c r="C191" s="2">
+        <v>36557.500477314818</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191">
-        <v>301</v>
+        <v>431</v>
       </c>
       <c r="F191" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G191" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -6927,30 +6954,30 @@
         <v>14</v>
       </c>
       <c r="J191" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>89</v>
-      </c>
-      <c r="B192" s="3">
-        <v>33.501178009259256</v>
-      </c>
-      <c r="C192" s="3">
-        <v>33.501178009259256</v>
+        <v>90</v>
+      </c>
+      <c r="B192" s="2">
+        <v>33.500479166666665</v>
+      </c>
+      <c r="C192" s="2">
+        <v>36557.500479166665</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E192">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="F192" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G192" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -6959,30 +6986,30 @@
         <v>14</v>
       </c>
       <c r="J192" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>89</v>
-      </c>
-      <c r="B193" s="3">
-        <v>33.501195717592594</v>
-      </c>
-      <c r="C193" s="3">
-        <v>33.501195717592594</v>
+        <v>90</v>
+      </c>
+      <c r="B193" s="2">
+        <v>33.500491550925929</v>
+      </c>
+      <c r="C193" s="2">
+        <v>36557.500491550927</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -6991,30 +7018,30 @@
         <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>92</v>
-      </c>
-      <c r="B194" s="3">
-        <v>33.502196064814818</v>
-      </c>
-      <c r="C194" s="3">
-        <v>33.502196064814818</v>
+        <v>90</v>
+      </c>
+      <c r="B194" s="2">
+        <v>33.500498611111112</v>
+      </c>
+      <c r="C194" s="2">
+        <v>36557.500498611109</v>
       </c>
       <c r="D194">
         <v>11</v>
       </c>
       <c r="E194">
-        <v>483</v>
+        <v>341</v>
       </c>
       <c r="F194" t="s">
         <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -7023,30 +7050,30 @@
         <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>92</v>
-      </c>
-      <c r="B195" s="3">
-        <v>33.502291203703706</v>
-      </c>
-      <c r="C195" s="3">
-        <v>33.502291203703706</v>
+        <v>90</v>
+      </c>
+      <c r="B195" s="2">
+        <v>33.500509027777781</v>
+      </c>
+      <c r="C195" s="2">
+        <v>36557.500509027777</v>
       </c>
       <c r="D195">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G195" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -7055,30 +7082,30 @@
         <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>94</v>
-      </c>
-      <c r="B196" s="3">
-        <v>33.500712962962965</v>
-      </c>
-      <c r="C196" s="3">
-        <v>33.500712962962965</v>
+        <v>90</v>
+      </c>
+      <c r="B196" s="2">
+        <v>33.500509953703705</v>
+      </c>
+      <c r="C196" s="2">
+        <v>36557.500509953701</v>
       </c>
       <c r="D196">
         <v>10</v>
       </c>
       <c r="E196">
-        <v>52</v>
+        <v>420</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G196" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H196" t="s">
         <v>13</v>
@@ -7087,30 +7114,30 @@
         <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>94</v>
-      </c>
-      <c r="B197" s="3">
-        <v>33.500717708333333</v>
-      </c>
-      <c r="C197" s="3">
-        <v>33.500717708333333</v>
+        <v>90</v>
+      </c>
+      <c r="B197" s="2">
+        <v>33.500516319444444</v>
+      </c>
+      <c r="C197" s="2">
+        <v>36557.500516319444</v>
       </c>
       <c r="D197">
         <v>10</v>
       </c>
       <c r="E197">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G197" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H197" t="s">
         <v>13</v>
@@ -7119,30 +7146,30 @@
         <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>94</v>
-      </c>
-      <c r="B198" s="3">
-        <v>33.500728240740742</v>
-      </c>
-      <c r="C198" s="3">
-        <v>33.500728240740742</v>
+        <v>90</v>
+      </c>
+      <c r="B198" s="2">
+        <v>33.500524305555558</v>
+      </c>
+      <c r="C198" s="2">
+        <v>36557.500524305557</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E198">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H198" t="s">
         <v>13</v>
@@ -7151,30 +7178,30 @@
         <v>14</v>
       </c>
       <c r="J198" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>94</v>
-      </c>
-      <c r="B199" s="3">
-        <v>33.50076261574074</v>
-      </c>
-      <c r="C199" s="3">
-        <v>33.50076261574074</v>
+        <v>90</v>
+      </c>
+      <c r="B199" s="2">
+        <v>33.500542708333334</v>
+      </c>
+      <c r="C199" s="2">
+        <v>36557.500542708331</v>
       </c>
       <c r="D199">
         <v>10</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G199" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H199" t="s">
         <v>13</v>
@@ -7183,30 +7210,30 @@
         <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>94</v>
-      </c>
-      <c r="B200" s="3">
-        <v>33.500793865740739</v>
-      </c>
-      <c r="C200" s="3">
-        <v>33.500793865740739</v>
+        <v>90</v>
+      </c>
+      <c r="B200" s="2">
+        <v>33.500557870370372</v>
+      </c>
+      <c r="C200" s="2">
+        <v>36557.500557870371</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G200" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="H200" t="s">
         <v>13</v>
@@ -7215,30 +7242,30 @@
         <v>14</v>
       </c>
       <c r="J200" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B201" s="2">
-        <v>33.500542013888889</v>
+        <v>33.500581712962962</v>
       </c>
       <c r="C201" s="2">
-        <v>36557.500542013891</v>
+        <v>36557.500581712964</v>
       </c>
       <c r="D201">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E201">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="F201" t="s">
         <v>11</v>
       </c>
       <c r="G201" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="H201" t="s">
         <v>13</v>
@@ -7247,30 +7274,30 @@
         <v>14</v>
       </c>
       <c r="J201" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B202" s="2">
-        <v>33.500546527777779</v>
+        <v>33.500635879629627</v>
       </c>
       <c r="C202" s="2">
-        <v>36557.500546527779</v>
+        <v>36557.500635879631</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E202">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G202" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H202" t="s">
         <v>13</v>
@@ -7279,30 +7306,30 @@
         <v>14</v>
       </c>
       <c r="J202" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>96</v>
       </c>
-      <c r="B203" s="2">
-        <v>33.500611805555558</v>
-      </c>
-      <c r="C203" s="2">
-        <v>36557.500611805553</v>
+      <c r="B203" s="3">
+        <v>33.501019097222219</v>
+      </c>
+      <c r="C203" s="3">
+        <v>33.501019097222219</v>
       </c>
       <c r="D203">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G203" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="H203" t="s">
         <v>13</v>
@@ -7311,30 +7338,30 @@
         <v>14</v>
       </c>
       <c r="J203" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>96</v>
       </c>
-      <c r="B204" s="2">
-        <v>33.500633333333333</v>
-      </c>
-      <c r="C204" s="2">
-        <v>36557.500633333337</v>
+      <c r="B204" s="3">
+        <v>33.501073148148151</v>
+      </c>
+      <c r="C204" s="3">
+        <v>33.501073148148151</v>
       </c>
       <c r="D204">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G204" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H204" t="s">
         <v>13</v>
@@ -7343,30 +7370,30 @@
         <v>14</v>
       </c>
       <c r="J204" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>96</v>
       </c>
-      <c r="B205" s="2">
-        <v>33.500662037037038</v>
-      </c>
-      <c r="C205" s="2">
-        <v>36557.50066203704</v>
+      <c r="B205" s="3">
+        <v>33.50107789351852</v>
+      </c>
+      <c r="C205" s="3">
+        <v>33.50107789351852</v>
       </c>
       <c r="D205">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G205" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H205" t="s">
         <v>13</v>
@@ -7375,30 +7402,30 @@
         <v>14</v>
       </c>
       <c r="J205" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B206" s="3">
-        <v>33.501235416666667</v>
+        <v>33.501080671296293</v>
       </c>
       <c r="C206" s="3">
-        <v>33.501235416666667</v>
+        <v>33.501080671296293</v>
       </c>
       <c r="D206">
         <v>11</v>
       </c>
       <c r="E206">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G206" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H206" t="s">
         <v>13</v>
@@ -7407,30 +7434,30 @@
         <v>14</v>
       </c>
       <c r="J206" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B207" s="3">
-        <v>33.501240393518522</v>
+        <v>33.501083101851854</v>
       </c>
       <c r="C207" s="3">
-        <v>33.501240393518522</v>
+        <v>33.501083101851854</v>
       </c>
       <c r="D207">
         <v>11</v>
       </c>
       <c r="E207">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G207" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H207" t="s">
         <v>13</v>
@@ -7439,30 +7466,30 @@
         <v>14</v>
       </c>
       <c r="J207" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B208" s="3">
-        <v>33.502421412037037</v>
+        <v>33.501101273148151</v>
       </c>
       <c r="C208" s="3">
-        <v>33.502421412037037</v>
+        <v>33.501101273148151</v>
       </c>
       <c r="D208">
         <v>11</v>
       </c>
       <c r="E208">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H208" t="s">
         <v>13</v>
@@ -7471,30 +7498,30 @@
         <v>14</v>
       </c>
       <c r="J208" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B209" s="3">
-        <v>33.502425000000002</v>
+        <v>33.501177662037037</v>
       </c>
       <c r="C209" s="3">
-        <v>33.502425000000002</v>
+        <v>33.501177662037037</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G209" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H209" t="s">
         <v>13</v>
@@ -7503,30 +7530,30 @@
         <v>14</v>
       </c>
       <c r="J209" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B210" s="3">
-        <v>33.502559722222223</v>
+        <v>33.501178009259256</v>
       </c>
       <c r="C210" s="3">
-        <v>33.502559722222223</v>
+        <v>33.501178009259256</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G210" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="H210" t="s">
         <v>13</v>
@@ -7535,30 +7562,30 @@
         <v>14</v>
       </c>
       <c r="J210" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B211" s="3">
-        <v>33.502609837962964</v>
+        <v>33.501195717592594</v>
       </c>
       <c r="C211" s="3">
-        <v>33.502609837962964</v>
+        <v>33.501195717592594</v>
       </c>
       <c r="D211">
         <v>10</v>
       </c>
       <c r="E211">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G211" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H211" t="s">
         <v>13</v>
@@ -7567,7 +7594,7 @@
         <v>14</v>
       </c>
       <c r="J211" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7575,22 +7602,22 @@
         <v>99</v>
       </c>
       <c r="B212" s="3">
-        <v>33.502745833333336</v>
+        <v>33.502196064814818</v>
       </c>
       <c r="C212" s="3">
-        <v>33.502745833333336</v>
+        <v>33.502196064814818</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>114</v>
+        <v>483</v>
       </c>
       <c r="F212" t="s">
         <v>11</v>
       </c>
       <c r="G212" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H212" t="s">
         <v>13</v>
@@ -7607,31 +7634,607 @@
         <v>99</v>
       </c>
       <c r="B213" s="3">
+        <v>33.502291203703706</v>
+      </c>
+      <c r="C213" s="3">
+        <v>33.502291203703706</v>
+      </c>
+      <c r="D213">
+        <v>11</v>
+      </c>
+      <c r="E213">
+        <v>393</v>
+      </c>
+      <c r="F213" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" t="s">
+        <v>114</v>
+      </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>103</v>
+      </c>
+      <c r="B214" s="3">
+        <v>33.500712962962965</v>
+      </c>
+      <c r="C214" s="3">
+        <v>33.500712962962965</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>52</v>
+      </c>
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" t="s">
+        <v>122</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>103</v>
+      </c>
+      <c r="B215" s="3">
+        <v>33.500717708333333</v>
+      </c>
+      <c r="C215" s="3">
+        <v>33.500717708333333</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215">
+        <v>44</v>
+      </c>
+      <c r="F215" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" t="s">
+        <v>140</v>
+      </c>
+      <c r="H215" t="s">
+        <v>13</v>
+      </c>
+      <c r="I215" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>103</v>
+      </c>
+      <c r="B216" s="3">
+        <v>33.500728240740742</v>
+      </c>
+      <c r="C216" s="3">
+        <v>33.500728240740742</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216">
+        <v>133</v>
+      </c>
+      <c r="F216" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" t="s">
+        <v>126</v>
+      </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>103</v>
+      </c>
+      <c r="B217" s="3">
+        <v>33.50076261574074</v>
+      </c>
+      <c r="C217" s="3">
+        <v>33.50076261574074</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" t="s">
+        <v>128</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>103</v>
+      </c>
+      <c r="B218" s="3">
+        <v>33.500793865740739</v>
+      </c>
+      <c r="C218" s="3">
+        <v>33.500793865740739</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218">
+        <v>20</v>
+      </c>
+      <c r="F218" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" t="s">
+        <v>120</v>
+      </c>
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>105</v>
+      </c>
+      <c r="B219" s="2">
+        <v>33.500542013888889</v>
+      </c>
+      <c r="C219" s="2">
+        <v>36557.500542013891</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>207</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" t="s">
+        <v>122</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>105</v>
+      </c>
+      <c r="B220" s="2">
+        <v>33.500546527777779</v>
+      </c>
+      <c r="C220" s="2">
+        <v>36557.500546527779</v>
+      </c>
+      <c r="D220">
+        <v>11</v>
+      </c>
+      <c r="E220">
+        <v>76</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" t="s">
+        <v>112</v>
+      </c>
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>105</v>
+      </c>
+      <c r="B221" s="2">
+        <v>33.500611805555558</v>
+      </c>
+      <c r="C221" s="2">
+        <v>36557.500611805553</v>
+      </c>
+      <c r="D221">
+        <v>10</v>
+      </c>
+      <c r="E221">
+        <v>51</v>
+      </c>
+      <c r="F221" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" t="s">
+        <v>128</v>
+      </c>
+      <c r="H221" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>105</v>
+      </c>
+      <c r="B222" s="2">
+        <v>33.500633333333333</v>
+      </c>
+      <c r="C222" s="2">
+        <v>36557.500633333337</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222">
+        <v>98</v>
+      </c>
+      <c r="F222" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" t="s">
+        <v>130</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>105</v>
+      </c>
+      <c r="B223" s="2">
+        <v>33.500662037037038</v>
+      </c>
+      <c r="C223" s="2">
+        <v>36557.50066203704</v>
+      </c>
+      <c r="D223">
+        <v>10</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" t="s">
+        <v>140</v>
+      </c>
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>106</v>
+      </c>
+      <c r="B224" s="3">
+        <v>33.501235416666667</v>
+      </c>
+      <c r="C224" s="3">
+        <v>33.501235416666667</v>
+      </c>
+      <c r="D224">
+        <v>11</v>
+      </c>
+      <c r="E224">
+        <v>78</v>
+      </c>
+      <c r="F224" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" t="s">
+        <v>112</v>
+      </c>
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>106</v>
+      </c>
+      <c r="B225" s="3">
+        <v>33.501240393518522</v>
+      </c>
+      <c r="C225" s="3">
+        <v>33.501240393518522</v>
+      </c>
+      <c r="D225">
+        <v>11</v>
+      </c>
+      <c r="E225">
+        <v>73</v>
+      </c>
+      <c r="F225" t="s">
+        <v>18</v>
+      </c>
+      <c r="G225" t="s">
+        <v>135</v>
+      </c>
+      <c r="H225" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>108</v>
+      </c>
+      <c r="B226" s="3">
+        <v>33.502421412037037</v>
+      </c>
+      <c r="C226" s="3">
+        <v>33.502421412037037</v>
+      </c>
+      <c r="D226">
+        <v>11</v>
+      </c>
+      <c r="E226">
+        <v>207</v>
+      </c>
+      <c r="F226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G226" t="s">
+        <v>110</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>108</v>
+      </c>
+      <c r="B227" s="3">
+        <v>33.502425000000002</v>
+      </c>
+      <c r="C227" s="3">
+        <v>33.502425000000002</v>
+      </c>
+      <c r="D227">
+        <v>11</v>
+      </c>
+      <c r="E227">
+        <v>204</v>
+      </c>
+      <c r="F227" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>135</v>
+      </c>
+      <c r="H227" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>108</v>
+      </c>
+      <c r="B228" s="3">
+        <v>33.502559722222223</v>
+      </c>
+      <c r="C228" s="3">
+        <v>33.502559722222223</v>
+      </c>
+      <c r="D228">
+        <v>11</v>
+      </c>
+      <c r="E228">
+        <v>113</v>
+      </c>
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="s">
+        <v>116</v>
+      </c>
+      <c r="H228" t="s">
+        <v>13</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>108</v>
+      </c>
+      <c r="B229" s="3">
+        <v>33.502609837962964</v>
+      </c>
+      <c r="C229" s="3">
+        <v>33.502609837962964</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
+      </c>
+      <c r="E229">
+        <v>194</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
+        <v>118</v>
+      </c>
+      <c r="H229" t="s">
+        <v>13</v>
+      </c>
+      <c r="I229" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>108</v>
+      </c>
+      <c r="B230" s="3">
+        <v>33.502745833333336</v>
+      </c>
+      <c r="C230" s="3">
+        <v>33.502745833333336</v>
+      </c>
+      <c r="D230">
+        <v>10</v>
+      </c>
+      <c r="E230">
+        <v>114</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="G230" t="s">
+        <v>140</v>
+      </c>
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>108</v>
+      </c>
+      <c r="B231" s="3">
         <v>33.502784722222223</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C231" s="3">
         <v>33.502784722222223</v>
       </c>
-      <c r="D213">
-        <v>10</v>
-      </c>
-      <c r="E213">
+      <c r="D231">
+        <v>10</v>
+      </c>
+      <c r="E231">
         <v>94</v>
       </c>
-      <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s">
-        <v>115</v>
-      </c>
-      <c r="H213" t="s">
-        <v>13</v>
-      </c>
-      <c r="I213" t="s">
-        <v>14</v>
-      </c>
-      <c r="J213" t="s">
-        <v>130</v>
+      <c r="F231" t="s">
+        <v>11</v>
+      </c>
+      <c r="G231" t="s">
+        <v>124</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
